--- a/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.02076238092093586</v>
+        <v>0.01966537075964093</v>
       </c>
       <c r="F2">
         <v>0.500561179338383</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01795475698641651</v>
+        <v>0.01732516864602495</v>
       </c>
       <c r="F4">
         <v>0.5714889600206782</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>104</v>
       </c>
       <c r="E5">
-        <v>0.01078399658020905</v>
+        <v>0.01056753563960799</v>
       </c>
       <c r="F5">
         <v>0.5441322356657431</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02040825620455831</v>
+        <v>0.02006386932794558</v>
       </c>
       <c r="F6">
         <v>0.5100862049166497</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.02076238092093586</v>
+        <v>0.01966537075964093</v>
       </c>
       <c r="F2">
         <v>0.7085455071836502</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>133</v>
       </c>
       <c r="E4">
-        <v>0.01795475698641651</v>
+        <v>0.01732516864602495</v>
       </c>
       <c r="F4">
         <v>0.7002569696730087</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.01078399658020905</v>
+        <v>0.01056753563960799</v>
       </c>
       <c r="F5">
         <v>0.7055098616585798</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.02040825620455831</v>
+        <v>0.02006386932794558</v>
       </c>
       <c r="F6">
         <v>0.705459605389704</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.02076238092093586</v>
+        <v>0.01966537075964093</v>
       </c>
       <c r="F2">
         <v>0.8056522921059514</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.01795475698641651</v>
+        <v>0.01732516864602495</v>
       </c>
       <c r="F4">
         <v>0.8038470846913596</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.01078399658020905</v>
+        <v>0.01056753563960799</v>
       </c>
       <c r="F5">
         <v>0.8042093324125088</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>161</v>
       </c>
       <c r="E6">
-        <v>0.02040825620455831</v>
+        <v>0.02006386932794558</v>
       </c>
       <c r="F6">
         <v>0.8050052417251257</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.02076238092093586</v>
+        <v>0.01966537075964093</v>
       </c>
       <c r="F2">
         <v>0.9028085730029747</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>175</v>
       </c>
       <c r="E4">
-        <v>0.01795475698641651</v>
+        <v>0.01732516864602495</v>
       </c>
       <c r="F4">
         <v>0.9013784831557763</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.01078399658020905</v>
+        <v>0.01056753563960799</v>
       </c>
       <c r="F5">
         <v>0.9075870147461558</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>173</v>
       </c>
       <c r="E6">
-        <v>0.02040825620455831</v>
+        <v>0.02006386932794558</v>
       </c>
       <c r="F6">
         <v>0.9013006814728387</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>40</v>

--- a/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.91777314029164E-05</v>
+        <v>4.328325349088436E-05</v>
       </c>
       <c r="C2">
-        <v>2.326877066379922E-05</v>
+        <v>1.734512638316343E-05</v>
       </c>
       <c r="D2">
-        <v>1.836765852398288E-07</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.505253442941077E-05</v>
+        <v>9.11964092504267E-06</v>
       </c>
       <c r="F2">
-        <v>0.0001146415732704344</v>
+        <v>0.0001088207896513287</v>
       </c>
       <c r="G2">
-        <v>0.0001311961837426956</v>
+        <v>0.0001253940360648763</v>
       </c>
       <c r="H2">
-        <v>0.0001146415732704344</v>
+        <v>0.0001088207896513287</v>
       </c>
       <c r="I2">
-        <v>0.0002090771659644431</v>
+        <v>0.000203362690866685</v>
       </c>
       <c r="J2">
-        <v>0.0004028353114918734</v>
+        <v>0.0003973389548107255</v>
       </c>
       <c r="K2">
-        <v>0.0004070303116115461</v>
+        <v>0.0004015386773475193</v>
       </c>
       <c r="L2">
-        <v>0.0005293073650998015</v>
+        <v>0.0005239533811896321</v>
       </c>
       <c r="M2">
-        <v>0.0004931754140690482</v>
+        <v>0.0004877807555130393</v>
       </c>
       <c r="N2">
-        <v>0.000331674069461823</v>
+        <v>0.0003260976047811205</v>
       </c>
       <c r="O2">
-        <v>0.0002075727059215247</v>
+        <v>0.0002018565372152655</v>
       </c>
       <c r="P2">
-        <v>6.934014197809902E-05</v>
+        <v>6.346836139865E-05</v>
       </c>
       <c r="Q2">
-        <v>1.998463657011118E-05</v>
+        <v>1.405729525714418E-05</v>
       </c>
       <c r="R2">
-        <v>5.943148169542999E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.154642418521448E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.094138959740492E-08</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3.564501101686209E-05</v>
+        <v>2.973529898120134E-05</v>
       </c>
       <c r="V2">
-        <v>7.870389224522315E-05</v>
+        <v>7.284265267490817E-05</v>
       </c>
       <c r="W2">
-        <v>0.0001262062636003458</v>
+        <v>0.000120398498643947</v>
       </c>
       <c r="X2">
-        <v>0.0001074444180651177</v>
+        <v>0.0001016155324274197</v>
       </c>
       <c r="Y2">
-        <v>0.0001915457054643149</v>
+        <v>0.0001858114947606304</v>
       </c>
       <c r="Z2">
-        <v>0.0003472544299062914</v>
+        <v>0.0003416955044291207</v>
       </c>
       <c r="AA2">
-        <v>0.0004408907725774995</v>
+        <v>0.0004354372558858281</v>
       </c>
       <c r="AB2">
-        <v>0.0003961271513005065</v>
+        <v>0.0003906232430747497</v>
       </c>
       <c r="AC2">
-        <v>0.000281431658028534</v>
+        <v>0.000275798634201899</v>
       </c>
       <c r="AD2">
-        <v>0.0004121917717587896</v>
+        <v>0.0004067059478802392</v>
       </c>
       <c r="AE2">
-        <v>0.0004171443719000747</v>
+        <v>0.0004116641232880402</v>
       </c>
       <c r="AF2">
-        <v>0.0002569261073294525</v>
+        <v>0.0002512654969881856</v>
       </c>
       <c r="AG2">
-        <v>0.0001620064446216345</v>
+        <v>0.0001562389808292331</v>
       </c>
       <c r="AH2">
-        <v>5.675894161918916E-05</v>
+        <v>5.087299806613265E-05</v>
       </c>
       <c r="AI2">
-        <v>2.114097360309855E-05</v>
+        <v>1.521493400780652E-05</v>
       </c>
       <c r="AJ2">
-        <v>3.556830401467383E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.858965781559069E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.470309213109043E-06</v>
+        <v>1.528880207154366E-06</v>
       </c>
       <c r="AM2">
-        <v>8.584352244889874E-05</v>
+        <v>7.999032013983525E-05</v>
       </c>
       <c r="AN2">
-        <v>0.000102693777929594</v>
+        <v>9.685954437683705E-05</v>
       </c>
       <c r="AO2">
-        <v>0.000236551586748219</v>
+        <v>0.0002308680402968015</v>
       </c>
       <c r="AP2">
-        <v>0.0004575772130535215</v>
+        <v>0.0004521424807074867</v>
       </c>
       <c r="AQ2">
-        <v>0.0003640669103859089</v>
+        <v>0.0003585269111407762</v>
       </c>
       <c r="AR2">
-        <v>0.0004070303116115461</v>
+        <v>0.0004015386773475193</v>
       </c>
       <c r="AS2">
-        <v>0.0005511100157217759</v>
+        <v>0.0005457805756036553</v>
       </c>
       <c r="AT2">
-        <v>0.0005951875569791969</v>
+        <v>0.0005899077360576316</v>
       </c>
       <c r="AU2">
-        <v>0.0003007902485807857</v>
+        <v>0.0002951790172063212</v>
       </c>
       <c r="AV2">
-        <v>0.000220791796298632</v>
+        <v>0.000215090508654814</v>
       </c>
       <c r="AW2">
-        <v>0.000144657784126721</v>
+        <v>0.0001388707905109558</v>
       </c>
       <c r="AX2">
-        <v>0.0001131583532281218</v>
+        <v>0.0001073358999109179</v>
       </c>
       <c r="AY2">
-        <v>6.202180676932541E-05</v>
+        <v>5.614178775590699E-05</v>
       </c>
       <c r="AZ2">
-        <v>6.581869487764103E-09</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>6.581869487764103E-09</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>8.790829250780142E-06</v>
+        <v>2.850886787437311E-06</v>
       </c>
       <c r="BC2">
-        <v>4.919185540331932E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>5.860605767188272E-05</v>
+        <v>5.27221934638138E-05</v>
       </c>
       <c r="BE2">
-        <v>0.0001709718848773958</v>
+        <v>0.0001652145137065329</v>
       </c>
       <c r="BF2">
-        <v>0.0001651168947103677</v>
+        <v>0.0001593529324298458</v>
       </c>
       <c r="BG2">
-        <v>0.000360324310279142</v>
+        <v>0.0003547800978949588</v>
       </c>
       <c r="BH2">
-        <v>0.0003689492105251886</v>
+        <v>0.0003634147074080917</v>
       </c>
       <c r="BI2">
-        <v>0.0005271832450392057</v>
+        <v>0.0005218268699536716</v>
       </c>
       <c r="BJ2">
-        <v>0.0007732485720588276</v>
+        <v>0.0007681691988994118</v>
       </c>
       <c r="BK2">
-        <v>0.0005247926649710084</v>
+        <v>0.0005194335987493787</v>
       </c>
       <c r="BL2">
-        <v>0.0002569261073294525</v>
+        <v>0.0002512654969881856</v>
       </c>
       <c r="BM2">
-        <v>0.000189627065409581</v>
+        <v>0.0001838906948445413</v>
       </c>
       <c r="BN2">
-        <v>0.0001593638945462492</v>
+        <v>0.0001535934559687791</v>
       </c>
       <c r="BO2">
-        <v>3.161698390195265E-05</v>
+        <v>2.570273741488096E-05</v>
       </c>
       <c r="BP2">
-        <v>1.469609941924258E-05</v>
+        <v>8.762804667020714E-06</v>
       </c>
       <c r="BQ2">
-        <v>2.776810079215374E-05</v>
+        <v>2.184952152058238E-05</v>
       </c>
       <c r="BR2">
-        <v>0.0001392762639731998</v>
+        <v>0.0001334832122448755</v>
       </c>
       <c r="BS2">
-        <v>0.0002794882579730937</v>
+        <v>0.0002738530464121481</v>
       </c>
       <c r="BT2">
-        <v>0.0003890090510974451</v>
+        <v>0.0003834971298472998</v>
       </c>
       <c r="BU2">
-        <v>0.0003707264905758899</v>
+        <v>0.0003651939881876372</v>
       </c>
       <c r="BV2">
-        <v>0.0003794742908254425</v>
+        <v>0.0003739516360559005</v>
       </c>
       <c r="BW2">
-        <v>0.0005110817145798697</v>
+        <v>0.0005057072135966127</v>
       </c>
       <c r="BX2">
-        <v>0.000561764516025722</v>
+        <v>0.0005564470699465087</v>
       </c>
       <c r="BY2">
-        <v>0.0006436021183603419</v>
+        <v>0.0006383767989279429</v>
       </c>
       <c r="BZ2">
-        <v>0.0006948252198216076</v>
+        <v>0.0006896575635225658</v>
       </c>
       <c r="CA2">
-        <v>0.0005055981644234379</v>
+        <v>0.0005002174904698819</v>
       </c>
       <c r="CB2">
-        <v>0.000386272771019386</v>
+        <v>0.000380757769469951</v>
       </c>
       <c r="CC2">
-        <v>0.0002794882579730937</v>
+        <v>0.0002738530464121481</v>
       </c>
       <c r="CD2">
-        <v>5.588801859434393E-05</v>
+        <v>5.000109462133835E-05</v>
       </c>
       <c r="CE2">
-        <v>4.154642418521448E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>4.908762140034578E-07</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>4.60612443140109E-05</v>
+        <v>4.016325809409654E-05</v>
       </c>
       <c r="CH2">
-        <v>9.352142266792985E-05</v>
+        <v>8.767686356420932E-05</v>
       </c>
       <c r="CI2">
-        <v>0.0002335366366622101</v>
+        <v>0.0002278496962056677</v>
       </c>
       <c r="CJ2">
-        <v>0.0003363348795947841</v>
+        <v>0.0003307636617052478</v>
       </c>
       <c r="CK2">
-        <v>0.0003982044413597664</v>
+        <v>0.0003927028715916642</v>
       </c>
       <c r="CL2">
-        <v>0.0006988057199351611</v>
+        <v>0.0006936425445851897</v>
       </c>
       <c r="CM2">
-        <v>0.004035404115119882</v>
+        <v>0.004033997032484572</v>
       </c>
       <c r="CN2">
-        <v>0.09095958259484702</v>
+        <v>0.09105602824569825</v>
       </c>
       <c r="CO2">
-        <v>0.0247143027050366</v>
+        <v>0.02473617437852996</v>
       </c>
       <c r="CP2">
-        <v>0.02515320371755734</v>
+        <v>0.02517556947295697</v>
       </c>
       <c r="CQ2">
-        <v>0.01087677031028677</v>
+        <v>0.01088306472560851</v>
       </c>
       <c r="CR2">
-        <v>0.0017801331507827</v>
+        <v>0.001776187252912401</v>
       </c>
       <c r="CS2">
-        <v>0.003844934109686253</v>
+        <v>0.003843312610176319</v>
       </c>
       <c r="CT2">
-        <v>0.0003255897392882525</v>
+        <v>0.0003200064253240786</v>
       </c>
       <c r="CU2">
-        <v>0.04271361321851144</v>
+        <v>0.04275574716845561</v>
       </c>
       <c r="CV2">
-        <v>0.04476744427710205</v>
+        <v>0.04481189027631396</v>
       </c>
       <c r="CW2">
-        <v>0.001834785752341801</v>
+        <v>0.001830901378279357</v>
       </c>
       <c r="CX2">
-        <v>0.1591607245404532</v>
+        <v>0.1593339459317601</v>
       </c>
       <c r="CY2">
-        <v>0.006790193893707072</v>
+        <v>0.006791887947196718</v>
       </c>
       <c r="CZ2">
-        <v>0.01360975338825187</v>
+        <v>0.01361912439134733</v>
       </c>
       <c r="DA2">
-        <v>0.04634952132223471</v>
+        <v>0.04639574830535882</v>
       </c>
       <c r="DB2">
-        <v>0.002882841582240185</v>
+        <v>0.002880137030979586</v>
       </c>
       <c r="DC2">
-        <v>0.1042676329744921</v>
+        <v>0.1043790598322963</v>
       </c>
       <c r="DD2">
-        <v>0.0111575743182974</v>
+        <v>0.01116418484175198</v>
       </c>
       <c r="DE2">
-        <v>0.01717437048994139</v>
+        <v>0.01718775427214311</v>
       </c>
       <c r="DF2">
-        <v>0.004946150541101175</v>
+        <v>0.004945768708618976</v>
       </c>
       <c r="DG2">
-        <v>0.005143566146732943</v>
+        <v>0.005143406549962163</v>
       </c>
       <c r="DH2">
-        <v>0.001251445035700564</v>
+        <v>0.001246903980324869</v>
       </c>
       <c r="DI2">
-        <v>0.005093849845314663</v>
+        <v>0.005093634281653224</v>
       </c>
       <c r="DJ2">
-        <v>3.413867797389021E-05</v>
+        <v>2.822727022124514E-05</v>
       </c>
       <c r="DK2">
-        <v>0.001170449033389953</v>
+        <v>0.001165816798777753</v>
       </c>
       <c r="DL2">
-        <v>0.01390725439673882</v>
+        <v>0.01391696030420041</v>
       </c>
       <c r="DM2">
-        <v>0.005722136163238084</v>
+        <v>0.005722627877283449</v>
       </c>
       <c r="DN2">
-        <v>0.003585212502277052</v>
+        <v>0.003583298627622769</v>
       </c>
       <c r="DO2">
-        <v>0.003675227104844941</v>
+        <v>0.003673414561892251</v>
       </c>
       <c r="DP2">
-        <v>0.0003363348795947841</v>
+        <v>0.0003307636617052478</v>
       </c>
       <c r="DQ2">
-        <v>0.01085626930970193</v>
+        <v>0.01086254064653179</v>
       </c>
       <c r="DR2">
-        <v>0.001890264753924476</v>
+        <v>0.001886442833969174</v>
       </c>
       <c r="DS2">
-        <v>7.434581712089828E-05</v>
+        <v>6.847967155582887E-05</v>
       </c>
       <c r="DT2">
-        <v>0.0006832789694922223</v>
+        <v>0.0006780983152888458</v>
       </c>
       <c r="DU2">
-        <v>0.0006324914180433818</v>
+        <v>0.0006272535910162493</v>
       </c>
       <c r="DV2">
-        <v>0.01638233546734663</v>
+        <v>0.01639482763580712</v>
       </c>
       <c r="DW2">
-        <v>0.01297424587012245</v>
+        <v>0.01298290146642445</v>
       </c>
       <c r="DX2">
-        <v>0.00530260955127005</v>
+        <v>0.005302628993659021</v>
       </c>
       <c r="DY2">
-        <v>0.0001832982452290357</v>
+        <v>0.000177554750151976</v>
       </c>
       <c r="DZ2">
-        <v>0.004569952130369185</v>
+        <v>0.004569146801876242</v>
       </c>
       <c r="EA2">
-        <v>0.001746082949811334</v>
+        <v>0.001742098720773585</v>
       </c>
       <c r="EB2">
-        <v>0.0002192456762545251</v>
+        <v>0.0002135426481044951</v>
       </c>
       <c r="EC2">
-        <v>0.001709027148754225</v>
+        <v>0.001705001205069431</v>
       </c>
       <c r="ED2">
-        <v>8.05641782982924E-05</v>
+        <v>7.47050328987656E-05</v>
       </c>
       <c r="EE2">
-        <v>0.007887752225017636</v>
+        <v>0.007890681827519744</v>
       </c>
       <c r="EF2">
-        <v>3.441125298166609E-05</v>
+        <v>2.850015207356137E-05</v>
       </c>
       <c r="EG2">
-        <v>1.425459340664753E-05</v>
+        <v>8.320801640005294E-06</v>
       </c>
       <c r="EH2">
-        <v>0.006506907185625618</v>
+        <v>0.006508282336144526</v>
       </c>
       <c r="EI2">
-        <v>0.006761593892891185</v>
+        <v>0.006763255750640745</v>
       </c>
       <c r="EJ2">
-        <v>0.0031883826909565</v>
+        <v>0.003186022095005038</v>
       </c>
       <c r="EK2">
-        <v>0.002246515064087397</v>
+        <v>0.002243094184064419</v>
       </c>
       <c r="EL2">
-        <v>0.002938438283826218</v>
+        <v>0.002935796319170614</v>
       </c>
       <c r="EM2">
-        <v>6.494949185284487E-08</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.001637963746726966</v>
+        <v>0.001633857805183569</v>
       </c>
       <c r="EO2">
-        <v>0.0001620064446216345</v>
+        <v>0.0001562389808292331</v>
       </c>
       <c r="EP2">
-        <v>0.0005269120150314682</v>
+        <v>0.0005215553346154941</v>
       </c>
       <c r="EQ2">
-        <v>0.0006793429193799366</v>
+        <v>0.0006741578342659739</v>
       </c>
       <c r="ER2">
-        <v>4.28259212217153E-07</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0003913013111628375</v>
+        <v>0.0003857919703674884</v>
       </c>
       <c r="ET2">
-        <v>1.147792432743618E-06</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0001753886850033959</v>
+        <v>0.0001696362859354985</v>
       </c>
       <c r="EV2">
-        <v>0.001090257131102281</v>
+        <v>0.001085534622449192</v>
       </c>
       <c r="EW2">
-        <v>0.005836610866503758</v>
+        <v>0.005837231447601139</v>
       </c>
       <c r="EX2">
-        <v>0.0144589674124778</v>
+        <v>0.01446929439715443</v>
       </c>
       <c r="EY2">
-        <v>0.01578311245025231</v>
+        <v>0.01579493005829456</v>
       </c>
       <c r="EZ2">
-        <v>0.003078191087813013</v>
+        <v>0.003075706446403043</v>
       </c>
       <c r="FA2">
-        <v>3.498685499808656E-06</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.01353018038598185</v>
+        <v>0.01353946181174773</v>
       </c>
       <c r="FC2">
-        <v>0.007127365803325735</v>
+        <v>0.007129439419712472</v>
       </c>
       <c r="FD2">
-        <v>0.0002896510482630124</v>
+        <v>0.0002840272772106469</v>
       </c>
       <c r="FE2">
-        <v>0.003345254895431668</v>
+        <v>0.00334307089446545</v>
       </c>
       <c r="FF2">
-        <v>0.006798786193952189</v>
+        <v>0.00680048992001028</v>
       </c>
       <c r="FG2">
-        <v>0.01533095643735344</v>
+        <v>0.01534226504200218</v>
       </c>
       <c r="FH2">
-        <v>0.02465971070347923</v>
+        <v>0.02468152092138368</v>
       </c>
       <c r="FI2">
-        <v>0.01028357329336436</v>
+        <v>0.01028919993188777</v>
       </c>
       <c r="FJ2">
-        <v>0.01270911236255886</v>
+        <v>0.01271746949140442</v>
       </c>
       <c r="FK2">
-        <v>0.007971289227400737</v>
+        <v>0.007974312869607026</v>
       </c>
       <c r="FL2">
-        <v>0.001155047132950576</v>
+        <v>0.001150397560031759</v>
       </c>
       <c r="FM2">
-        <v>4.60612443140109E-05</v>
+        <v>4.016325809409654E-05</v>
       </c>
       <c r="FN2">
-        <v>0.001815489351791323</v>
+        <v>0.001811583255285558</v>
       </c>
       <c r="FO2">
-        <v>0.003111048688750357</v>
+        <v>0.003108601035967991</v>
       </c>
       <c r="FP2">
-        <v>0.003441063798164854</v>
+        <v>0.003438987651689627</v>
       </c>
       <c r="FQ2">
-        <v>0.007346080209565104</v>
+        <v>0.007348400038258678</v>
       </c>
       <c r="FR2">
-        <v>2.685438476608773E-06</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001914511654616179</v>
+        <v>0.001910717030006692</v>
       </c>
       <c r="FT2">
-        <v>0.009268230264399187</v>
+        <v>0.009272713905743355</v>
       </c>
       <c r="FU2">
-        <v>0.002808703880125224</v>
+        <v>0.002805915870189107</v>
       </c>
       <c r="FV2">
-        <v>0.001136629432425165</v>
+        <v>0.001131959126237741</v>
       </c>
       <c r="FW2">
-        <v>0.00119115143398054</v>
+        <v>0.001186542504581262</v>
       </c>
       <c r="FX2">
-        <v>0.0005373310553286971</v>
+        <v>0.0005319861038883799</v>
       </c>
       <c r="FY2">
-        <v>0.01172615833451766</v>
+        <v>0.01173340892729676</v>
       </c>
       <c r="FZ2">
-        <v>0.007264889507248937</v>
+        <v>0.007267117937527314</v>
       </c>
       <c r="GA2">
-        <v>0.00190336945429832</v>
+        <v>0.001899562286633756</v>
       </c>
       <c r="GB2">
-        <v>0.008421056240231452</v>
+        <v>0.008424586196473806</v>
       </c>
       <c r="GC2">
-        <v>0.003339229095259767</v>
+        <v>0.003337038310898772</v>
       </c>
       <c r="GD2">
-        <v>6.120363174598493E-05</v>
+        <v>5.532269169236912E-05</v>
       </c>
       <c r="GE2">
-        <v>6.550853186879286E-06</v>
+        <v>6.08389126155489E-07</v>
       </c>
       <c r="GF2">
-        <v>0.004643859132477566</v>
+        <v>0.004643137002955341</v>
       </c>
       <c r="GG2">
-        <v>0.004130869117843257</v>
+        <v>0.00412956950256205</v>
       </c>
       <c r="GH2">
-        <v>0.00262936607500917</v>
+        <v>0.002626376179996255</v>
       </c>
       <c r="GI2">
-        <v>9.691163276464397E-05</v>
+        <v>9.107089010567862E-05</v>
       </c>
       <c r="GJ2">
-        <v>0.0007291249208000914</v>
+        <v>0.0007239958765369321</v>
       </c>
       <c r="GK2">
-        <v>0.0004957560141426662</v>
+        <v>0.0004903642606330511</v>
       </c>
       <c r="GL2">
-        <v>0.001416775440417023</v>
+        <v>0.001412420501635271</v>
       </c>
       <c r="GM2">
-        <v>0.004463335127327672</v>
+        <v>0.004462409777393442</v>
       </c>
       <c r="GN2">
-        <v>0.002425048769180513</v>
+        <v>0.002421828869038719</v>
       </c>
       <c r="GO2">
-        <v>0.0001664589847486542</v>
+        <v>0.0001606965332926362</v>
       </c>
       <c r="GP2">
-        <v>0.0003557224101478614</v>
+        <v>0.0003501730172889823</v>
       </c>
       <c r="GQ2">
-        <v>0.0002127809660701032</v>
+        <v>0.0002070706604332588</v>
       </c>
       <c r="GR2">
-        <v>0.0004283311122192041</v>
+        <v>0.0004228634568020455</v>
       </c>
       <c r="GS2">
-        <v>0.0005293073650998015</v>
+        <v>0.0005239533811896321</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.382928248022956E-05</v>
+        <v>3.149412038875242E-05</v>
       </c>
       <c r="C3">
-        <v>1.001690142412262E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.301745225161925E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.316624366815944E-05</v>
+        <v>1.078285464745807E-05</v>
       </c>
       <c r="F3">
-        <v>7.197220586227683E-05</v>
+        <v>5.970272853219675E-05</v>
       </c>
       <c r="G3">
-        <v>9.96536782708532E-05</v>
+        <v>8.744880868907251E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001504604213499446</v>
+        <v>0.0001383741332229476</v>
       </c>
       <c r="I3">
-        <v>0.0002253634570437263</v>
+        <v>0.0002134519904148613</v>
       </c>
       <c r="J3">
-        <v>0.0001141296534386211</v>
+        <v>0.0001019585703601819</v>
       </c>
       <c r="K3">
-        <v>0.0005366490691477389</v>
+        <v>0.0005254641340479485</v>
       </c>
       <c r="L3">
-        <v>0.000776899005335633</v>
+        <v>0.000766274806571579</v>
       </c>
       <c r="M3">
-        <v>0.0003289234810900015</v>
+        <v>0.0003172537205332957</v>
       </c>
       <c r="N3">
-        <v>0.000160947750747022</v>
+        <v>0.0001488859397406067</v>
       </c>
       <c r="O3">
-        <v>6.501770626209498E-05</v>
+        <v>5.273199733302027E-05</v>
       </c>
       <c r="P3">
-        <v>6.89152110380252E-05</v>
+        <v>5.663859877128992E-05</v>
       </c>
       <c r="Q3">
-        <v>6.613122619807809E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.240849728662841E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.468776215559218E-05</v>
+        <v>2.284584606613125E-06</v>
       </c>
       <c r="T3">
-        <v>8.132710532445832E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.60676905013536E-05</v>
+        <v>1.369107337283833E-05</v>
       </c>
       <c r="V3">
-        <v>0.0001871292092418351</v>
+        <v>0.0001751285049950449</v>
       </c>
       <c r="W3">
-        <v>0.0001706444801895515</v>
+        <v>0.0001586053010665094</v>
       </c>
       <c r="X3">
-        <v>0.0001769234998285671</v>
+        <v>0.0001648989757540143</v>
       </c>
       <c r="Y3">
-        <v>0.0004117669063272857</v>
+        <v>0.0004002904999060461</v>
       </c>
       <c r="Z3">
-        <v>0.0003659280289625889</v>
+        <v>0.0003543446359400806</v>
       </c>
       <c r="AA3">
-        <v>0.0001612607207290292</v>
+        <v>0.0001491996401854131</v>
       </c>
       <c r="AB3">
-        <v>0.0002665816446740692</v>
+        <v>0.0002547663800915576</v>
       </c>
       <c r="AC3">
-        <v>0.0002593122350919918</v>
+        <v>0.0002474800039197831</v>
       </c>
       <c r="AD3">
-        <v>0.0002837770536854954</v>
+        <v>0.0002720019226855084</v>
       </c>
       <c r="AE3">
-        <v>0.0003157841118453913</v>
+        <v>0.0003040836843845398</v>
       </c>
       <c r="AF3">
-        <v>0.0004465874243254343</v>
+        <v>0.0004351922879764392</v>
       </c>
       <c r="AG3">
-        <v>5.316083194375345E-05</v>
+        <v>4.084744941624184E-05</v>
       </c>
       <c r="AH3">
-        <v>6.398726632133556E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.065437781256804E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>9.279602466510362E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.621580391793278E-05</v>
+        <v>2.386287218980571E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0001141296534386211</v>
+        <v>0.0001019585703601819</v>
       </c>
       <c r="AM3">
-        <v>0.0001120439435585298</v>
+        <v>9.986799249413334E-05</v>
       </c>
       <c r="AN3">
-        <v>6.366920233962126E-05</v>
+        <v>5.138034604176797E-05</v>
       </c>
       <c r="AO3">
-        <v>0.0002283174568738992</v>
+        <v>0.0002164128847943807</v>
       </c>
       <c r="AP3">
-        <v>0.0002394578662334307</v>
+        <v>0.0002275792955440561</v>
       </c>
       <c r="AQ3">
-        <v>0.0001841210794147741</v>
+        <v>0.0001721133542808054</v>
       </c>
       <c r="AR3">
-        <v>0.0001765956698474142</v>
+        <v>0.0001645703806272581</v>
       </c>
       <c r="AS3">
-        <v>0.0001996429185224148</v>
+        <v>0.0001876714209076838</v>
       </c>
       <c r="AT3">
-        <v>0.0002693888245126829</v>
+        <v>0.0002575801118059445</v>
       </c>
       <c r="AU3">
-        <v>0.0001403263819325563</v>
+        <v>0.0001282164412534743</v>
       </c>
       <c r="AV3">
-        <v>4.382928248022956E-05</v>
+        <v>3.149412038875242E-05</v>
       </c>
       <c r="AW3">
-        <v>5.156320203560211E-05</v>
+        <v>3.924609068653586E-05</v>
       </c>
       <c r="AX3">
-        <v>7.928997044157438E-07</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.501089798720351E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>2.606196850168257E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>2.410337261428336E-05</v>
+        <v>1.172217082517797E-05</v>
       </c>
       <c r="BB3">
-        <v>5.377547890841705E-05</v>
+        <v>4.14635309489732E-05</v>
       </c>
       <c r="BC3">
-        <v>8.638806503350088E-05</v>
+        <v>7.415223389778167E-05</v>
       </c>
       <c r="BD3">
-        <v>1.300776025217644E-05</v>
+        <v>6.006616278110699E-07</v>
       </c>
       <c r="BE3">
-        <v>0.000129867802533826</v>
+        <v>0.0001177334518358191</v>
       </c>
       <c r="BF3">
-        <v>0.0002913792832484388</v>
+        <v>0.0002796218956302658</v>
       </c>
       <c r="BG3">
-        <v>0.0002866161035222768</v>
+        <v>0.0002748475987817083</v>
       </c>
       <c r="BH3">
-        <v>0.0001566683409930477</v>
+        <v>0.0001445965419692259</v>
       </c>
       <c r="BI3">
-        <v>0.0001483644114704454</v>
+        <v>0.0001362732313175935</v>
       </c>
       <c r="BJ3">
-        <v>0.0001363324221621713</v>
+        <v>0.0001242131596976094</v>
       </c>
       <c r="BK3">
-        <v>0.0002398395262114889</v>
+        <v>0.0002279618463053585</v>
       </c>
       <c r="BL3">
-        <v>0.0001276422926617718</v>
+        <v>0.0001155027476887087</v>
       </c>
       <c r="BM3">
-        <v>2.328507266132789E-05</v>
+        <v>1.090196098402676E-05</v>
       </c>
       <c r="BN3">
-        <v>2.507591355837143E-05</v>
+        <v>1.269698165143123E-05</v>
       </c>
       <c r="BO3">
-        <v>4.605308035238215E-07</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>7.193095586464832E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001120439435585298</v>
+        <v>9.986799249413334E-05</v>
       </c>
       <c r="BR3">
-        <v>1.645612505392799E-05</v>
+        <v>4.057074812317248E-06</v>
       </c>
       <c r="BS3">
-        <v>9.025309481129811E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1.222363529725623E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.000217029417522855</v>
+        <v>0.0002050984994891032</v>
       </c>
       <c r="BV3">
-        <v>0.0003268939812066786</v>
+        <v>0.0003152194838565068</v>
       </c>
       <c r="BW3">
-        <v>0.000281478403817646</v>
+        <v>0.0002696979078359884</v>
       </c>
       <c r="BX3">
-        <v>0.0004169686060282371</v>
+        <v>0.0004055043402222092</v>
       </c>
       <c r="BY3">
-        <v>0.0003188387316697795</v>
+        <v>0.0003071454336024027</v>
       </c>
       <c r="BZ3">
-        <v>0.0003795158781814157</v>
+        <v>0.0003679641988022174</v>
       </c>
       <c r="CA3">
-        <v>0.0002526419254754716</v>
+        <v>0.0002407941259953918</v>
       </c>
       <c r="CB3">
-        <v>5.156320203560211E-05</v>
+        <v>3.924609068653586E-05</v>
       </c>
       <c r="CC3">
-        <v>2.827556837442145E-05</v>
+        <v>1.590410436839162E-05</v>
       </c>
       <c r="CD3">
-        <v>2.852705235996349E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1.645612505392799E-05</v>
+        <v>4.057074812317248E-06</v>
       </c>
       <c r="CF3">
-        <v>5.053820909452954E-05</v>
+        <v>3.821870544186874E-05</v>
       </c>
       <c r="CG3">
-        <v>0.0001855991893297968</v>
+        <v>0.0001735949140612087</v>
       </c>
       <c r="CH3">
-        <v>6.319611236681946E-05</v>
+        <v>5.090615189078393E-05</v>
       </c>
       <c r="CI3">
-        <v>0.0001223175229678959</v>
+        <v>0.0001101655501378512</v>
       </c>
       <c r="CJ3">
-        <v>0.000330898020976484</v>
+        <v>0.0003192328689382165</v>
       </c>
       <c r="CK3">
-        <v>0.0005522610682501963</v>
+        <v>0.0005411125711004388</v>
       </c>
       <c r="CL3">
-        <v>0.0003029711525820156</v>
+        <v>0.0002912408200483832</v>
       </c>
       <c r="CM3">
-        <v>0.0005789133967179387</v>
+        <v>0.0005678271053245738</v>
       </c>
       <c r="CN3">
-        <v>0.03991384570533025</v>
+        <v>0.03999456599736058</v>
       </c>
       <c r="CO3">
-        <v>0.005136139404720417</v>
+        <v>0.005135689545758199</v>
       </c>
       <c r="CP3">
-        <v>0.06510085625731464</v>
+        <v>0.06524036229650965</v>
       </c>
       <c r="CQ3">
-        <v>0.04630215933806246</v>
+        <v>0.04639778976757208</v>
       </c>
       <c r="CR3">
-        <v>0.01181101732097788</v>
+        <v>0.01182614643216499</v>
       </c>
       <c r="CS3">
-        <v>0.002612723549793033</v>
+        <v>0.002606384111909452</v>
       </c>
       <c r="CT3">
-        <v>0.01400888419462126</v>
+        <v>0.01402914306291349</v>
       </c>
       <c r="CU3">
-        <v>0.01879026991973667</v>
+        <v>0.0188216884026943</v>
       </c>
       <c r="CV3">
-        <v>0.003348639007484834</v>
+        <v>0.003344017174790688</v>
       </c>
       <c r="CW3">
-        <v>0.04471229542946464</v>
+        <v>0.0448042151630358</v>
       </c>
       <c r="CX3">
-        <v>0.0810122753425581</v>
+        <v>0.08118891816928278</v>
       </c>
       <c r="CY3">
-        <v>0.0799788414019708</v>
+        <v>0.08015307222405453</v>
       </c>
       <c r="CZ3">
-        <v>0.0305318662447056</v>
+        <v>0.03059068927062972</v>
       </c>
       <c r="DA3">
-        <v>0.002005470084704381</v>
+        <v>0.001997713334965155</v>
       </c>
       <c r="DB3">
-        <v>0.0996398342716491</v>
+        <v>0.09985995327698739</v>
       </c>
       <c r="DC3">
-        <v>0.007833082549671617</v>
+        <v>0.007838927277258661</v>
       </c>
       <c r="DD3">
-        <v>0.08690457500380641</v>
+        <v>0.0870949702858846</v>
       </c>
       <c r="DE3">
-        <v>0.01553440610691813</v>
+        <v>0.01555822549880824</v>
       </c>
       <c r="DF3">
-        <v>0.01525628312290758</v>
+        <v>0.01527945338387424</v>
       </c>
       <c r="DG3">
-        <v>0.008403548516875203</v>
+        <v>0.008410724695372027</v>
       </c>
       <c r="DH3">
-        <v>0.0003601198092965068</v>
+        <v>0.0003485228600588985</v>
       </c>
       <c r="DI3">
-        <v>6.681021615904256E-05</v>
+        <v>5.452869089572583E-05</v>
       </c>
       <c r="DJ3">
-        <v>0.009734121440379807</v>
+        <v>0.009744403137227207</v>
       </c>
       <c r="DK3">
-        <v>0.0004537928339111911</v>
+        <v>0.0004424145147777703</v>
       </c>
       <c r="DL3">
-        <v>0.001180448932135318</v>
+        <v>0.001170766607116709</v>
       </c>
       <c r="DM3">
-        <v>0.01797312396671485</v>
+        <v>0.01800263525487888</v>
       </c>
       <c r="DN3">
-        <v>0.00371122618663949</v>
+        <v>0.003707450621833904</v>
       </c>
       <c r="DO3">
-        <v>0.004408862146532</v>
+        <v>0.004406714843685751</v>
       </c>
       <c r="DP3">
-        <v>0.0004537928339111911</v>
+        <v>0.0004424145147777703</v>
       </c>
       <c r="DQ3">
-        <v>9.809314436056919E-06</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.004403282746852763</v>
+        <v>0.004401122421850582</v>
       </c>
       <c r="DS3">
-        <v>0.001193964931358275</v>
+        <v>0.001184314152287184</v>
       </c>
       <c r="DT3">
-        <v>0.001429143917837701</v>
+        <v>0.0014200420396538</v>
       </c>
       <c r="DU3">
-        <v>0.0006270661639496086</v>
+        <v>0.000616092259708896</v>
       </c>
       <c r="DV3">
-        <v>1.501167613697018E-05</v>
+        <v>2.609254593765335E-06</v>
       </c>
       <c r="DW3">
-        <v>0.01624070206631277</v>
+        <v>0.01626616993234819</v>
       </c>
       <c r="DX3">
-        <v>0.005754091869193977</v>
+        <v>0.005755084293239556</v>
       </c>
       <c r="DY3">
-        <v>0.001082564537762747</v>
+        <v>0.001072653753425909</v>
       </c>
       <c r="DZ3">
-        <v>0.002837756836855741</v>
+        <v>0.002831942620093167</v>
       </c>
       <c r="EA3">
-        <v>0.006989185598187734</v>
+        <v>0.006993060694931903</v>
       </c>
       <c r="EB3">
-        <v>0.0009126939475287045</v>
+        <v>0.000902386690194501</v>
       </c>
       <c r="EC3">
-        <v>1.761238198745412E-05</v>
+        <v>5.216030415763389E-06</v>
       </c>
       <c r="ED3">
-        <v>0.007673017558873845</v>
+        <v>0.007678488699446283</v>
       </c>
       <c r="EE3">
-        <v>0.0005856745663292351</v>
+        <v>0.0005746040553083161</v>
       </c>
       <c r="EF3">
-        <v>0.002613983849720578</v>
+        <v>0.002607647353340227</v>
       </c>
       <c r="EG3">
-        <v>0.002411933261336581</v>
+        <v>0.002405125184782842</v>
       </c>
       <c r="EH3">
-        <v>3.66013798957658E-06</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.002327209666207389</v>
+        <v>0.002320203847256558</v>
       </c>
       <c r="EJ3">
-        <v>0.002652805647488691</v>
+        <v>0.002646559760050729</v>
       </c>
       <c r="EK3">
-        <v>0.0005789133967179387</v>
+        <v>0.0005678271053245738</v>
       </c>
       <c r="EL3">
-        <v>0.0001769234998285671</v>
+        <v>0.0001648989757540143</v>
       </c>
       <c r="EM3">
-        <v>1.370399821214933E-06</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.002983039028503385</v>
+        <v>0.002977563896133859</v>
       </c>
       <c r="EO3">
-        <v>0.002757905841446421</v>
+        <v>0.002751905254792219</v>
       </c>
       <c r="EP3">
-        <v>9.204643470819797E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0007314136179506139</v>
+        <v>0.0007206832576205819</v>
       </c>
       <c r="ER3">
-        <v>0.0006969715599307075</v>
+        <v>0.0006861608128429692</v>
       </c>
       <c r="ES3">
-        <v>2.054755281870947E-05</v>
+        <v>8.158051850031564E-06</v>
       </c>
       <c r="ET3">
-        <v>2.328507266132789E-05</v>
+        <v>1.090196098402676E-05</v>
       </c>
       <c r="EU3">
-        <v>0.0008251721825603807</v>
+        <v>0.0008146606519823868</v>
       </c>
       <c r="EV3">
-        <v>0.0009356921162065266</v>
+        <v>0.0009254385359264679</v>
       </c>
       <c r="EW3">
-        <v>0.0004401685146944611</v>
+        <v>0.0004287583967978202</v>
       </c>
       <c r="EX3">
-        <v>0.00219284987393181</v>
+        <v>0.002185530463149129</v>
       </c>
       <c r="EY3">
-        <v>0.005330721093533804</v>
+        <v>0.005330725382551469</v>
       </c>
       <c r="EZ3">
-        <v>0.00377141518317919</v>
+        <v>0.003767780097734002</v>
       </c>
       <c r="FA3">
-        <v>0.0004272612754365056</v>
+        <v>0.0004158210324203295</v>
       </c>
       <c r="FB3">
-        <v>0.0001574127109502535</v>
+        <v>0.000145342649264176</v>
       </c>
       <c r="FC3">
-        <v>0.00915988947339273</v>
+        <v>0.009168830929596822</v>
       </c>
       <c r="FD3">
-        <v>0.00426860125459568</v>
+        <v>0.004266126586923286</v>
       </c>
       <c r="FE3">
-        <v>1.718030401229453E-06</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.006447300829340998</v>
+        <v>0.006449911182857778</v>
       </c>
       <c r="FG3">
-        <v>0.007400302274552402</v>
+        <v>0.007405136905614552</v>
       </c>
       <c r="FH3">
-        <v>0.01790932297038281</v>
+        <v>0.0179386853488844</v>
       </c>
       <c r="FI3">
-        <v>0.01640853205666414</v>
+        <v>0.01643439163299638</v>
       </c>
       <c r="FJ3">
-        <v>0.008206934528178654</v>
+        <v>0.008213651815367012</v>
       </c>
       <c r="FK3">
-        <v>0.006942414600876625</v>
+        <v>0.006946180535478789</v>
       </c>
       <c r="FL3">
-        <v>0.002765090841033351</v>
+        <v>0.002759107023958382</v>
       </c>
       <c r="FM3">
-        <v>2.738868542540885E-05</v>
+        <v>1.501515146047311E-05</v>
       </c>
       <c r="FN3">
-        <v>0.002647209047810442</v>
+        <v>0.002640950098072253</v>
       </c>
       <c r="FO3">
-        <v>0.005811621665886555</v>
+        <v>0.005812748362797738</v>
       </c>
       <c r="FP3">
-        <v>0.006083875050234553</v>
+        <v>0.006085637178594974</v>
       </c>
       <c r="FQ3">
-        <v>0.009720635941155095</v>
+        <v>0.009730886163241081</v>
       </c>
       <c r="FR3">
-        <v>0.007097636591952824</v>
+        <v>0.007101764810149661</v>
       </c>
       <c r="FS3">
-        <v>0.0004227097156981773</v>
+        <v>0.0004112588494744781</v>
       </c>
       <c r="FT3">
-        <v>0.005860853163056209</v>
+        <v>0.005862094764844221</v>
       </c>
       <c r="FU3">
-        <v>0.009175986472467305</v>
+        <v>0.009184965498597203</v>
       </c>
       <c r="FV3">
-        <v>0.003306615709900777</v>
+        <v>0.003301895796057156</v>
       </c>
       <c r="FW3">
-        <v>0.001321228524041819</v>
+        <v>0.00131187477447994</v>
       </c>
       <c r="FX3">
-        <v>0.0003218476814967932</v>
+        <v>0.0003101614062304511</v>
       </c>
       <c r="FY3">
-        <v>0.003004317427280078</v>
+        <v>0.002998891958071965</v>
       </c>
       <c r="FZ3">
-        <v>0.01397574119652667</v>
+        <v>0.01399592271002912</v>
       </c>
       <c r="GA3">
-        <v>0.005798556066637705</v>
+        <v>0.005799652268821758</v>
       </c>
       <c r="GB3">
-        <v>0.003779817182696155</v>
+        <v>0.0037762017072725</v>
       </c>
       <c r="GC3">
-        <v>0.01226909129464294</v>
+        <v>0.01228528953710878</v>
       </c>
       <c r="GD3">
-        <v>0.002619717149390967</v>
+        <v>0.002613394034364633</v>
       </c>
       <c r="GE3">
-        <v>0.001050429639610201</v>
+        <v>0.001040443853359418</v>
       </c>
       <c r="GF3">
-        <v>2.783036140001665E-05</v>
+        <v>1.545785829390865E-05</v>
       </c>
       <c r="GG3">
-        <v>0.003880599076902146</v>
+        <v>0.003877218823476724</v>
       </c>
       <c r="GH3">
-        <v>0.001021678641263112</v>
+        <v>0.001011625751021719</v>
       </c>
       <c r="GI3">
-        <v>0.0008325289921374334</v>
+        <v>0.0008220346321381728</v>
       </c>
       <c r="GJ3">
-        <v>0.001151745533785492</v>
+        <v>0.001141996215873278</v>
       </c>
       <c r="GK3">
-        <v>0.0007697927157441778</v>
+        <v>0.0007591519311077219</v>
       </c>
       <c r="GL3">
-        <v>0.0001864093292832214</v>
+        <v>0.0001744069448576284</v>
       </c>
       <c r="GM3">
-        <v>0.0008809109093559295</v>
+        <v>0.0008705294713386992</v>
       </c>
       <c r="GN3">
-        <v>0.003486221199575155</v>
+        <v>0.003481920479699932</v>
       </c>
       <c r="GO3">
-        <v>0.0001630876106240003</v>
+        <v>0.0001510307939880536</v>
       </c>
       <c r="GP3">
-        <v>3.740574784952222E-05</v>
+        <v>2.505559341578497E-05</v>
       </c>
       <c r="GQ3">
-        <v>9.96536782708532E-05</v>
+        <v>8.744880868907251E-05</v>
       </c>
       <c r="GR3">
-        <v>0.0001490888014287998</v>
+        <v>0.0001369993119809584</v>
       </c>
       <c r="GS3">
-        <v>0.0003932179573936754</v>
+        <v>0.0003816982582672562</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.263124138077113E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.871239092995745E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.28982640655325E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001567874650781446</v>
+        <v>0.0001274588820062105</v>
       </c>
       <c r="F4">
-        <v>0.00025660943831125</v>
+        <v>0.0002278276318326701</v>
       </c>
       <c r="G4">
-        <v>0.0001452255547036691</v>
+        <v>0.0001158336410667055</v>
       </c>
       <c r="H4">
-        <v>0.0001189412178523532</v>
+        <v>8.940533130344788E-05</v>
       </c>
       <c r="I4">
-        <v>0.0002771025589749959</v>
+        <v>0.0002484330039210352</v>
       </c>
       <c r="J4">
-        <v>0.000399484632938794</v>
+        <v>0.0003714854278220487</v>
       </c>
       <c r="K4">
-        <v>0.000480322295557022</v>
+        <v>0.0004527658801422785</v>
       </c>
       <c r="L4">
-        <v>0.0004913848159153229</v>
+        <v>0.0004638889956481157</v>
       </c>
       <c r="M4">
-        <v>5.963153193138871E-05</v>
+        <v>2.977077554701097E-05</v>
       </c>
       <c r="N4">
-        <v>8.342472870201978E-05</v>
+        <v>5.369429996649417E-05</v>
       </c>
       <c r="O4">
-        <v>0.000356802791556384</v>
+        <v>0.0003285697959116289</v>
       </c>
       <c r="P4">
-        <v>0.000116558559775182</v>
+        <v>8.700962217524684E-05</v>
       </c>
       <c r="Q4">
-        <v>6.635105214902533E-05</v>
+        <v>3.652710205342927E-05</v>
       </c>
       <c r="R4">
-        <v>7.002763226810503E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3.002293797240439E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.832877291753256E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0001116301336155566</v>
+        <v>8.205420047567288E-05</v>
       </c>
       <c r="V4">
-        <v>2.179296670584619E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>5.219776869061866E-05</v>
+        <v>2.229629373888604E-05</v>
       </c>
       <c r="X4">
-        <v>3.217245104202435E-05</v>
+        <v>2.161287064818718E-06</v>
       </c>
       <c r="Y4">
-        <v>0.000119725929877769</v>
+        <v>9.01943416026217E-05</v>
       </c>
       <c r="Z4">
-        <v>0.000152221784930268</v>
+        <v>0.0001228681932659695</v>
       </c>
       <c r="AA4">
-        <v>0.000119725929877769</v>
+        <v>9.01943416026217E-05</v>
       </c>
       <c r="AB4">
-        <v>0.0003308029707142832</v>
+        <v>0.000302427560598972</v>
       </c>
       <c r="AC4">
-        <v>0.0002557509382834443</v>
+        <v>0.0002269644293560408</v>
       </c>
       <c r="AD4">
-        <v>0.0002190466070946382</v>
+        <v>0.0001900590495552032</v>
       </c>
       <c r="AE4">
-        <v>0.0003617317517160267</v>
+        <v>0.0003335257545362145</v>
       </c>
       <c r="AF4">
-        <v>8.786296284576848E-05</v>
+        <v>5.81568446149046E-05</v>
       </c>
       <c r="AG4">
-        <v>5.06903866417965E-08</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.588345551444472E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>9.475579306901839E-05</v>
+        <v>6.508743043550417E-05</v>
       </c>
       <c r="AJ4">
-        <v>0.0001668781054049674</v>
+        <v>0.0001376047939908053</v>
       </c>
       <c r="AK4">
-        <v>1.834400559413877E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0001770412557341388</v>
+        <v>0.0001478236131525468</v>
       </c>
       <c r="AM4">
-        <v>6.382053206706504E-05</v>
+        <v>3.398272100373798E-05</v>
       </c>
       <c r="AN4">
-        <v>4.3745946416875E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001098837835589946</v>
+        <v>8.029828475632335E-05</v>
       </c>
       <c r="AP4">
-        <v>0.0002273457073634353</v>
+        <v>0.0001984036082899664</v>
       </c>
       <c r="AQ4">
-        <v>0.0002147548869556349</v>
+        <v>0.0001857438214445456</v>
       </c>
       <c r="AR4">
-        <v>0.0003687516219433913</v>
+        <v>0.0003405840762247594</v>
       </c>
       <c r="AS4">
-        <v>0.0006562667212556359</v>
+        <v>0.0006296740444906833</v>
       </c>
       <c r="AT4">
-        <v>0.0004983629161413346</v>
+        <v>0.0004709053185393992</v>
       </c>
       <c r="AU4">
-        <v>0.0003687516219433913</v>
+        <v>0.0003405840762247594</v>
       </c>
       <c r="AV4">
-        <v>0.0002451823479411412</v>
+        <v>0.0002163379493764489</v>
       </c>
       <c r="AW4">
-        <v>0.0002133780469110408</v>
+        <v>0.0001843594397346769</v>
       </c>
       <c r="AX4">
-        <v>0.0001234301239977431</v>
+        <v>9.391882551026925E-05</v>
       </c>
       <c r="AY4">
-        <v>1.078166734920435E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.520823149257508E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>6.515305211022364E-05</v>
+        <v>3.532253994859303E-05</v>
       </c>
       <c r="BB4">
-        <v>7.815029253118756E-05</v>
+        <v>4.839097297986314E-05</v>
       </c>
       <c r="BC4">
-        <v>0.0001946940663058907</v>
+        <v>0.0001655731173010226</v>
       </c>
       <c r="BD4">
-        <v>0.0002920715894598235</v>
+        <v>0.0002634840275305148</v>
       </c>
       <c r="BE4">
-        <v>0.0004084941332306001</v>
+        <v>0.0003805442778082941</v>
       </c>
       <c r="BF4">
-        <v>0.0008461373274053008</v>
+        <v>0.0008205846701856058</v>
       </c>
       <c r="BG4">
-        <v>0.0004046990531076824</v>
+        <v>0.0003767284100680422</v>
       </c>
       <c r="BH4">
-        <v>0.0002694747287279403</v>
+        <v>0.0002407633921012247</v>
       </c>
       <c r="BI4">
-        <v>0.0004500770745774181</v>
+        <v>0.0004223549904390775</v>
       </c>
       <c r="BJ4">
-        <v>0.0004634850350116848</v>
+        <v>0.0004358363932096618</v>
       </c>
       <c r="BK4">
-        <v>0.0004238516137280092</v>
+        <v>0.0003959858791720506</v>
       </c>
       <c r="BL4">
-        <v>6.16565179969754E-05</v>
+        <v>3.180685350896747E-05</v>
       </c>
       <c r="BM4">
-        <v>3.066181399309676E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>8.669077280780275E-05</v>
+        <v>5.69782338856325E-05</v>
       </c>
       <c r="BO4">
-        <v>2.116928868564606E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001056507134218909</v>
+        <v>7.604202790397019E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0001223868339639523</v>
+        <v>9.286982083718527E-05</v>
       </c>
       <c r="BR4">
-        <v>0.0001647413753357615</v>
+        <v>0.0001354563599455076</v>
       </c>
       <c r="BS4">
-        <v>2.627738585109077E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0006530563911516575</v>
+        <v>0.0006264461297477627</v>
       </c>
       <c r="BU4">
-        <v>0.001150199637253488</v>
+        <v>0.001126312486620784</v>
       </c>
       <c r="BV4">
-        <v>0.0005958494192987971</v>
+        <v>0.0005689258057122845</v>
       </c>
       <c r="BW4">
-        <v>0.000207462876719456</v>
+        <v>0.0001784118690955583</v>
       </c>
       <c r="BX4">
-        <v>0.0003317792107459024</v>
+        <v>0.0003034091480023321</v>
       </c>
       <c r="BY4">
-        <v>0.0003126371701259163</v>
+        <v>0.000284162256522149</v>
       </c>
       <c r="BZ4">
-        <v>0.0001867710160492733</v>
+        <v>0.0001576066683989169</v>
       </c>
       <c r="CA4">
-        <v>0.0002432215878776347</v>
+        <v>0.0002143664492156153</v>
       </c>
       <c r="CB4">
-        <v>0.0001234301239977431</v>
+        <v>9.391882551026925E-05</v>
       </c>
       <c r="CC4">
-        <v>2.263714173318793E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.116928868564606E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0001056507134218909</v>
+        <v>7.604202790397019E-05</v>
       </c>
       <c r="CF4">
-        <v>3.171710102727615E-08</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>6.515305211022364E-05</v>
+        <v>3.532253994859303E-05</v>
       </c>
       <c r="CH4">
-        <v>1.323666742871865E-06</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>2.745472888922339E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0003067252099344354</v>
+        <v>0.0002782179134659657</v>
       </c>
       <c r="CK4">
-        <v>0.0003481400612758093</v>
+        <v>0.0003198596153753786</v>
       </c>
       <c r="CL4">
-        <v>0.0002814482791157482</v>
+        <v>0.0002528025278193898</v>
       </c>
       <c r="CM4">
-        <v>7.377640838952308E-05</v>
+        <v>4.399313081179178E-05</v>
       </c>
       <c r="CN4">
-        <v>0.07242444234573464</v>
+        <v>0.07279096109832961</v>
       </c>
       <c r="CO4">
-        <v>0.01321193992791776</v>
+        <v>0.01325412116936794</v>
       </c>
       <c r="CP4">
-        <v>0.04062089831565871</v>
+        <v>0.04081321260306298</v>
       </c>
       <c r="CQ4">
-        <v>0.031024602004847</v>
+        <v>0.03116435241241902</v>
       </c>
       <c r="CR4">
-        <v>0.00731018163676739</v>
+        <v>0.007320035894601454</v>
       </c>
       <c r="CS4">
-        <v>0.008625891279381535</v>
+        <v>0.008642952359650895</v>
       </c>
       <c r="CT4">
-        <v>0.01061286034373691</v>
+        <v>0.01064080508159107</v>
       </c>
       <c r="CU4">
-        <v>0.006215494201311871</v>
+        <v>0.006219352289691858</v>
       </c>
       <c r="CV4">
-        <v>0.01336743443295403</v>
+        <v>0.01341046739825813</v>
       </c>
       <c r="CW4">
-        <v>0.04893569158496417</v>
+        <v>0.04917355029701749</v>
       </c>
       <c r="CX4">
-        <v>0.06544274211960634</v>
+        <v>0.06577101848786628</v>
       </c>
       <c r="CY4">
-        <v>0.05596697181269831</v>
+        <v>0.0562433444844072</v>
       </c>
       <c r="CZ4">
-        <v>0.03449811911734976</v>
+        <v>0.03465689577527747</v>
       </c>
       <c r="DA4">
-        <v>0.0003903153126418115</v>
+        <v>0.0003622658824137709</v>
       </c>
       <c r="DB4">
-        <v>0.03919403126944431</v>
+        <v>0.03937852986780308</v>
       </c>
       <c r="DC4">
-        <v>0.009371757803539193</v>
+        <v>0.009392904380658264</v>
       </c>
       <c r="DD4">
-        <v>0.09624705311731839</v>
+        <v>0.09674406063446694</v>
       </c>
       <c r="DE4">
-        <v>1.10188253568856E-05</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.009983573323355113</v>
+        <v>0.01000807113061772</v>
       </c>
       <c r="DG4">
-        <v>0.008170901264644993</v>
+        <v>0.008185470129200616</v>
       </c>
       <c r="DH4">
-        <v>0.0007990977258817487</v>
+        <v>0.0007732874084271299</v>
       </c>
       <c r="DI4">
-        <v>0.001829795459264724</v>
+        <v>0.001809630806558897</v>
       </c>
       <c r="DJ4">
-        <v>0.005532320779184761</v>
+        <v>0.005532436773271057</v>
       </c>
       <c r="DK4">
-        <v>0.001421215446031342</v>
+        <v>0.001398812789201647</v>
       </c>
       <c r="DL4">
-        <v>0.003202858503736472</v>
+        <v>0.003190214827721453</v>
       </c>
       <c r="DM4">
-        <v>0.01585522351353032</v>
+        <v>0.01591188338676265</v>
       </c>
       <c r="DN4">
-        <v>0.0007331273737450537</v>
+        <v>0.0007069557025399992</v>
       </c>
       <c r="DO4">
-        <v>0.01386521744907658</v>
+        <v>0.01391097702950328</v>
       </c>
       <c r="DP4">
-        <v>0.003735088620974721</v>
+        <v>0.003725360244677376</v>
       </c>
       <c r="DQ4">
-        <v>0.002216347771784657</v>
+        <v>0.002198300466089184</v>
       </c>
       <c r="DR4">
-        <v>0.01285384341631947</v>
+        <v>0.01289406317790343</v>
       </c>
       <c r="DS4">
-        <v>2.995733797027968E-06</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0001799749258291566</v>
+        <v>0.0001507733524764991</v>
       </c>
       <c r="DU4">
-        <v>8.386763271636486E-06</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0009777208316671215</v>
+        <v>0.0009528889253790261</v>
       </c>
       <c r="DW4">
-        <v>0.02034654565899847</v>
+        <v>0.02042780682734466</v>
       </c>
       <c r="DX4">
-        <v>0.00870473028193503</v>
+        <v>0.008722223204211149</v>
       </c>
       <c r="DY4">
-        <v>0.002499534580956714</v>
+        <v>0.002483038435930449</v>
       </c>
       <c r="DZ4">
-        <v>0.002131103569023706</v>
+        <v>0.002112589336726012</v>
       </c>
       <c r="EA4">
-        <v>0.01008320832658216</v>
+        <v>0.01010825188630667</v>
       </c>
       <c r="EB4">
-        <v>0.000787611825509735</v>
+        <v>0.0007617385938361962</v>
       </c>
       <c r="EC4">
-        <v>0.0001728920955997528</v>
+        <v>0.0001436517259214097</v>
       </c>
       <c r="ED4">
-        <v>0.00266367558627303</v>
+        <v>0.002648078526456261</v>
       </c>
       <c r="EE4">
-        <v>0.002045104366238303</v>
+        <v>0.00202611907181263</v>
       </c>
       <c r="EF4">
-        <v>0.00274804848900576</v>
+        <v>0.002732913583230165</v>
       </c>
       <c r="EG4">
-        <v>0.0007461712241675272</v>
+        <v>0.0007200710008798723</v>
       </c>
       <c r="EH4">
-        <v>0.0004666712151148811</v>
+        <v>0.0004390400256697512</v>
       </c>
       <c r="EI4">
-        <v>0.00562604068222023</v>
+        <v>0.005626670028704314</v>
       </c>
       <c r="EJ4">
-        <v>0.005294615571485795</v>
+        <v>0.005293429531165451</v>
       </c>
       <c r="EK4">
-        <v>0.004184381735526748</v>
+        <v>0.004177114370073363</v>
       </c>
       <c r="EL4">
-        <v>0.001571273250891522</v>
+        <v>0.001549692538296049</v>
       </c>
       <c r="EM4">
-        <v>0.001090359935315357</v>
+        <v>0.001066145011675235</v>
       </c>
       <c r="EN4">
-        <v>0.0007427477640566457</v>
+        <v>0.0007166287887067315</v>
       </c>
       <c r="EO4">
-        <v>0.003206925103868183</v>
+        <v>0.003194303702726066</v>
       </c>
       <c r="EP4">
-        <v>0.0001588721451456646</v>
+        <v>0.0001295549809450335</v>
       </c>
       <c r="EQ4">
-        <v>0.00104932163398618</v>
+        <v>0.001024881922337254</v>
       </c>
       <c r="ER4">
-        <v>0.0003932396127365258</v>
+        <v>0.0003652062004130803</v>
       </c>
       <c r="ES4">
-        <v>0.0001588721451456646</v>
+        <v>0.0001295549809450335</v>
       </c>
       <c r="ET4">
-        <v>9.347919302767096E-07</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001139585736909718</v>
+        <v>0.001115640448453404</v>
       </c>
       <c r="EV4">
-        <v>0.0003165317102520554</v>
+        <v>0.0002880781290595187</v>
       </c>
       <c r="EW4">
-        <v>0.001223996439643672</v>
+        <v>0.001200513512278696</v>
       </c>
       <c r="EX4">
-        <v>0.006102255697644221</v>
+        <v>0.006105493520152211</v>
       </c>
       <c r="EY4">
-        <v>0.0139021784502737</v>
+        <v>0.01394814048522687</v>
       </c>
       <c r="EZ4">
-        <v>0.009056482293327825</v>
+        <v>0.009075901943360023</v>
       </c>
       <c r="FA4">
-        <v>0.0001252805740576768</v>
+        <v>9.577941144256821E-05</v>
       </c>
       <c r="FB4">
-        <v>0.001831526959320805</v>
+        <v>0.00181137179093663</v>
       </c>
       <c r="FC4">
-        <v>0.01807371958538456</v>
+        <v>0.01814253130940935</v>
       </c>
       <c r="FD4">
-        <v>0.006995271226567847</v>
+        <v>0.007003400557156698</v>
       </c>
       <c r="FE4">
-        <v>3.066181399309676E-06</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.006394099207096658</v>
+        <v>0.006398935607500101</v>
       </c>
       <c r="FG4">
-        <v>0.008942541289637423</v>
+        <v>0.00896133682584154</v>
       </c>
       <c r="FH4">
-        <v>0.02202043771321369</v>
+        <v>0.02211086765438015</v>
       </c>
       <c r="FI4">
-        <v>0.02284730673999491</v>
+        <v>0.02294226587062708</v>
       </c>
       <c r="FJ4">
-        <v>0.009323233301967548</v>
+        <v>0.009344114085285873</v>
       </c>
       <c r="FK4">
-        <v>0.009432589305509448</v>
+        <v>0.00945406908823785</v>
       </c>
       <c r="FL4">
-        <v>0.002743117588846054</v>
+        <v>0.002727955673979132</v>
       </c>
       <c r="FM4">
-        <v>1.588345551444472E-06</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001385960144889468</v>
+        <v>0.001363364376535009</v>
       </c>
       <c r="FO4">
-        <v>0.005267921570621212</v>
+        <v>0.005266589313447172</v>
       </c>
       <c r="FP4">
-        <v>0.004357163141122915</v>
+        <v>0.004350842188821734</v>
       </c>
       <c r="FQ4">
-        <v>0.00880157728507178</v>
+        <v>0.008819600688490843</v>
       </c>
       <c r="FR4">
-        <v>0.004350953840921805</v>
+        <v>0.004344598877070851</v>
       </c>
       <c r="FS4">
-        <v>0.0005846392789357151</v>
+        <v>0.0005576542616105244</v>
       </c>
       <c r="FT4">
-        <v>0.006414910207770699</v>
+        <v>0.006419860600792043</v>
       </c>
       <c r="FU4">
-        <v>0.007960437257828336</v>
+        <v>0.00797385330212862</v>
       </c>
       <c r="FV4">
-        <v>0.002751815189127758</v>
+        <v>0.002736700915517549</v>
       </c>
       <c r="FW4">
-        <v>0.001103127035728867</v>
+        <v>0.00107898204410316</v>
       </c>
       <c r="FX4">
-        <v>0.0001445798746827564</v>
+        <v>0.0001151844243222559</v>
       </c>
       <c r="FY4">
-        <v>0.003730699820832574</v>
+        <v>0.00372094740480617</v>
       </c>
       <c r="FZ4">
-        <v>0.02203440371366603</v>
+        <v>0.02212491015384271</v>
       </c>
       <c r="GA4">
-        <v>0.0128457024160558</v>
+        <v>0.01288587758516931</v>
       </c>
       <c r="GB4">
-        <v>0.004944535560147154</v>
+        <v>0.004941431950480087</v>
       </c>
       <c r="GC4">
-        <v>0.01250666640507486</v>
+        <v>0.01254498449854556</v>
       </c>
       <c r="GD4">
-        <v>0.002597248684121548</v>
+        <v>0.002581287769793703</v>
       </c>
       <c r="GE4">
-        <v>0.0004485544145281012</v>
+        <v>0.0004208239899928756</v>
       </c>
       <c r="GF4">
-        <v>8.010346259444822E-05</v>
+        <v>5.035484156609266E-05</v>
       </c>
       <c r="GG4">
-        <v>0.005147946666735378</v>
+        <v>0.005145957244940064</v>
       </c>
       <c r="GH4">
-        <v>0.002260871773226732</v>
+        <v>0.002243068348523014</v>
       </c>
       <c r="GI4">
-        <v>0.001557984550461118</v>
+        <v>0.001536331048778072</v>
       </c>
       <c r="GJ4">
-        <v>0.0009185293797499864</v>
+        <v>0.0008933732512552294</v>
       </c>
       <c r="GK4">
-        <v>0.0005836612689040387</v>
+        <v>0.000556670894511901</v>
       </c>
       <c r="GL4">
-        <v>0.0009620904811608746</v>
+        <v>0.0009371729593562157</v>
       </c>
       <c r="GM4">
-        <v>0.003066389699316423</v>
+        <v>0.003052998513053278</v>
       </c>
       <c r="GN4">
-        <v>0.00857643527777972</v>
+        <v>0.008593225461940728</v>
       </c>
       <c r="GO4">
-        <v>0.002038428366022076</v>
+        <v>0.002019406503689185</v>
       </c>
       <c r="GP4">
-        <v>0.0004770897354523235</v>
+        <v>0.0004495156136334226</v>
       </c>
       <c r="GQ4">
-        <v>0.001362702844136194</v>
+        <v>0.001339979683512632</v>
       </c>
       <c r="GR4">
-        <v>0.00042127234364447</v>
+        <v>0.0003933924810917995</v>
       </c>
       <c r="GS4">
-        <v>0.000100240623246665</v>
+        <v>7.06023038657787E-05</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001402783439089867</v>
+        <v>0.0001222195750693221</v>
       </c>
       <c r="C5">
-        <v>0.0001748328324085993</v>
+        <v>0.0001568946850715832</v>
       </c>
       <c r="D5">
-        <v>2.67182608398688E-05</v>
+        <v>8.263080753635458E-06</v>
       </c>
       <c r="E5">
-        <v>4.544066802692485E-05</v>
+        <v>2.705084341218471E-05</v>
       </c>
       <c r="F5">
-        <v>0.0002210273404027918</v>
+        <v>0.0002032504471086022</v>
       </c>
       <c r="G5">
-        <v>0.0001780452522691131</v>
+        <v>0.0001601183187259496</v>
       </c>
       <c r="H5">
-        <v>0.000212834990758511</v>
+        <v>0.0001950294999197702</v>
       </c>
       <c r="I5">
-        <v>0.0001185621608519231</v>
+        <v>0.0001004275859810924</v>
       </c>
       <c r="J5">
-        <v>7.17437268848221E-05</v>
+        <v>5.34457199939567E-05</v>
       </c>
       <c r="K5">
-        <v>4.223860516596133E-05</v>
+        <v>2.383760291119134E-05</v>
       </c>
       <c r="L5">
-        <v>9.843103572603485E-05</v>
+        <v>8.022618788436523E-05</v>
       </c>
       <c r="M5">
-        <v>4.130079820668176E-05</v>
+        <v>2.289652229081783E-05</v>
       </c>
       <c r="N5">
-        <v>4.501667504533501E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.676746796931398E-05</v>
+        <v>2.838227489767328E-05</v>
       </c>
       <c r="P5">
-        <v>1.996825513296019E-05</v>
+        <v>1.4895123818863E-06</v>
       </c>
       <c r="Q5">
-        <v>1.848392419741119E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.08611980283969E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>6.476875318768181E-05</v>
+        <v>4.644639832221704E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002142769906958981</v>
+        <v>0.0001964765335360458</v>
       </c>
       <c r="U5">
-        <v>0.0002484654392114045</v>
+        <v>0.0002307843257956568</v>
       </c>
       <c r="V5">
-        <v>0.0004894418287479904</v>
+        <v>0.0004726019066063959</v>
       </c>
       <c r="W5">
-        <v>0.0004373996810077078</v>
+        <v>0.0004203780921034421</v>
       </c>
       <c r="X5">
-        <v>0.0002730624281433809</v>
+        <v>0.0002554671769670825</v>
       </c>
       <c r="Y5">
-        <v>5.832018746768439E-05</v>
+        <v>3.997532219269404E-05</v>
       </c>
       <c r="Z5">
-        <v>1.311979043032676E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>9.941242568342201E-05</v>
+        <v>8.121100364072914E-05</v>
       </c>
       <c r="AB5">
-        <v>2.610675486642094E-05</v>
+        <v>7.649440158244157E-06</v>
       </c>
       <c r="AC5">
-        <v>2.722063681805518E-05</v>
+        <v>8.767210406901816E-06</v>
       </c>
       <c r="AD5">
-        <v>1.05384410424113E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>6.237715729152707E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>6.42023832122741E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.05384410424113E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.474523149133043E-05</v>
+        <v>1.631807165090987E-05</v>
       </c>
       <c r="AI5">
-        <v>5.097980978641027E-05</v>
+        <v>3.260932099840129E-05</v>
       </c>
       <c r="AJ5">
-        <v>0.0001082626452991374</v>
+        <v>9.009211726863139E-05</v>
       </c>
       <c r="AK5">
-        <v>6.572990714594763E-05</v>
+        <v>4.74109074403986E-05</v>
       </c>
       <c r="AL5">
-        <v>4.658902397706219E-05</v>
+        <v>2.820320799987669E-05</v>
       </c>
       <c r="AM5">
-        <v>0.0003675595840402284</v>
+        <v>0.0003502941999647094</v>
       </c>
       <c r="AN5">
-        <v>0.0002623473586086389</v>
+        <v>0.0002447147036725286</v>
       </c>
       <c r="AO5">
-        <v>8.906735613261436E-05</v>
+        <v>7.082982191207128E-05</v>
       </c>
       <c r="AP5">
-        <v>5.941869741998609E-05</v>
+        <v>4.107766678202481E-05</v>
       </c>
       <c r="AQ5">
-        <v>3.389515652824146E-05</v>
+        <v>1.546502927826388E-05</v>
       </c>
       <c r="AR5">
-        <v>6.572990714594763E-05</v>
+        <v>4.74109074403986E-05</v>
       </c>
       <c r="AS5">
-        <v>8.326276638465491E-07</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>5.648318354744877E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.722063681805518E-05</v>
+        <v>8.767210406901816E-06</v>
       </c>
       <c r="AV5">
-        <v>9.325618095073175E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0001003793056414392</v>
+        <v>8.218125874676562E-05</v>
       </c>
       <c r="AX5">
-        <v>9.324178595135681E-05</v>
+        <v>7.501882367267426E-05</v>
       </c>
       <c r="AY5">
-        <v>4.89422538748828E-05</v>
+        <v>3.056465246369661E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0001110687391772943</v>
+        <v>9.290800655325646E-05</v>
       </c>
       <c r="BA5">
-        <v>0.0003089379365856337</v>
+        <v>0.0002914679182784784</v>
       </c>
       <c r="BB5">
-        <v>0.0001892128417842062</v>
+        <v>0.0001713248916405014</v>
       </c>
       <c r="BC5">
-        <v>0.0001437598637578159</v>
+        <v>0.0001257132480760739</v>
       </c>
       <c r="BD5">
-        <v>0.0001534882233354017</v>
+        <v>0.0001354755670436407</v>
       </c>
       <c r="BE5">
-        <v>0.0001323949042512928</v>
+        <v>0.0001143086161983845</v>
       </c>
       <c r="BF5">
-        <v>8.480132631784924E-05</v>
+        <v>6.654890040164104E-05</v>
       </c>
       <c r="BG5">
-        <v>0.0002360445297507317</v>
+        <v>0.0002183200578936219</v>
       </c>
       <c r="BH5">
-        <v>0.0001484368735547359</v>
+        <v>0.0001304065842020498</v>
       </c>
       <c r="BI5">
-        <v>4.068143823357494E-05</v>
+        <v>2.227500027932235E-05</v>
       </c>
       <c r="BJ5">
-        <v>6.651653711179143E-05</v>
+        <v>4.82002833444006E-05</v>
       </c>
       <c r="BK5">
-        <v>1.659749727932156E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.286075500736521E-07</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001301560043485078</v>
+        <v>0.0001120619008284264</v>
       </c>
       <c r="BN5">
-        <v>0.0002568919288455187</v>
+        <v>0.0002392402303013507</v>
       </c>
       <c r="BO5">
-        <v>0.0001592094430869811</v>
+        <v>0.0001412167582129253</v>
       </c>
       <c r="BP5">
-        <v>0.0003013001869172717</v>
+        <v>0.0002838035070422029</v>
       </c>
       <c r="BQ5">
-        <v>0.0003257036258576522</v>
+        <v>0.0003082921325850363</v>
       </c>
       <c r="BR5">
-        <v>0.0001748328324085993</v>
+        <v>0.0001568946850715832</v>
       </c>
       <c r="BS5">
-        <v>0.0001641293728733533</v>
+        <v>0.0001461538623042728</v>
       </c>
       <c r="BT5">
-        <v>0.0001549658832712403</v>
+        <v>0.0001369583851389429</v>
       </c>
       <c r="BU5">
-        <v>6.770526706017569E-05</v>
+        <v>4.939316286636686E-05</v>
       </c>
       <c r="BV5">
-        <v>8.61249062603782E-05</v>
+        <v>6.78771006470156E-05</v>
       </c>
       <c r="BW5">
-        <v>4.593106300563145E-05</v>
+        <v>2.754295024315107E-05</v>
       </c>
       <c r="BX5">
-        <v>6.265694727937833E-07</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>4.240852115858342E-05</v>
+        <v>2.40081120401394E-05</v>
       </c>
       <c r="BZ5">
-        <v>2.994547169974037E-05</v>
+        <v>1.150155703922112E-05</v>
       </c>
       <c r="CA5">
-        <v>1.285830744168059E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0001644641828588155</v>
+        <v>0.0001464898410317799</v>
       </c>
       <c r="CC5">
-        <v>0.000357466414478483</v>
+        <v>0.0003401657975480764</v>
       </c>
       <c r="CD5">
-        <v>0.0002239421102762298</v>
+        <v>0.000206175391750566</v>
       </c>
       <c r="CE5">
-        <v>0.0001835997120279334</v>
+        <v>0.0001656921677829942</v>
       </c>
       <c r="CF5">
-        <v>8.704304622051173E-05</v>
+        <v>6.879844561542566E-05</v>
       </c>
       <c r="CG5">
-        <v>0.000343880425068399</v>
+        <v>0.000326532382679571</v>
       </c>
       <c r="CH5">
-        <v>0.0003174980862139442</v>
+        <v>0.0003000579493536255</v>
       </c>
       <c r="CI5">
-        <v>0.0002349311397990761</v>
+        <v>0.0002172027813623978</v>
       </c>
       <c r="CJ5">
-        <v>0.0001574080631651987</v>
+        <v>0.0001394090901021857</v>
       </c>
       <c r="CK5">
-        <v>6.20725173047548E-05</v>
+        <v>4.374075052096004E-05</v>
       </c>
       <c r="CL5">
-        <v>0.0001543884232963142</v>
+        <v>0.0001363789093885583</v>
       </c>
       <c r="CM5">
-        <v>0.00152510093377873</v>
+        <v>0.001511876251303662</v>
       </c>
       <c r="CN5">
-        <v>0.1162536049521627</v>
+        <v>0.1166408701959518</v>
       </c>
       <c r="CO5">
-        <v>0.01655869928100621</v>
+        <v>0.01659795331552549</v>
       </c>
       <c r="CP5">
-        <v>0.04352849110995331</v>
+        <v>0.04366189027460698</v>
       </c>
       <c r="CQ5">
-        <v>0.01987833813686447</v>
+        <v>0.01992918024125341</v>
       </c>
       <c r="CR5">
-        <v>0.0001735560624640378</v>
+        <v>0.0001556134582267481</v>
       </c>
       <c r="CS5">
-        <v>0.0001613772929928511</v>
+        <v>0.0001433921755673242</v>
       </c>
       <c r="CT5">
-        <v>0.0005154168276201322</v>
+        <v>0.0004986675780230115</v>
       </c>
       <c r="CU5">
-        <v>0.04760547793292683</v>
+        <v>0.04775310888911377</v>
       </c>
       <c r="CV5">
-        <v>0.03946527328638192</v>
+        <v>0.03958448872380512</v>
       </c>
       <c r="CW5">
-        <v>6.970986697313415E-05</v>
+        <v>5.140476036094811E-05</v>
       </c>
       <c r="CX5">
-        <v>0.15670422319576</v>
+        <v>0.1572326919290945</v>
       </c>
       <c r="CY5">
-        <v>0.000117511148897559</v>
+        <v>9.937290519391553E-05</v>
       </c>
       <c r="CZ5">
-        <v>0.01351681241308771</v>
+        <v>0.01354544794388065</v>
       </c>
       <c r="DA5">
-        <v>0.07727464664466452</v>
+        <v>0.07752584561379948</v>
       </c>
       <c r="DB5">
-        <v>0.02607773486768102</v>
+        <v>0.02615021759190415</v>
       </c>
       <c r="DC5">
-        <v>0.1147337450181564</v>
+        <v>0.115115704792323</v>
       </c>
       <c r="DD5">
-        <v>0.02056614610699922</v>
+        <v>0.02061938918545821</v>
       </c>
       <c r="DE5">
-        <v>0.02848182076329343</v>
+        <v>0.02856269557971112</v>
       </c>
       <c r="DF5">
-        <v>0.003093470665678688</v>
+        <v>0.003085720788995414</v>
       </c>
       <c r="DG5">
-        <v>0.006890331100815553</v>
+        <v>0.006895835161056791</v>
       </c>
       <c r="DH5">
-        <v>0.002239437902761568</v>
+        <v>0.0022287068007832</v>
       </c>
       <c r="DI5">
-        <v>0.002817443677664032</v>
+        <v>0.002808730256401991</v>
       </c>
       <c r="DJ5">
-        <v>0.01309003743161866</v>
+        <v>0.01311718319243402</v>
       </c>
       <c r="DK5">
-        <v>7.677395166640516E-07</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0007921575156037998</v>
+        <v>0.0007763743019423269</v>
       </c>
       <c r="DM5">
-        <v>0.01523260933858624</v>
+        <v>0.01526723430844716</v>
       </c>
       <c r="DN5">
-        <v>0.001796913121976397</v>
+        <v>0.001784637271216171</v>
       </c>
       <c r="DO5">
-        <v>0.002315610499454085</v>
+        <v>0.002305145297897707</v>
       </c>
       <c r="DP5">
-        <v>0.0001505066134648659</v>
+        <v>0.0001324835490820431</v>
       </c>
       <c r="DQ5">
-        <v>0.001909254017098453</v>
+        <v>0.001897370321689584</v>
       </c>
       <c r="DR5">
-        <v>0.005307053469562908</v>
+        <v>0.005307030684080659</v>
       </c>
       <c r="DS5">
-        <v>0.0004383713009655192</v>
+        <v>0.0004213531037554849</v>
       </c>
       <c r="DT5">
-        <v>0.0003261751858371766</v>
+        <v>0.0003087653386683171</v>
       </c>
       <c r="DU5">
-        <v>1.985170913802073E-05</v>
+        <v>1.372559552591944E-06</v>
       </c>
       <c r="DV5">
-        <v>0.006331837025065875</v>
+        <v>0.006335391515292846</v>
       </c>
       <c r="DW5">
-        <v>0.007465821675827229</v>
+        <v>0.007473334636820064</v>
       </c>
       <c r="DX5">
-        <v>0.003232084559659947</v>
+        <v>0.003224818551119597</v>
       </c>
       <c r="DY5">
-        <v>0.0003773986636130066</v>
+        <v>0.0003601676254246438</v>
       </c>
       <c r="DZ5">
-        <v>0.006301237026394554</v>
+        <v>0.00630468469930253</v>
       </c>
       <c r="EA5">
-        <v>0.004435397507411004</v>
+        <v>0.004432331978235749</v>
       </c>
       <c r="EB5">
-        <v>0.0004475741405659235</v>
+        <v>0.0004305880682805932</v>
       </c>
       <c r="EC5">
-        <v>0.005438229763867115</v>
+        <v>0.005438664883635902</v>
       </c>
       <c r="ED5">
-        <v>0.003507187647714721</v>
+        <v>0.003500881958638071</v>
       </c>
       <c r="EE5">
-        <v>0.003219831860191971</v>
+        <v>0.003212523080391344</v>
       </c>
       <c r="EF5">
-        <v>3.721829238394788E-06</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0002900722874047973</v>
+        <v>0.0002725364136024101</v>
       </c>
       <c r="EH5">
-        <v>0.00227514970121093</v>
+        <v>0.002264543260629048</v>
       </c>
       <c r="EI5">
-        <v>0.003830975833655543</v>
+        <v>0.003825800412142495</v>
       </c>
       <c r="EJ5">
-        <v>0.0001408747738830891</v>
+        <v>0.0001228180870386393</v>
       </c>
       <c r="EK5">
-        <v>4.658902397706219E-05</v>
+        <v>2.820320799987669E-05</v>
       </c>
       <c r="EL5">
-        <v>1.921892416549683E-05</v>
+        <v>7.375656781987545E-07</v>
       </c>
       <c r="EM5">
-        <v>0.002140974907036921</v>
+        <v>0.002129900094153971</v>
       </c>
       <c r="EN5">
-        <v>0.001860953219195718</v>
+        <v>0.001848900917186805</v>
       </c>
       <c r="EO5">
-        <v>0.0004814065590968892</v>
+        <v>0.0004645385877396475</v>
       </c>
       <c r="EP5">
-        <v>0.0001446310937199863</v>
+        <v>0.0001265875192948726</v>
       </c>
       <c r="EQ5">
-        <v>0.001963614214738084</v>
+        <v>0.001951920277852876</v>
       </c>
       <c r="ER5">
-        <v>0.001056153654140847</v>
+        <v>0.001041291988223427</v>
       </c>
       <c r="ES5">
-        <v>0.0001959247414927694</v>
+        <v>0.0001780602209949261</v>
       </c>
       <c r="ET5">
-        <v>0.0003376303853397814</v>
+        <v>0.0003202605255484563</v>
       </c>
       <c r="EU5">
-        <v>0.00121329124731779</v>
+        <v>0.00119897811137244</v>
       </c>
       <c r="EV5">
-        <v>1.646288128516671E-05</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0006574722114519582</v>
+        <v>0.000641218843420478</v>
       </c>
       <c r="EX5">
-        <v>0.0008030309651316647</v>
+        <v>0.0007872857080968986</v>
       </c>
       <c r="EY5">
-        <v>0.004132970520542659</v>
+        <v>0.004128849290670289</v>
       </c>
       <c r="EZ5">
-        <v>0.0008967675010615391</v>
+        <v>0.0008813494559841153</v>
       </c>
       <c r="FA5">
-        <v>0.0004682740096671164</v>
+        <v>0.0004513601957026013</v>
       </c>
       <c r="FB5">
-        <v>0.004417569208185125</v>
+        <v>0.004414441444656659</v>
       </c>
       <c r="FC5">
-        <v>0.008612175626051497</v>
+        <v>0.008623690236093329</v>
       </c>
       <c r="FD5">
-        <v>0.004776607792595343</v>
+        <v>0.004774733347389353</v>
       </c>
       <c r="FE5">
-        <v>0.0004698453795988861</v>
+        <v>0.0004529370509131471</v>
       </c>
       <c r="FF5">
-        <v>0.002604673286902716</v>
+        <v>0.002595217134801148</v>
       </c>
       <c r="FG5">
-        <v>0.006637735511783484</v>
+        <v>0.006642357820888057</v>
       </c>
       <c r="FH5">
-        <v>0.0161289432996666</v>
+        <v>0.01616669715824661</v>
       </c>
       <c r="FI5">
-        <v>0.009795030574690859</v>
+        <v>0.009810674250087591</v>
       </c>
       <c r="FJ5">
-        <v>0.008444848133317008</v>
+        <v>0.008455778642870469</v>
       </c>
       <c r="FK5">
-        <v>0.003233569559595468</v>
+        <v>0.003226308734836774</v>
       </c>
       <c r="FL5">
-        <v>0.0007281596683826445</v>
+        <v>0.0007121530534545555</v>
       </c>
       <c r="FM5">
-        <v>0.0001767567823250597</v>
+        <v>0.0001588253510397064</v>
       </c>
       <c r="FN5">
-        <v>0.003100092365391169</v>
+        <v>0.003092365603487018</v>
       </c>
       <c r="FO5">
-        <v>0.006814097204125698</v>
+        <v>0.006819335149961232</v>
       </c>
       <c r="FP5">
-        <v>0.007061863693367453</v>
+        <v>0.007067966533100595</v>
       </c>
       <c r="FQ5">
-        <v>0.01077815253200281</v>
+        <v>0.01079722805237618</v>
       </c>
       <c r="FR5">
-        <v>0.000407050982325476</v>
+        <v>0.0003899234533307204</v>
       </c>
       <c r="FS5">
-        <v>0.001443046437341611</v>
+        <v>0.001429535322131201</v>
       </c>
       <c r="FT5">
-        <v>0.005284174770556324</v>
+        <v>0.005284072120976163</v>
       </c>
       <c r="FU5">
-        <v>0.002640490985347479</v>
+        <v>0.0026311598643141</v>
       </c>
       <c r="FV5">
-        <v>0.002045819211168668</v>
+        <v>0.002034412232378493</v>
       </c>
       <c r="FW5">
-        <v>0.0004745330493953432</v>
+        <v>0.0004576410842501837</v>
       </c>
       <c r="FX5">
-        <v>1.952334915227841E-07</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004678632796849506</v>
+        <v>0.004676416344230818</v>
       </c>
       <c r="FZ5">
-        <v>0.008071254649538779</v>
+        <v>0.008080881033077077</v>
       </c>
       <c r="GA5">
-        <v>0.003265277558218677</v>
+        <v>0.003258127418543339</v>
       </c>
       <c r="GB5">
-        <v>0.004806875791281079</v>
+        <v>0.004805107004461081</v>
       </c>
       <c r="GC5">
-        <v>0.00580829214779867</v>
+        <v>0.005810019067352714</v>
       </c>
       <c r="GD5">
-        <v>0.002839309276714608</v>
+        <v>0.002830672183059437</v>
       </c>
       <c r="GE5">
-        <v>0.00134205594172671</v>
+        <v>0.001328192292710614</v>
       </c>
       <c r="GF5">
-        <v>0.0007125295690613178</v>
+        <v>0.0006964683931731757</v>
       </c>
       <c r="GG5">
-        <v>0.001410162338769468</v>
+        <v>0.001396536432990445</v>
       </c>
       <c r="GH5">
-        <v>0.001083777752941384</v>
+        <v>0.001069012516184149</v>
       </c>
       <c r="GI5">
-        <v>0.0001293295943843913</v>
+        <v>0.000111232606063637</v>
       </c>
       <c r="GJ5">
-        <v>0.00223609730290662</v>
+        <v>0.002225354539688519</v>
       </c>
       <c r="GK5">
-        <v>0.0003407482452044011</v>
+        <v>0.0003233892691204682</v>
       </c>
       <c r="GL5">
-        <v>0.0001301560043485078</v>
+        <v>0.0001120619008284264</v>
       </c>
       <c r="GM5">
-        <v>0.0009504156987320855</v>
+        <v>0.0009351849267557372</v>
       </c>
       <c r="GN5">
-        <v>0.0006390001222540332</v>
+        <v>0.0006226822725516368</v>
       </c>
       <c r="GO5">
-        <v>4.70855609555021E-05</v>
+        <v>2.870147827083692E-05</v>
       </c>
       <c r="GP5">
-        <v>0.0003170328162341466</v>
+        <v>0.0002995910552269649</v>
       </c>
       <c r="GQ5">
-        <v>0.0007359594180439724</v>
+        <v>0.0007199800301872504</v>
       </c>
       <c r="GR5">
-        <v>0.0002044514011225341</v>
+        <v>0.0001866166451659059</v>
       </c>
       <c r="GS5">
-        <v>3.169065862396276E-05</v>
+        <v>1.325283599600839E-05</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000231751394449965</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001474570328313903</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000238358704576835</v>
+        <v>6.851652538126143E-06</v>
       </c>
       <c r="E6">
-        <v>0.0002329106444722243</v>
+        <v>1.202119804401913E-06</v>
       </c>
       <c r="F6">
-        <v>3.012307257840696E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.286724924706997E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.085015736042642E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.697215732589019E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002426914146600294</v>
+        <v>1.134458891744911E-05</v>
       </c>
       <c r="K6">
-        <v>0.0001511805729028876</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.868434335876666E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001714559632922048</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0007248642639184517</v>
+        <v>0.0005113484880839001</v>
       </c>
       <c r="O6">
-        <v>0.000613475341779622</v>
+        <v>0.0003958403347753483</v>
       </c>
       <c r="P6">
-        <v>0.000207351843981458</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.000326271706264893</v>
+        <v>9.80157313514832E-05</v>
       </c>
       <c r="R6">
-        <v>0.0003467313466577479</v>
+        <v>0.0001192319818884108</v>
       </c>
       <c r="S6">
-        <v>9.850952189152659E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.545256648872643E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.418964146447642E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.583771049612175E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.301164324984254E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.614666269406868E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>4.277855382141067E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.96813473779106E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001832643235189425</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002344608145019898</v>
+        <v>2.809616079743441E-06</v>
       </c>
       <c r="AC6">
-        <v>0.000446487778573217</v>
+        <v>0.0002226774682972369</v>
       </c>
       <c r="AD6">
-        <v>0.0004786522891908226</v>
+        <v>0.0002560314423924563</v>
       </c>
       <c r="AE6">
-        <v>0.0003033267658243166</v>
+        <v>7.422227283536213E-05</v>
       </c>
       <c r="AF6">
-        <v>0.0003167171460814315</v>
+        <v>8.810783762851902E-05</v>
       </c>
       <c r="AG6">
-        <v>0.0001546225129689779</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002607808050073721</v>
+        <v>3.010293609756527E-05</v>
       </c>
       <c r="AI6">
-        <v>0.0001315924925267679</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.215856423346218E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.569486849337898E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.301164324984254E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.65569653179179E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>8.422338761721197E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002993748057484332</v>
+        <v>7.012416683389209E-05</v>
       </c>
       <c r="AP6">
-        <v>0.000258746004968301</v>
+        <v>2.799288789571325E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.0003481489566849681</v>
+        <v>0.0001207020160104019</v>
       </c>
       <c r="AR6">
-        <v>0.0003543254368035655</v>
+        <v>0.0001271069061803326</v>
       </c>
       <c r="AS6">
-        <v>0.0003481489566849681</v>
+        <v>0.0001207020160104019</v>
       </c>
       <c r="AT6">
-        <v>0.0008722864567491731</v>
+        <v>0.0006642224447000742</v>
       </c>
       <c r="AU6">
-        <v>0.0003281059663001134</v>
+        <v>9.991782345622523E-05</v>
       </c>
       <c r="AV6">
-        <v>0.0001348167925886792</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0007427190142612891</v>
+        <v>0.0005298635181271563</v>
       </c>
       <c r="AX6">
-        <v>0.0004703798090319789</v>
+        <v>0.0002474530408056383</v>
       </c>
       <c r="AY6">
-        <v>4.807664092314168E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1.13677402182772E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.268782424362474E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>7.775879149308229E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>4.228256581188697E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.000107770712069355</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0002902255555727543</v>
+        <v>6.063657173324597E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0002774135553267452</v>
+        <v>4.735077580139593E-05</v>
       </c>
       <c r="BG6">
-        <v>0.0003090937459350511</v>
+        <v>8.020251943410244E-05</v>
       </c>
       <c r="BH6">
-        <v>0.0001033430979843383</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0005516831405931215</v>
+        <v>0.0003317630198065641</v>
       </c>
       <c r="BJ6">
-        <v>0.0003648919570064581</v>
+        <v>0.000138064182829553</v>
       </c>
       <c r="BK6">
-        <v>0.0001822361834992007</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0002434740246750566</v>
+        <v>1.215614033441952E-05</v>
       </c>
       <c r="BM6">
-        <v>0.000460524058842734</v>
+        <v>0.0002372328188843668</v>
       </c>
       <c r="BN6">
-        <v>0.0003331674063973005</v>
+        <v>0.0001051664387357525</v>
       </c>
       <c r="BO6">
-        <v>0.0001139088361872159</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0001496198428729194</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0001085617020845431</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.510921048213349E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.268782424362474E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.622574550357259E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>3.564542668444422E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0003653861070159465</v>
+        <v>0.0001385766068117357</v>
       </c>
       <c r="BW6">
-        <v>0.0004175217080170262</v>
+        <v>0.0001926402145532717</v>
       </c>
       <c r="BX6">
-        <v>0.0003420268065674139</v>
+        <v>0.0001143534649985243</v>
       </c>
       <c r="BY6">
-        <v>0.000613475341779622</v>
+        <v>0.0003958403347753483</v>
       </c>
       <c r="BZ6">
-        <v>0.000596638811456336</v>
+        <v>0.000378381179157141</v>
       </c>
       <c r="CA6">
-        <v>0.0008648151566057132</v>
+        <v>0.000656474851260671</v>
       </c>
       <c r="CB6">
-        <v>0.0007133074136965434</v>
+        <v>0.0004993642583996197</v>
       </c>
       <c r="CC6">
-        <v>0.0004836682092871356</v>
+        <v>0.0002612328543133496</v>
       </c>
       <c r="CD6">
-        <v>0.0004400933784504352</v>
+        <v>0.0002160465993067107</v>
       </c>
       <c r="CE6">
-        <v>7.299217140155622E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.943793037323663E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.603521030789944E-08</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1.475027628322683E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.000168804043241284</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0004411469984706662</v>
+        <v>0.0002171391828463389</v>
       </c>
       <c r="CK6">
-        <v>0.0002176918041800004</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0001266950724327303</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>1.445095627747945E-07</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.08849777169928638</v>
+        <v>0.09153015227671997</v>
       </c>
       <c r="CO6">
-        <v>0.001752903833658312</v>
+        <v>0.001577405596355124</v>
       </c>
       <c r="CP6">
-        <v>0.05005905896120699</v>
+        <v>0.05166995218968011</v>
       </c>
       <c r="CQ6">
-        <v>0.05290611101587455</v>
+        <v>0.05462228998856908</v>
       </c>
       <c r="CR6">
-        <v>0.006170323718479222</v>
+        <v>0.006158184398112362</v>
       </c>
       <c r="CS6">
-        <v>0.01362597626163863</v>
+        <v>0.01388955157928688</v>
       </c>
       <c r="CT6">
-        <v>0.01081160120759852</v>
+        <v>0.01097109919670021</v>
       </c>
       <c r="CU6">
-        <v>0.008585729164858532</v>
+        <v>0.008662913030417121</v>
       </c>
       <c r="CV6">
-        <v>0.003887724474649984</v>
+        <v>0.003791173223791093</v>
       </c>
       <c r="CW6">
-        <v>0.0260744345006672</v>
+        <v>0.02679836149609969</v>
       </c>
       <c r="CX6">
-        <v>0.09373922179992987</v>
+        <v>0.09696543444086259</v>
       </c>
       <c r="CY6">
-        <v>0.04053294077829163</v>
+        <v>0.04179155227001705</v>
       </c>
       <c r="CZ6">
-        <v>0.02529035048561164</v>
+        <v>0.02598528156966911</v>
       </c>
       <c r="DA6">
-        <v>0.004031289077406634</v>
+        <v>0.003940046934268589</v>
       </c>
       <c r="DB6">
-        <v>0.05111378498145928</v>
+        <v>0.0527636826298937</v>
       </c>
       <c r="DC6">
-        <v>0.01259858224191117</v>
+        <v>0.0128241638938664</v>
       </c>
       <c r="DD6">
-        <v>0.0809292955539606</v>
+        <v>0.08368178920685543</v>
       </c>
       <c r="DE6">
-        <v>0.003004090457682922</v>
+        <v>0.002874861874864745</v>
       </c>
       <c r="DF6">
-        <v>0.006450190823853078</v>
+        <v>0.006448401161977384</v>
       </c>
       <c r="DG6">
-        <v>0.01186960722791378</v>
+        <v>0.01206823093340587</v>
       </c>
       <c r="DH6">
-        <v>3.015236257896937E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002463945747311355</v>
+        <v>0.002314742279339429</v>
       </c>
       <c r="DJ6">
-        <v>0.01507416828944603</v>
+        <v>0.01539129864314402</v>
       </c>
       <c r="DK6">
-        <v>0.0005475228605132381</v>
+        <v>0.0003274488899986218</v>
       </c>
       <c r="DL6">
-        <v>0.00281946225413779</v>
+        <v>0.002683406006267743</v>
       </c>
       <c r="DM6">
-        <v>0.02082621739989377</v>
+        <v>0.02135606208398089</v>
       </c>
       <c r="DN6">
-        <v>0.003203231861506727</v>
+        <v>0.003081367650854669</v>
       </c>
       <c r="DO6">
-        <v>0.01313916225229109</v>
+        <v>0.01338473488706336</v>
       </c>
       <c r="DP6">
-        <v>0.002265484843500616</v>
+        <v>0.002108942168673546</v>
       </c>
       <c r="DQ6">
-        <v>0.0006944618133346804</v>
+        <v>0.0004798217360913717</v>
       </c>
       <c r="DR6">
-        <v>0.009840613188954135</v>
+        <v>0.009964203441137047</v>
       </c>
       <c r="DS6">
-        <v>3.959930476036445E-06</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0002248642443177217</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>1.65569653179179E-05</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001404893126975998</v>
+        <v>0.001216525238698219</v>
       </c>
       <c r="DW6">
-        <v>0.02059265639540906</v>
+        <v>0.02111386384922919</v>
       </c>
       <c r="DX6">
-        <v>0.007556789145101381</v>
+        <v>0.007595922172930565</v>
       </c>
       <c r="DY6">
-        <v>0.002619835550304666</v>
+        <v>0.00247639698357428</v>
       </c>
       <c r="DZ6">
-        <v>0.003164609060765113</v>
+        <v>0.003041316555075974</v>
       </c>
       <c r="EA6">
-        <v>0.008280806159003564</v>
+        <v>0.008346713783388748</v>
       </c>
       <c r="EB6">
-        <v>0.0005369090503094374</v>
+        <v>0.0003164425745350384</v>
       </c>
       <c r="EC6">
-        <v>0.000115538042218499</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.005330734502357883</v>
+        <v>0.005287546653983013</v>
       </c>
       <c r="EE6">
-        <v>0.0023030697442223</v>
+        <v>0.00214791698224824</v>
       </c>
       <c r="EF6">
-        <v>0.00179349073443764</v>
+        <v>0.001619493425804579</v>
       </c>
       <c r="EG6">
-        <v>0.0006991462134246277</v>
+        <v>0.0004846793681912123</v>
       </c>
       <c r="EH6">
-        <v>0.0001377764326455086</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.002946041556568298</v>
+        <v>0.002814666289517542</v>
       </c>
       <c r="EJ6">
-        <v>0.00512729409845153</v>
+        <v>0.005076582898231066</v>
       </c>
       <c r="EK6">
-        <v>0.003734389371705726</v>
+        <v>0.0036321676939917</v>
       </c>
       <c r="EL6">
-        <v>0.0002628400050469118</v>
+        <v>3.223828662698035E-05</v>
       </c>
       <c r="EM6">
-        <v>8.96595177215936E-05</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.00109787122108073</v>
+        <v>0.0008981494730091096</v>
       </c>
       <c r="EO6">
-        <v>0.003082406059186695</v>
+        <v>0.002956073635704614</v>
       </c>
       <c r="EP6">
-        <v>1.180087522659403E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001684612232347013</v>
+        <v>0.001506588529428842</v>
       </c>
       <c r="ER6">
-        <v>0.0003294850263265934</v>
+        <v>0.0001013478819746281</v>
       </c>
       <c r="ES6">
-        <v>0.0003731709171654262</v>
+        <v>0.000146649304050904</v>
       </c>
       <c r="ET6">
-        <v>2.211642042466755E-05</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001509410428982883</v>
+        <v>0.00132490765511626</v>
       </c>
       <c r="EV6">
-        <v>0.0004326792083080723</v>
+        <v>0.0002083582485711469</v>
       </c>
       <c r="EW6">
-        <v>0.0009116401175048209</v>
+        <v>0.0007050314281477333</v>
       </c>
       <c r="EX6">
-        <v>0.004047401277716012</v>
+        <v>0.003956754973701397</v>
       </c>
       <c r="EY6">
-        <v>0.00894889317183181</v>
+        <v>0.009039507066773225</v>
       </c>
       <c r="EZ6">
-        <v>0.0036849490707564</v>
+        <v>0.003580899060163301</v>
       </c>
       <c r="FA6">
-        <v>0.0003771089072410414</v>
+        <v>0.0001507329234328636</v>
       </c>
       <c r="FB6">
-        <v>0.0004497076286350428</v>
+        <v>0.0002260163904039469</v>
       </c>
       <c r="FC6">
-        <v>0.01281284474602532</v>
+        <v>0.01304634995777898</v>
       </c>
       <c r="FD6">
-        <v>0.00749082014383468</v>
+        <v>0.007527513597233701</v>
       </c>
       <c r="FE6">
-        <v>4.277855382141067E-05</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.007537011144721615</v>
+        <v>0.007575412769875606</v>
       </c>
       <c r="FG6">
-        <v>0.008364065160602259</v>
+        <v>0.008433051754313657</v>
       </c>
       <c r="FH6">
-        <v>0.01842991435388125</v>
+        <v>0.01887114227061217</v>
       </c>
       <c r="FI6">
-        <v>0.0196292943769111</v>
+        <v>0.0201148761080101</v>
       </c>
       <c r="FJ6">
-        <v>0.01032686219829083</v>
+        <v>0.01046843423930018</v>
       </c>
       <c r="FK6">
-        <v>0.007312022140401496</v>
+        <v>0.007342103533151362</v>
       </c>
       <c r="FL6">
-        <v>0.002164103641553949</v>
+        <v>0.002003811827233796</v>
       </c>
       <c r="FM6">
-        <v>5.380198803307669E-06</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.002903513055751688</v>
+        <v>0.002770565058461681</v>
       </c>
       <c r="FO6">
-        <v>0.007088267136105074</v>
+        <v>0.007110073930534198</v>
       </c>
       <c r="FP6">
-        <v>0.005431154804286099</v>
+        <v>0.005391680560727874</v>
       </c>
       <c r="FQ6">
-        <v>0.01004029019278823</v>
+        <v>0.01017126462395659</v>
       </c>
       <c r="FR6">
-        <v>0.004600572488337706</v>
+        <v>0.004530382797505376</v>
       </c>
       <c r="FS6">
-        <v>0.0009062899174020892</v>
+        <v>0.0006994833743392269</v>
       </c>
       <c r="FT6">
-        <v>0.006544189125657982</v>
+        <v>0.006545875579066114</v>
       </c>
       <c r="FU6">
-        <v>0.008932114171509629</v>
+        <v>0.00902210756865111</v>
       </c>
       <c r="FV6">
-        <v>0.003971953076267297</v>
+        <v>0.003878516651142437</v>
       </c>
       <c r="FW6">
-        <v>0.001648370131651112</v>
+        <v>0.001469006173454622</v>
       </c>
       <c r="FX6">
-        <v>9.650188185297697E-05</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002729993352419857</v>
+        <v>0.00259062848927999</v>
       </c>
       <c r="FZ6">
-        <v>0.01617035031049433</v>
+        <v>0.0165280181526794</v>
       </c>
       <c r="GA6">
-        <v>0.009825579188665461</v>
+        <v>0.009948613474227944</v>
       </c>
       <c r="GB6">
-        <v>0.006914369132765979</v>
+        <v>0.006929745071577217</v>
       </c>
       <c r="GC6">
-        <v>0.01416692627202566</v>
+        <v>0.01445050625531983</v>
       </c>
       <c r="GD6">
-        <v>0.003392473065140434</v>
+        <v>0.003277607111133972</v>
       </c>
       <c r="GE6">
-        <v>0.001653541131750403</v>
+        <v>0.00147436840033283</v>
       </c>
       <c r="GF6">
-        <v>3.144699060382812E-08</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.004231703581254884</v>
+        <v>0.00414787289030853</v>
       </c>
       <c r="GH6">
-        <v>0.001468307328193644</v>
+        <v>0.00128228453626156</v>
       </c>
       <c r="GI6">
-        <v>0.0007303212140232332</v>
+        <v>0.0005170072395754945</v>
       </c>
       <c r="GJ6">
-        <v>0.00147318802828736</v>
+        <v>0.001287345727660606</v>
       </c>
       <c r="GK6">
-        <v>0.0003722019071468199</v>
+        <v>0.0001456444594430425</v>
       </c>
       <c r="GL6">
-        <v>0.0006791811130412687</v>
+        <v>0.0004639759460589162</v>
       </c>
       <c r="GM6">
-        <v>0.00233846234490189</v>
+        <v>0.002184618423170625</v>
       </c>
       <c r="GN6">
-        <v>0.007294647540067879</v>
+        <v>0.007324086409361359</v>
       </c>
       <c r="GO6">
-        <v>0.001043131320029644</v>
+        <v>0.0008413852565924785</v>
       </c>
       <c r="GP6">
-        <v>8.538600163953585E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0008782716168640969</v>
+        <v>0.0006704289397343756</v>
       </c>
       <c r="GR6">
-        <v>0.0011436995219607</v>
+        <v>0.0009456725327736744</v>
       </c>
       <c r="GS6">
-        <v>8.134805156200134E-06</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.91777314029164E-05</v>
+        <v>4.328325349088436E-05</v>
       </c>
       <c r="C2">
-        <v>7.244650206671561E-05</v>
+        <v>6.062837987404779E-05</v>
       </c>
       <c r="D2">
-        <v>7.263017865195544E-05</v>
+        <v>6.062837987404779E-05</v>
       </c>
       <c r="E2">
-        <v>8.76827130813662E-05</v>
+        <v>6.974802079909046E-05</v>
       </c>
       <c r="F2">
-        <v>0.0002023242863518006</v>
+        <v>0.0001785688104504192</v>
       </c>
       <c r="G2">
-        <v>0.0003335204700944961</v>
+        <v>0.0003039628465152954</v>
       </c>
       <c r="H2">
-        <v>0.0004481620433649305</v>
+        <v>0.0004127836361666241</v>
       </c>
       <c r="I2">
-        <v>0.0006572392093293736</v>
+        <v>0.0006161463270333091</v>
       </c>
       <c r="J2">
-        <v>0.001060074520821247</v>
+        <v>0.001013485281844035</v>
       </c>
       <c r="K2">
-        <v>0.001467104832432793</v>
+        <v>0.001415023959191554</v>
       </c>
       <c r="L2">
-        <v>0.001996412197532595</v>
+        <v>0.001938977340381186</v>
       </c>
       <c r="M2">
-        <v>0.002489587611601643</v>
+        <v>0.002426758095894225</v>
       </c>
       <c r="N2">
-        <v>0.002821261681063466</v>
+        <v>0.002752855700675346</v>
       </c>
       <c r="O2">
-        <v>0.003028834386984991</v>
+        <v>0.002954712237890612</v>
       </c>
       <c r="P2">
-        <v>0.00309817452896309</v>
+        <v>0.003018180599289262</v>
       </c>
       <c r="Q2">
-        <v>0.003118159165533201</v>
+        <v>0.003032237894546406</v>
       </c>
       <c r="R2">
-        <v>0.003124102313702744</v>
+        <v>0.003032237894546406</v>
       </c>
       <c r="S2">
-        <v>0.003128256956121266</v>
+        <v>0.003032237894546406</v>
       </c>
       <c r="T2">
-        <v>0.003128277897510863</v>
+        <v>0.003032237894546406</v>
       </c>
       <c r="U2">
-        <v>0.003163922908527725</v>
+        <v>0.003061973193527607</v>
       </c>
       <c r="V2">
-        <v>0.003242626800772949</v>
+        <v>0.003134815846202515</v>
       </c>
       <c r="W2">
-        <v>0.003368833064373294</v>
+        <v>0.003255214344846462</v>
       </c>
       <c r="X2">
-        <v>0.003476277482438412</v>
+        <v>0.003356829877273882</v>
       </c>
       <c r="Y2">
-        <v>0.003667823187902727</v>
+        <v>0.003542641372034513</v>
       </c>
       <c r="Z2">
-        <v>0.004015077617809018</v>
+        <v>0.003884336876463633</v>
       </c>
       <c r="AA2">
-        <v>0.004455968390386518</v>
+        <v>0.004319774132349461</v>
       </c>
       <c r="AB2">
-        <v>0.004852095541687024</v>
+        <v>0.004710397375424211</v>
       </c>
       <c r="AC2">
-        <v>0.005133527199715558</v>
+        <v>0.00498619600962611</v>
       </c>
       <c r="AD2">
-        <v>0.005545718971474348</v>
+        <v>0.005392901957506349</v>
       </c>
       <c r="AE2">
-        <v>0.005962863343374422</v>
+        <v>0.005804566080794389</v>
       </c>
       <c r="AF2">
-        <v>0.006219789450703875</v>
+        <v>0.006055831577782575</v>
       </c>
       <c r="AG2">
-        <v>0.00638179589532551</v>
+        <v>0.006212070558611808</v>
       </c>
       <c r="AH2">
-        <v>0.006438554836944699</v>
+        <v>0.006262943556677941</v>
       </c>
       <c r="AI2">
-        <v>0.006459695810547798</v>
+        <v>0.006278158490685747</v>
       </c>
       <c r="AJ2">
-        <v>0.006460051493587944</v>
+        <v>0.006278158490685747</v>
       </c>
       <c r="AK2">
-        <v>0.006462910459369504</v>
+        <v>0.006278158490685747</v>
       </c>
       <c r="AL2">
-        <v>0.006470380768582613</v>
+        <v>0.006279687370892901</v>
       </c>
       <c r="AM2">
-        <v>0.006556224291031512</v>
+        <v>0.006359677691032736</v>
       </c>
       <c r="AN2">
-        <v>0.006658918068961106</v>
+        <v>0.006456537235409574</v>
       </c>
       <c r="AO2">
-        <v>0.006895469655709325</v>
+        <v>0.006687405275706376</v>
       </c>
       <c r="AP2">
-        <v>0.007353046868762847</v>
+        <v>0.007139547756413863</v>
       </c>
       <c r="AQ2">
-        <v>0.007717113779148755</v>
+        <v>0.007498074667554639</v>
       </c>
       <c r="AR2">
-        <v>0.008124144090760302</v>
+        <v>0.007899613344902159</v>
       </c>
       <c r="AS2">
-        <v>0.008675254106482077</v>
+        <v>0.008445393920505815</v>
       </c>
       <c r="AT2">
-        <v>0.009270441663461275</v>
+        <v>0.009035301656563447</v>
       </c>
       <c r="AU2">
-        <v>0.009571231912042059</v>
+        <v>0.009330480673769768</v>
       </c>
       <c r="AV2">
-        <v>0.009792023708340692</v>
+        <v>0.009545571182424582</v>
       </c>
       <c r="AW2">
-        <v>0.009936681492467413</v>
+        <v>0.009684441972935538</v>
       </c>
       <c r="AX2">
-        <v>0.01004983984569554</v>
+        <v>0.009791777872846456</v>
       </c>
       <c r="AY2">
-        <v>0.01011186165246486</v>
+        <v>0.009847919660602363</v>
       </c>
       <c r="AZ2">
-        <v>0.01011186823433435</v>
+        <v>0.009847919660602363</v>
       </c>
       <c r="BA2">
-        <v>0.01011187481620384</v>
+        <v>0.009847919660602363</v>
       </c>
       <c r="BB2">
-        <v>0.01012066564545462</v>
+        <v>0.0098507705473898</v>
       </c>
       <c r="BC2">
-        <v>0.01012558483099495</v>
+        <v>0.0098507705473898</v>
       </c>
       <c r="BD2">
-        <v>0.01018419088866683</v>
+        <v>0.009903492740853614</v>
       </c>
       <c r="BE2">
-        <v>0.01035516277354423</v>
+        <v>0.01006870725456015</v>
       </c>
       <c r="BF2">
-        <v>0.01052027966825459</v>
+        <v>0.01022806018698999</v>
       </c>
       <c r="BG2">
-        <v>0.01088060397853374</v>
+        <v>0.01058284028488495</v>
       </c>
       <c r="BH2">
-        <v>0.01124955318905892</v>
+        <v>0.01094625499229304</v>
       </c>
       <c r="BI2">
-        <v>0.01177673643409813</v>
+        <v>0.01146808186224671</v>
       </c>
       <c r="BJ2">
-        <v>0.01254998500615696</v>
+        <v>0.01223625106114613</v>
       </c>
       <c r="BK2">
-        <v>0.01307477767112797</v>
+        <v>0.0127556846598955</v>
       </c>
       <c r="BL2">
-        <v>0.01333170377845742</v>
+        <v>0.01300695015688369</v>
       </c>
       <c r="BM2">
-        <v>0.013521330843867</v>
+        <v>0.01319084085172823</v>
       </c>
       <c r="BN2">
-        <v>0.01368069473841325</v>
+        <v>0.01334443430769701</v>
       </c>
       <c r="BO2">
-        <v>0.0137123117223152</v>
+        <v>0.01337013704511189</v>
       </c>
       <c r="BP2">
-        <v>0.01372700782173444</v>
+        <v>0.01337889984977891</v>
       </c>
       <c r="BQ2">
-        <v>0.0137547759225266</v>
+        <v>0.0134007493712995</v>
       </c>
       <c r="BR2">
-        <v>0.0138940521864998</v>
+        <v>0.01353423258354437</v>
       </c>
       <c r="BS2">
-        <v>0.01417354044447289</v>
+        <v>0.01380808562995652</v>
       </c>
       <c r="BT2">
-        <v>0.01456254949557034</v>
+        <v>0.01419158275980382</v>
       </c>
       <c r="BU2">
-        <v>0.01493327598614623</v>
+        <v>0.01455677674799146</v>
       </c>
       <c r="BV2">
-        <v>0.01531275027697167</v>
+        <v>0.01493072838404736</v>
       </c>
       <c r="BW2">
-        <v>0.01582383199155154</v>
+        <v>0.01543643559764397</v>
       </c>
       <c r="BX2">
-        <v>0.01638559650757726</v>
+        <v>0.01599288266759048</v>
       </c>
       <c r="BY2">
-        <v>0.0170291986259376</v>
+        <v>0.01663125946651842</v>
       </c>
       <c r="BZ2">
-        <v>0.01772402384575921</v>
+        <v>0.01732091703004099</v>
       </c>
       <c r="CA2">
-        <v>0.01822962201018265</v>
+        <v>0.01782113452051087</v>
       </c>
       <c r="CB2">
-        <v>0.01861589478120203</v>
+        <v>0.01820189228998082</v>
       </c>
       <c r="CC2">
-        <v>0.01889538303917513</v>
+        <v>0.01847574533639297</v>
       </c>
       <c r="CD2">
-        <v>0.01895127105776947</v>
+        <v>0.01852574643101431</v>
       </c>
       <c r="CE2">
-        <v>0.01895542570018799</v>
+        <v>0.01852574643101431</v>
       </c>
       <c r="CF2">
-        <v>0.018955916576402</v>
+        <v>0.01852574643101431</v>
       </c>
       <c r="CG2">
-        <v>0.01900197782071601</v>
+        <v>0.01856590968910841</v>
       </c>
       <c r="CH2">
-        <v>0.01909549924338394</v>
+        <v>0.01865358655267262</v>
       </c>
       <c r="CI2">
-        <v>0.01932903588004614</v>
+        <v>0.01888143624887828</v>
       </c>
       <c r="CJ2">
-        <v>0.01966537075964093</v>
+        <v>0.01921219991058353</v>
       </c>
       <c r="CK2">
-        <v>0.0200635752010007</v>
+        <v>0.0196049027821752</v>
       </c>
       <c r="CL2">
-        <v>0.02076238092093586</v>
+        <v>0.02029854532676039</v>
       </c>
       <c r="CM2">
-        <v>0.02479778503605574</v>
+        <v>0.02433254235924496</v>
       </c>
       <c r="CN2">
-        <v>0.1157573676309027</v>
+        <v>0.1153885706049432</v>
       </c>
       <c r="CO2">
-        <v>0.1404716703359394</v>
+        <v>0.1401247449834732</v>
       </c>
       <c r="CP2">
-        <v>0.1656248740534967</v>
+        <v>0.1653003144564301</v>
       </c>
       <c r="CQ2">
-        <v>0.1765016443637835</v>
+        <v>0.1761833791820386</v>
       </c>
       <c r="CR2">
-        <v>0.1782817775145662</v>
+        <v>0.177959566434951</v>
       </c>
       <c r="CS2">
-        <v>0.1821267116242524</v>
+        <v>0.1818028790451273</v>
       </c>
       <c r="CT2">
-        <v>0.1824523013635407</v>
+        <v>0.1821228854704514</v>
       </c>
       <c r="CU2">
-        <v>0.2251659145820521</v>
+        <v>0.224878632638907</v>
       </c>
       <c r="CV2">
-        <v>0.2699333588591541</v>
+        <v>0.269690522915221</v>
       </c>
       <c r="CW2">
-        <v>0.271768144611496</v>
+        <v>0.2715214242935003</v>
       </c>
       <c r="CX2">
-        <v>0.4309288691519492</v>
+        <v>0.4308553702252605</v>
       </c>
       <c r="CY2">
-        <v>0.4377190630456562</v>
+        <v>0.4376472581724572</v>
       </c>
       <c r="CZ2">
-        <v>0.4513288164339081</v>
+        <v>0.4512663825638045</v>
       </c>
       <c r="DA2">
-        <v>0.4976783377561428</v>
+        <v>0.4976621308691633</v>
       </c>
       <c r="DB2">
-        <v>0.500561179338383</v>
+        <v>0.5005422679001429</v>
       </c>
       <c r="DC2">
-        <v>0.604828812312875</v>
+        <v>0.6049213277324392</v>
       </c>
       <c r="DD2">
-        <v>0.6159863866311724</v>
+        <v>0.6160855125741912</v>
       </c>
       <c r="DE2">
-        <v>0.6331607571211139</v>
+        <v>0.6332732668463343</v>
       </c>
       <c r="DF2">
-        <v>0.638106907662215</v>
+        <v>0.6382190355549533</v>
       </c>
       <c r="DG2">
-        <v>0.643250473808948</v>
+        <v>0.6433624421049154</v>
       </c>
       <c r="DH2">
-        <v>0.6445019188446485</v>
+        <v>0.6446093460852403</v>
       </c>
       <c r="DI2">
-        <v>0.6495957686899632</v>
+        <v>0.6497029803668936</v>
       </c>
       <c r="DJ2">
-        <v>0.649629907367937</v>
+        <v>0.6497312076371148</v>
       </c>
       <c r="DK2">
-        <v>0.6508003564013269</v>
+        <v>0.6508970244358926</v>
       </c>
       <c r="DL2">
-        <v>0.6647076107980657</v>
+        <v>0.664813984740093</v>
       </c>
       <c r="DM2">
-        <v>0.6704297469613039</v>
+        <v>0.6705366126173765</v>
       </c>
       <c r="DN2">
-        <v>0.6740149594635809</v>
+        <v>0.6741199112449993</v>
       </c>
       <c r="DO2">
-        <v>0.6776901865684258</v>
+        <v>0.6777933258068916</v>
       </c>
       <c r="DP2">
-        <v>0.6780265214480207</v>
+        <v>0.6781240894685968</v>
       </c>
       <c r="DQ2">
-        <v>0.6888827907577226</v>
+        <v>0.6889866301151286</v>
       </c>
       <c r="DR2">
-        <v>0.6907730555116471</v>
+        <v>0.6908730729490978</v>
       </c>
       <c r="DS2">
-        <v>0.690847401328768</v>
+        <v>0.6909415526206537</v>
       </c>
       <c r="DT2">
-        <v>0.6915306802982603</v>
+        <v>0.6916196509359426</v>
       </c>
       <c r="DU2">
-        <v>0.6921631717163036</v>
+        <v>0.6922469045269588</v>
       </c>
       <c r="DV2">
-        <v>0.7085455071836502</v>
+        <v>0.7086417321627659</v>
       </c>
       <c r="DW2">
-        <v>0.7215197530537726</v>
+        <v>0.7216246336291904</v>
       </c>
       <c r="DX2">
-        <v>0.7268223626050426</v>
+        <v>0.7269272626228495</v>
       </c>
       <c r="DY2">
-        <v>0.7270056608502716</v>
+        <v>0.7271048173730015</v>
       </c>
       <c r="DZ2">
-        <v>0.7315756129806408</v>
+        <v>0.7316739641748777</v>
       </c>
       <c r="EA2">
-        <v>0.7333216959304522</v>
+        <v>0.7334160628956513</v>
       </c>
       <c r="EB2">
-        <v>0.7335409416067067</v>
+        <v>0.7336296055437558</v>
       </c>
       <c r="EC2">
-        <v>0.7352499687554609</v>
+        <v>0.7353346067488252</v>
       </c>
       <c r="ED2">
-        <v>0.7353305329337592</v>
+        <v>0.735409311781724</v>
       </c>
       <c r="EE2">
-        <v>0.7432182851587767</v>
+        <v>0.7432999936092437</v>
       </c>
       <c r="EF2">
-        <v>0.7432526964117584</v>
+        <v>0.7433284937613173</v>
       </c>
       <c r="EG2">
-        <v>0.743266951005165</v>
+        <v>0.7433368145629573</v>
       </c>
       <c r="EH2">
-        <v>0.7497738581907907</v>
+        <v>0.7498450968991018</v>
       </c>
       <c r="EI2">
-        <v>0.7565354520836819</v>
+        <v>0.7566083526497426</v>
       </c>
       <c r="EJ2">
-        <v>0.7597238347746383</v>
+        <v>0.7597943747447476</v>
       </c>
       <c r="EK2">
-        <v>0.7619703498387257</v>
+        <v>0.7620374689288121</v>
       </c>
       <c r="EL2">
-        <v>0.7649087881225519</v>
+        <v>0.7649732652479827</v>
       </c>
       <c r="EM2">
-        <v>0.7649088530720438</v>
+        <v>0.7649732652479827</v>
       </c>
       <c r="EN2">
-        <v>0.7665468168187708</v>
+        <v>0.7666071230531663</v>
       </c>
       <c r="EO2">
-        <v>0.7667088232633924</v>
+        <v>0.7667633620339955</v>
       </c>
       <c r="EP2">
-        <v>0.7672357352784239</v>
+        <v>0.767284917368611</v>
       </c>
       <c r="EQ2">
-        <v>0.7679150781978039</v>
+        <v>0.767959075202877</v>
       </c>
       <c r="ER2">
-        <v>0.7679155064570161</v>
+        <v>0.767959075202877</v>
       </c>
       <c r="ES2">
-        <v>0.7683068077681789</v>
+        <v>0.7683448671732445</v>
       </c>
       <c r="ET2">
-        <v>0.7683079555606117</v>
+        <v>0.7683448671732445</v>
       </c>
       <c r="EU2">
-        <v>0.7684833442456152</v>
+        <v>0.7685145034591799</v>
       </c>
       <c r="EV2">
-        <v>0.7695736013767175</v>
+        <v>0.7696000380816291</v>
       </c>
       <c r="EW2">
-        <v>0.7754102122432213</v>
+        <v>0.7754372695292303</v>
       </c>
       <c r="EX2">
-        <v>0.789869179655699</v>
+        <v>0.7899065639263847</v>
       </c>
       <c r="EY2">
-        <v>0.8056522921059514</v>
+        <v>0.8057014939846793</v>
       </c>
       <c r="EZ2">
-        <v>0.8087304831937644</v>
+        <v>0.8087772004310824</v>
       </c>
       <c r="FA2">
-        <v>0.8087339818792642</v>
+        <v>0.8087772004310824</v>
       </c>
       <c r="FB2">
-        <v>0.822264162265246</v>
+        <v>0.8223166622428301</v>
       </c>
       <c r="FC2">
-        <v>0.8293915280685717</v>
+        <v>0.8294461016625425</v>
       </c>
       <c r="FD2">
-        <v>0.8296811791168348</v>
+        <v>0.8297301289397532</v>
       </c>
       <c r="FE2">
-        <v>0.8330264340122665</v>
+        <v>0.8330731998342187</v>
       </c>
       <c r="FF2">
-        <v>0.8398252202062186</v>
+        <v>0.8398736897542289</v>
       </c>
       <c r="FG2">
-        <v>0.8551561766435721</v>
+        <v>0.8552159547962311</v>
       </c>
       <c r="FH2">
-        <v>0.8798158873470514</v>
+        <v>0.8798974757176148</v>
       </c>
       <c r="FI2">
-        <v>0.8900994606404158</v>
+        <v>0.8901866756495026</v>
       </c>
       <c r="FJ2">
-        <v>0.9028085730029747</v>
+        <v>0.902904145140907</v>
       </c>
       <c r="FK2">
-        <v>0.9107798622303754</v>
+        <v>0.910878458010514</v>
       </c>
       <c r="FL2">
-        <v>0.911934909363326</v>
+        <v>0.9120288555705458</v>
       </c>
       <c r="FM2">
-        <v>0.9119809706076401</v>
+        <v>0.9120690188286399</v>
       </c>
       <c r="FN2">
-        <v>0.9137964599594314</v>
+        <v>0.9138806020839254</v>
       </c>
       <c r="FO2">
-        <v>0.9169075086481817</v>
+        <v>0.9169892031198934</v>
       </c>
       <c r="FP2">
-        <v>0.9203485724463466</v>
+        <v>0.920428190771583</v>
       </c>
       <c r="FQ2">
-        <v>0.9276946526559117</v>
+        <v>0.9277765908098417</v>
       </c>
       <c r="FR2">
-        <v>0.9276973380943883</v>
+        <v>0.9277765908098417</v>
       </c>
       <c r="FS2">
-        <v>0.9296118497490045</v>
+        <v>0.9296873078398483</v>
       </c>
       <c r="FT2">
-        <v>0.9388800800134036</v>
+        <v>0.9389600217455917</v>
       </c>
       <c r="FU2">
-        <v>0.9416887838935288</v>
+        <v>0.9417659376157808</v>
       </c>
       <c r="FV2">
-        <v>0.942825413325954</v>
+        <v>0.9428978967420185</v>
       </c>
       <c r="FW2">
-        <v>0.9440165647599346</v>
+        <v>0.9440844392465998</v>
       </c>
       <c r="FX2">
-        <v>0.9445538958152633</v>
+        <v>0.9446164253504882</v>
       </c>
       <c r="FY2">
-        <v>0.9562800541497809</v>
+        <v>0.956349834277785</v>
       </c>
       <c r="FZ2">
-        <v>0.9635449436570298</v>
+        <v>0.9636169522153123</v>
       </c>
       <c r="GA2">
-        <v>0.9654483131113282</v>
+        <v>0.9655165145019461</v>
       </c>
       <c r="GB2">
-        <v>0.9738693693515597</v>
+        <v>0.9739411006984199</v>
       </c>
       <c r="GC2">
-        <v>0.9772085984468194</v>
+        <v>0.9772781390093187</v>
       </c>
       <c r="GD2">
-        <v>0.9772698020785654</v>
+        <v>0.9773334617010111</v>
       </c>
       <c r="GE2">
-        <v>0.9772763529317523</v>
+        <v>0.9773340700901373</v>
       </c>
       <c r="GF2">
-        <v>0.9819202120642299</v>
+        <v>0.9819772070930927</v>
       </c>
       <c r="GG2">
-        <v>0.9860510811820731</v>
+        <v>0.9861067765956547</v>
       </c>
       <c r="GH2">
-        <v>0.9886804472570823</v>
+        <v>0.988733152775651</v>
       </c>
       <c r="GI2">
-        <v>0.9887773588898469</v>
+        <v>0.9888242236657566</v>
       </c>
       <c r="GJ2">
-        <v>0.989506483810647</v>
+        <v>0.9895482195422936</v>
       </c>
       <c r="GK2">
-        <v>0.9900022398247896</v>
+        <v>0.9900385838029266</v>
       </c>
       <c r="GL2">
-        <v>0.9914190152652067</v>
+        <v>0.9914510043045619</v>
       </c>
       <c r="GM2">
-        <v>0.9958823503925344</v>
+        <v>0.9959134140819553</v>
       </c>
       <c r="GN2">
-        <v>0.9983073991617148</v>
+        <v>0.9983352429509941</v>
       </c>
       <c r="GO2">
-        <v>0.9984738581464635</v>
+        <v>0.9984959394842867</v>
       </c>
       <c r="GP2">
-        <v>0.9988295805566113</v>
+        <v>0.9988461125015757</v>
       </c>
       <c r="GQ2">
-        <v>0.9990423615226814</v>
+        <v>0.999053183162009</v>
       </c>
       <c r="GR2">
-        <v>0.9994706926349006</v>
+        <v>0.9994760466188111</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.382928248022956E-05</v>
+        <v>3.149412038875242E-05</v>
       </c>
       <c r="C3">
-        <v>4.483097262264182E-05</v>
+        <v>3.149412038875242E-05</v>
       </c>
       <c r="D3">
-        <v>4.613271784780374E-05</v>
+        <v>3.149412038875242E-05</v>
       </c>
       <c r="E3">
-        <v>6.929896151596318E-05</v>
+        <v>4.22769750362105E-05</v>
       </c>
       <c r="F3">
-        <v>0.00014127116737824</v>
+        <v>0.0001019797035684072</v>
       </c>
       <c r="G3">
-        <v>0.0002409248456490932</v>
+        <v>0.0001894285122574798</v>
       </c>
       <c r="H3">
-        <v>0.0003913852669990377</v>
+        <v>0.0003278026454804274</v>
       </c>
       <c r="I3">
-        <v>0.0006167487240427641</v>
+        <v>0.0005412546358952888</v>
       </c>
       <c r="J3">
-        <v>0.0007308783774813853</v>
+        <v>0.0006432132062554707</v>
       </c>
       <c r="K3">
-        <v>0.001267527446629124</v>
+        <v>0.001168677340303419</v>
       </c>
       <c r="L3">
-        <v>0.002044426451964757</v>
+        <v>0.001934952146874998</v>
       </c>
       <c r="M3">
-        <v>0.002373349933054759</v>
+        <v>0.002252205867408294</v>
       </c>
       <c r="N3">
-        <v>0.002534297683801781</v>
+        <v>0.0024010918071489</v>
       </c>
       <c r="O3">
-        <v>0.002599315390063876</v>
+        <v>0.002453823804481921</v>
       </c>
       <c r="P3">
-        <v>0.002668230601101901</v>
+        <v>0.002510462403253211</v>
       </c>
       <c r="Q3">
-        <v>0.002674843723721709</v>
+        <v>0.002510462403253211</v>
       </c>
       <c r="R3">
-        <v>0.002687252221008337</v>
+        <v>0.002510462403253211</v>
       </c>
       <c r="S3">
-        <v>0.00270193998316393</v>
+        <v>0.002512746987859824</v>
       </c>
       <c r="T3">
-        <v>0.002710072693696376</v>
+        <v>0.002512746987859824</v>
       </c>
       <c r="U3">
-        <v>0.002736140384197729</v>
+        <v>0.002526438061232662</v>
       </c>
       <c r="V3">
-        <v>0.002923269593439564</v>
+        <v>0.002701566566227707</v>
       </c>
       <c r="W3">
-        <v>0.003093914073629116</v>
+        <v>0.002860171867294216</v>
       </c>
       <c r="X3">
-        <v>0.003270837573457683</v>
+        <v>0.003025070843048231</v>
       </c>
       <c r="Y3">
-        <v>0.003682604479784969</v>
+        <v>0.003425361342954277</v>
       </c>
       <c r="Z3">
-        <v>0.004048532508747558</v>
+        <v>0.003779705978894357</v>
       </c>
       <c r="AA3">
-        <v>0.004209793229476587</v>
+        <v>0.00392890561907977</v>
       </c>
       <c r="AB3">
-        <v>0.004476374874150656</v>
+        <v>0.004183671999171327</v>
       </c>
       <c r="AC3">
-        <v>0.004735687109242648</v>
+        <v>0.004431152003091111</v>
       </c>
       <c r="AD3">
-        <v>0.005019464162928144</v>
+        <v>0.004703153925776619</v>
       </c>
       <c r="AE3">
-        <v>0.005335248274773535</v>
+        <v>0.005007237610161159</v>
       </c>
       <c r="AF3">
-        <v>0.005781835699098969</v>
+        <v>0.005442429898137598</v>
       </c>
       <c r="AG3">
-        <v>0.005834996531042722</v>
+        <v>0.00548327734755384</v>
       </c>
       <c r="AH3">
-        <v>0.005841395257674856</v>
+        <v>0.00548327734755384</v>
       </c>
       <c r="AI3">
-        <v>0.005841601801452981</v>
+        <v>0.00548327734755384</v>
       </c>
       <c r="AJ3">
-        <v>0.005850881403919492</v>
+        <v>0.00548327734755384</v>
       </c>
       <c r="AK3">
-        <v>0.005887097207837425</v>
+        <v>0.005507140219743646</v>
       </c>
       <c r="AL3">
-        <v>0.006001226861276046</v>
+        <v>0.005609098790103828</v>
       </c>
       <c r="AM3">
-        <v>0.006113270804834576</v>
+        <v>0.005708966782597961</v>
       </c>
       <c r="AN3">
-        <v>0.006176940007174198</v>
+        <v>0.00576034712863973</v>
       </c>
       <c r="AO3">
-        <v>0.006405257464048097</v>
+        <v>0.005976760013434111</v>
       </c>
       <c r="AP3">
-        <v>0.006644715330281528</v>
+        <v>0.006204339308978167</v>
       </c>
       <c r="AQ3">
-        <v>0.006828836409696302</v>
+        <v>0.006376452663258972</v>
       </c>
       <c r="AR3">
-        <v>0.007005432079543716</v>
+        <v>0.00654102304388623</v>
       </c>
       <c r="AS3">
-        <v>0.007205074998066131</v>
+        <v>0.006728694464793914</v>
       </c>
       <c r="AT3">
-        <v>0.007474463822578814</v>
+        <v>0.006986274576599858</v>
       </c>
       <c r="AU3">
-        <v>0.00761479020451137</v>
+        <v>0.007114491017853332</v>
       </c>
       <c r="AV3">
-        <v>0.0076586194869916</v>
+        <v>0.007145985138242085</v>
       </c>
       <c r="AW3">
-        <v>0.007710182689027202</v>
+        <v>0.007185231228928621</v>
       </c>
       <c r="AX3">
-        <v>0.007710975588731617</v>
+        <v>0.007185231228928621</v>
       </c>
       <c r="AY3">
-        <v>0.007714476678530337</v>
+        <v>0.007185231228928621</v>
       </c>
       <c r="AZ3">
-        <v>0.007714737298215354</v>
+        <v>0.007185231228928621</v>
       </c>
       <c r="BA3">
-        <v>0.007738840670829638</v>
+        <v>0.007196953399753799</v>
       </c>
       <c r="BB3">
-        <v>0.007792616149738055</v>
+        <v>0.007238416930702773</v>
       </c>
       <c r="BC3">
-        <v>0.007879004214771555</v>
+        <v>0.007312569164600554</v>
       </c>
       <c r="BD3">
-        <v>0.007892011975023731</v>
+        <v>0.007313169826228366</v>
       </c>
       <c r="BE3">
-        <v>0.008021879777557557</v>
+        <v>0.007430903278064185</v>
       </c>
       <c r="BF3">
-        <v>0.008313259060805996</v>
+        <v>0.007710525173694451</v>
       </c>
       <c r="BG3">
-        <v>0.008599875164328273</v>
+        <v>0.007985372772476159</v>
       </c>
       <c r="BH3">
-        <v>0.008756543505321322</v>
+        <v>0.008129969314445384</v>
       </c>
       <c r="BI3">
-        <v>0.008904907916791768</v>
+        <v>0.008266242545762977</v>
       </c>
       <c r="BJ3">
-        <v>0.009041240338953939</v>
+        <v>0.008390455705460586</v>
       </c>
       <c r="BK3">
-        <v>0.009281079865165428</v>
+        <v>0.008618417551765943</v>
       </c>
       <c r="BL3">
-        <v>0.009408722157827201</v>
+        <v>0.008733920299454653</v>
       </c>
       <c r="BM3">
-        <v>0.009432007230488529</v>
+        <v>0.00874482226043868</v>
       </c>
       <c r="BN3">
-        <v>0.009457083144046899</v>
+        <v>0.008757519242090112</v>
       </c>
       <c r="BO3">
-        <v>0.009457543674850423</v>
+        <v>0.008757519242090112</v>
       </c>
       <c r="BP3">
-        <v>0.009464736770436888</v>
+        <v>0.008757519242090112</v>
       </c>
       <c r="BQ3">
-        <v>0.009576780713995417</v>
+        <v>0.008857387234584246</v>
       </c>
       <c r="BR3">
-        <v>0.009593236839049345</v>
+        <v>0.008861444309396563</v>
       </c>
       <c r="BS3">
-        <v>0.009602262148530475</v>
+        <v>0.008861444309396563</v>
       </c>
       <c r="BT3">
-        <v>0.009614485783827731</v>
+        <v>0.008861444309396563</v>
       </c>
       <c r="BU3">
-        <v>0.009831515201350586</v>
+        <v>0.009066542808885667</v>
       </c>
       <c r="BV3">
-        <v>0.01015840918255726</v>
+        <v>0.009381762292742174</v>
       </c>
       <c r="BW3">
-        <v>0.01043988758637491</v>
+        <v>0.009651460200578162</v>
       </c>
       <c r="BX3">
-        <v>0.01085685619240315</v>
+        <v>0.01005696454080037</v>
       </c>
       <c r="BY3">
-        <v>0.01117569492407293</v>
+        <v>0.01036410997440277</v>
       </c>
       <c r="BZ3">
-        <v>0.01155521080225434</v>
+        <v>0.01073207417320499</v>
       </c>
       <c r="CA3">
-        <v>0.01180785272772981</v>
+        <v>0.01097286829920038</v>
       </c>
       <c r="CB3">
-        <v>0.01185941592976542</v>
+        <v>0.01101211438988692</v>
       </c>
       <c r="CC3">
-        <v>0.01188769149813984</v>
+        <v>0.01102801849425531</v>
       </c>
       <c r="CD3">
-        <v>0.01189054420337583</v>
+        <v>0.01102801849425531</v>
       </c>
       <c r="CE3">
-        <v>0.01190700032842976</v>
+        <v>0.01103207556906763</v>
       </c>
       <c r="CF3">
-        <v>0.01195753853752429</v>
+        <v>0.0110702942745095</v>
       </c>
       <c r="CG3">
-        <v>0.01214313772685409</v>
+        <v>0.01124388918857071</v>
       </c>
       <c r="CH3">
-        <v>0.01220633383922091</v>
+        <v>0.01129479534046149</v>
       </c>
       <c r="CI3">
-        <v>0.0123286513621888</v>
+        <v>0.01140496089059934</v>
       </c>
       <c r="CJ3">
-        <v>0.01265954938316529</v>
+        <v>0.01172419375953756</v>
       </c>
       <c r="CK3">
-        <v>0.01321181045141548</v>
+        <v>0.012265306330638</v>
       </c>
       <c r="CL3">
-        <v>0.0135147816039975</v>
+        <v>0.01255654715068638</v>
       </c>
       <c r="CM3">
-        <v>0.01409369500071544</v>
+        <v>0.01312437425601095</v>
       </c>
       <c r="CN3">
-        <v>0.05400754070604569</v>
+        <v>0.05311894025337154</v>
       </c>
       <c r="CO3">
-        <v>0.0591436801107661</v>
+        <v>0.05825462979912974</v>
       </c>
       <c r="CP3">
-        <v>0.1242445363680807</v>
+        <v>0.1234949920956394</v>
       </c>
       <c r="CQ3">
-        <v>0.1705466957061432</v>
+        <v>0.1698927818632115</v>
       </c>
       <c r="CR3">
-        <v>0.1823577130271211</v>
+        <v>0.1817189282953764</v>
       </c>
       <c r="CS3">
-        <v>0.1849704365769141</v>
+        <v>0.1843253124072859</v>
       </c>
       <c r="CT3">
-        <v>0.1989793207715354</v>
+        <v>0.1983544554701994</v>
       </c>
       <c r="CU3">
-        <v>0.2177695906912721</v>
+        <v>0.2171761438728937</v>
       </c>
       <c r="CV3">
-        <v>0.2211182296987569</v>
+        <v>0.2205201610476843</v>
       </c>
       <c r="CW3">
-        <v>0.2658305251282215</v>
+        <v>0.2653243762107201</v>
       </c>
       <c r="CX3">
-        <v>0.3468428004707796</v>
+        <v>0.3465132943800029</v>
       </c>
       <c r="CY3">
-        <v>0.4268216418727505</v>
+        <v>0.4266663666040574</v>
       </c>
       <c r="CZ3">
-        <v>0.4573535081174561</v>
+        <v>0.4572570558746872</v>
       </c>
       <c r="DA3">
-        <v>0.4593589782021604</v>
+        <v>0.4592547692096524</v>
       </c>
       <c r="DB3">
-        <v>0.5589988124738096</v>
+        <v>0.5591147224866397</v>
       </c>
       <c r="DC3">
-        <v>0.5668318950234812</v>
+        <v>0.5669536497638984</v>
       </c>
       <c r="DD3">
-        <v>0.6537364700272876</v>
+        <v>0.654048620049783</v>
       </c>
       <c r="DE3">
-        <v>0.6692708761342058</v>
+        <v>0.6696068455485913</v>
       </c>
       <c r="DF3">
-        <v>0.6845271592571134</v>
+        <v>0.6848862989324656</v>
       </c>
       <c r="DG3">
-        <v>0.6929307077739886</v>
+        <v>0.6932970236278376</v>
       </c>
       <c r="DH3">
-        <v>0.6932908275832851</v>
+        <v>0.6936455464878966</v>
       </c>
       <c r="DI3">
-        <v>0.6933576377994441</v>
+        <v>0.6937000751787923</v>
       </c>
       <c r="DJ3">
-        <v>0.7030917592398239</v>
+        <v>0.7034444783160195</v>
       </c>
       <c r="DK3">
-        <v>0.7035455520737351</v>
+        <v>0.7038868928307973</v>
       </c>
       <c r="DL3">
-        <v>0.7047260010058705</v>
+        <v>0.705057659437914</v>
       </c>
       <c r="DM3">
-        <v>0.7226991249725853</v>
+        <v>0.7230602946927929</v>
       </c>
       <c r="DN3">
-        <v>0.7264103511592247</v>
+        <v>0.7267677453146267</v>
       </c>
       <c r="DO3">
-        <v>0.7308192133057567</v>
+        <v>0.7311744601583124</v>
       </c>
       <c r="DP3">
-        <v>0.7312730061396679</v>
+        <v>0.7316168746730902</v>
       </c>
       <c r="DQ3">
-        <v>0.731282815454104</v>
+        <v>0.7316168746730902</v>
       </c>
       <c r="DR3">
-        <v>0.7356860982009568</v>
+        <v>0.7360179970949408</v>
       </c>
       <c r="DS3">
-        <v>0.736880063132315</v>
+        <v>0.7372023112472279</v>
       </c>
       <c r="DT3">
-        <v>0.7383092070501527</v>
+        <v>0.7386223532868817</v>
       </c>
       <c r="DU3">
-        <v>0.7389362732141023</v>
+        <v>0.7392384455465907</v>
       </c>
       <c r="DV3">
-        <v>0.7389512848902392</v>
+        <v>0.7392410548011844</v>
       </c>
       <c r="DW3">
-        <v>0.755191986956552</v>
+        <v>0.7555072247335326</v>
       </c>
       <c r="DX3">
-        <v>0.7609460788257459</v>
+        <v>0.7612623090267722</v>
       </c>
       <c r="DY3">
-        <v>0.7620286433635087</v>
+        <v>0.7623349627801981</v>
       </c>
       <c r="DZ3">
-        <v>0.7648664002003644</v>
+        <v>0.7651669054002912</v>
       </c>
       <c r="EA3">
-        <v>0.7718555857985522</v>
+        <v>0.7721599660952231</v>
       </c>
       <c r="EB3">
-        <v>0.7727682797460809</v>
+        <v>0.7730623527854176</v>
       </c>
       <c r="EC3">
-        <v>0.7727858921280684</v>
+        <v>0.7730675688158334</v>
       </c>
       <c r="ED3">
-        <v>0.7804589096869422</v>
+        <v>0.7807460575152797</v>
       </c>
       <c r="EE3">
-        <v>0.7810445842532714</v>
+        <v>0.781320661570588</v>
       </c>
       <c r="EF3">
-        <v>0.7836585681029919</v>
+        <v>0.7839283089239282</v>
       </c>
       <c r="EG3">
-        <v>0.7860705013643285</v>
+        <v>0.786333434108711</v>
       </c>
       <c r="EH3">
-        <v>0.7860741615023181</v>
+        <v>0.786333434108711</v>
       </c>
       <c r="EI3">
-        <v>0.7884013711685255</v>
+        <v>0.7886536379559675</v>
       </c>
       <c r="EJ3">
-        <v>0.7910541768160142</v>
+        <v>0.7913001977160182</v>
       </c>
       <c r="EK3">
-        <v>0.7916330902127321</v>
+        <v>0.7918680248213428</v>
       </c>
       <c r="EL3">
-        <v>0.7918100137125607</v>
+        <v>0.7920329237970968</v>
       </c>
       <c r="EM3">
-        <v>0.7918113841123818</v>
+        <v>0.7920329237970968</v>
       </c>
       <c r="EN3">
-        <v>0.7947944231408852</v>
+        <v>0.7950104876932307</v>
       </c>
       <c r="EO3">
-        <v>0.7975523289823316</v>
+        <v>0.7977623929480229</v>
       </c>
       <c r="EP3">
-        <v>0.7975615336258025</v>
+        <v>0.7977623929480229</v>
       </c>
       <c r="EQ3">
-        <v>0.7982929472437531</v>
+        <v>0.7984830762056434</v>
       </c>
       <c r="ER3">
-        <v>0.7989899188036839</v>
+        <v>0.7991692370184864</v>
       </c>
       <c r="ES3">
-        <v>0.7990104663565025</v>
+        <v>0.7991773950703365</v>
       </c>
       <c r="ET3">
-        <v>0.7990337514291639</v>
+        <v>0.7991882970313205</v>
       </c>
       <c r="EU3">
-        <v>0.7998589236117243</v>
+        <v>0.800002957683303</v>
       </c>
       <c r="EV3">
-        <v>0.8007946157279308</v>
+        <v>0.8009283962192294</v>
       </c>
       <c r="EW3">
-        <v>0.8012347842426252</v>
+        <v>0.8013571546160272</v>
       </c>
       <c r="EX3">
-        <v>0.8034276341165569</v>
+        <v>0.8035426850791764</v>
       </c>
       <c r="EY3">
-        <v>0.8087583552100908</v>
+        <v>0.8088734104617278</v>
       </c>
       <c r="EZ3">
-        <v>0.8125297703932699</v>
+        <v>0.8126411905594618</v>
       </c>
       <c r="FA3">
-        <v>0.8129570316687064</v>
+        <v>0.8130570115918822</v>
       </c>
       <c r="FB3">
-        <v>0.8131144443796566</v>
+        <v>0.8132023542411463</v>
       </c>
       <c r="FC3">
-        <v>0.8222743338530494</v>
+        <v>0.8223711851707431</v>
       </c>
       <c r="FD3">
-        <v>0.8265429351076451</v>
+        <v>0.8266373117576664</v>
       </c>
       <c r="FE3">
-        <v>0.8265446531380464</v>
+        <v>0.8266373117576664</v>
       </c>
       <c r="FF3">
-        <v>0.8329919539673873</v>
+        <v>0.8330872229405242</v>
       </c>
       <c r="FG3">
-        <v>0.8403922562419397</v>
+        <v>0.8404923598461387</v>
       </c>
       <c r="FH3">
-        <v>0.8583015792123225</v>
+        <v>0.8584310451950231</v>
       </c>
       <c r="FI3">
-        <v>0.8747101112689867</v>
+        <v>0.8748654368280195</v>
       </c>
       <c r="FJ3">
-        <v>0.8829170457971653</v>
+        <v>0.8830790886433866</v>
       </c>
       <c r="FK3">
-        <v>0.889859460398042</v>
+        <v>0.8900252691788654</v>
       </c>
       <c r="FL3">
-        <v>0.8926245512390754</v>
+        <v>0.8927843762028238</v>
       </c>
       <c r="FM3">
-        <v>0.8926519399245008</v>
+        <v>0.8927993913542843</v>
       </c>
       <c r="FN3">
-        <v>0.8952991489723112</v>
+        <v>0.8954403414523566</v>
       </c>
       <c r="FO3">
-        <v>0.9011107706381978</v>
+        <v>0.9012530898151544</v>
       </c>
       <c r="FP3">
-        <v>0.9071946456884323</v>
+        <v>0.9073387269937494</v>
       </c>
       <c r="FQ3">
-        <v>0.9169152816295875</v>
+        <v>0.9170696131569904</v>
       </c>
       <c r="FR3">
-        <v>0.9240129182215403</v>
+        <v>0.9241713779671401</v>
       </c>
       <c r="FS3">
-        <v>0.9244356279372384</v>
+        <v>0.9245826368166146</v>
       </c>
       <c r="FT3">
-        <v>0.9302964811002946</v>
+        <v>0.9304447315814588</v>
       </c>
       <c r="FU3">
-        <v>0.9394724675727619</v>
+        <v>0.9396296970800559</v>
       </c>
       <c r="FV3">
-        <v>0.9427790832826627</v>
+        <v>0.9429315928761131</v>
       </c>
       <c r="FW3">
-        <v>0.9441003118067045</v>
+        <v>0.944243467650593</v>
       </c>
       <c r="FX3">
-        <v>0.9444221594882013</v>
+        <v>0.9445536290568234</v>
       </c>
       <c r="FY3">
-        <v>0.9474264769154813</v>
+        <v>0.9475525210148954</v>
       </c>
       <c r="FZ3">
-        <v>0.961402218112008</v>
+        <v>0.9615484437249245</v>
       </c>
       <c r="GA3">
-        <v>0.9672007741786457</v>
+        <v>0.9673480959937463</v>
       </c>
       <c r="GB3">
-        <v>0.9709805913613418</v>
+        <v>0.9711242977010188</v>
       </c>
       <c r="GC3">
-        <v>0.9832496826559848</v>
+        <v>0.9834095872381277</v>
       </c>
       <c r="GD3">
-        <v>0.9858693998053758</v>
+        <v>0.9860229812724923</v>
       </c>
       <c r="GE3">
-        <v>0.986919829444986</v>
+        <v>0.9870634251258518</v>
       </c>
       <c r="GF3">
-        <v>0.986947659806386</v>
+        <v>0.9870788829841457</v>
       </c>
       <c r="GG3">
-        <v>0.9908282588832882</v>
+        <v>0.9909561018076224</v>
       </c>
       <c r="GH3">
-        <v>0.9918499375245513</v>
+        <v>0.9919677275586442</v>
       </c>
       <c r="GI3">
-        <v>0.9926824665166888</v>
+        <v>0.9927897621907823</v>
       </c>
       <c r="GJ3">
-        <v>0.9938342120504743</v>
+        <v>0.9939317584066556</v>
       </c>
       <c r="GK3">
-        <v>0.9946040047662185</v>
+        <v>0.9946909103377634</v>
       </c>
       <c r="GL3">
-        <v>0.9947904140955017</v>
+        <v>0.994865317282621</v>
       </c>
       <c r="GM3">
-        <v>0.9956713250048577</v>
+        <v>0.9957358467539597</v>
       </c>
       <c r="GN3">
-        <v>0.9991575462044329</v>
+        <v>0.9992177672336596</v>
       </c>
       <c r="GO3">
-        <v>0.9993206338150569</v>
+        <v>0.9993687980276477</v>
       </c>
       <c r="GP3">
-        <v>0.9993580395629064</v>
+        <v>0.9993938536210635</v>
       </c>
       <c r="GQ3">
-        <v>0.9994576932411772</v>
+        <v>0.9994813024297525</v>
       </c>
       <c r="GR3">
-        <v>0.999606782042606</v>
+        <v>0.9996183017417335</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.263124138077113E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.297551506803456E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.626534147458782E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001930528065527324</v>
+        <v>0.0001274588820062105</v>
       </c>
       <c r="F4">
-        <v>0.0004496622448639824</v>
+        <v>0.0003552865138388806</v>
       </c>
       <c r="G4">
-        <v>0.0005948877995676515</v>
+        <v>0.000471120154905586</v>
       </c>
       <c r="H4">
-        <v>0.0007138290174200047</v>
+        <v>0.0005605254862090339</v>
       </c>
       <c r="I4">
-        <v>0.0009909315763950005</v>
+        <v>0.0008089584901300692</v>
       </c>
       <c r="J4">
-        <v>0.001390416209333794</v>
+        <v>0.001180443917952118</v>
       </c>
       <c r="K4">
-        <v>0.001870738504890816</v>
+        <v>0.001633209798094396</v>
       </c>
       <c r="L4">
-        <v>0.002362123320806139</v>
+        <v>0.002097098793742512</v>
       </c>
       <c r="M4">
-        <v>0.002421754852737528</v>
+        <v>0.002126869569289523</v>
       </c>
       <c r="N4">
-        <v>0.002505179581439548</v>
+        <v>0.002180563869256017</v>
       </c>
       <c r="O4">
-        <v>0.002861982372995932</v>
+        <v>0.002509133665167646</v>
       </c>
       <c r="P4">
-        <v>0.002978540932771114</v>
+        <v>0.002596143287342893</v>
       </c>
       <c r="Q4">
-        <v>0.003044891984920139</v>
+        <v>0.002632670389396323</v>
       </c>
       <c r="R4">
-        <v>0.00304559226124282</v>
+        <v>0.002632670389396323</v>
       </c>
       <c r="S4">
-        <v>0.003075615199215224</v>
+        <v>0.002632670389396323</v>
       </c>
       <c r="T4">
-        <v>0.003103943972132757</v>
+        <v>0.002632670389396323</v>
       </c>
       <c r="U4">
-        <v>0.003215574105748314</v>
+        <v>0.002714724589871995</v>
       </c>
       <c r="V4">
-        <v>0.00323736707245416</v>
+        <v>0.002714724589871995</v>
       </c>
       <c r="W4">
-        <v>0.003289564841144778</v>
+        <v>0.002737020883610881</v>
       </c>
       <c r="X4">
-        <v>0.003321737292186803</v>
+        <v>0.0027391821706757</v>
       </c>
       <c r="Y4">
-        <v>0.003441463222064572</v>
+        <v>0.002829376512278322</v>
       </c>
       <c r="Z4">
-        <v>0.00359368500699484</v>
+        <v>0.002952244705544291</v>
       </c>
       <c r="AA4">
-        <v>0.003713410936872609</v>
+        <v>0.003042439047146913</v>
       </c>
       <c r="AB4">
-        <v>0.004044213907586892</v>
+        <v>0.003344866607745885</v>
       </c>
       <c r="AC4">
-        <v>0.004299964845870336</v>
+        <v>0.003571831037101925</v>
       </c>
       <c r="AD4">
-        <v>0.004519011452964974</v>
+        <v>0.003761890086657128</v>
       </c>
       <c r="AE4">
-        <v>0.004880743204681001</v>
+        <v>0.004095415841193343</v>
       </c>
       <c r="AF4">
-        <v>0.00496860616752677</v>
+        <v>0.004153572685808247</v>
       </c>
       <c r="AG4">
-        <v>0.004968656857913411</v>
+        <v>0.004153572685808247</v>
       </c>
       <c r="AH4">
-        <v>0.004970245203464856</v>
+        <v>0.004153572685808247</v>
       </c>
       <c r="AI4">
-        <v>0.005065000996533875</v>
+        <v>0.004218660116243752</v>
       </c>
       <c r="AJ4">
-        <v>0.005231879101938842</v>
+        <v>0.004356264910234556</v>
       </c>
       <c r="AK4">
-        <v>0.005233713502498256</v>
+        <v>0.004356264910234556</v>
       </c>
       <c r="AL4">
-        <v>0.005410754758232395</v>
+        <v>0.004504088523387103</v>
       </c>
       <c r="AM4">
-        <v>0.00547457529029946</v>
+        <v>0.004538071244390841</v>
       </c>
       <c r="AN4">
-        <v>0.005478949884941147</v>
+        <v>0.004538071244390841</v>
       </c>
       <c r="AO4">
-        <v>0.005588833668500141</v>
+        <v>0.004618369529147164</v>
       </c>
       <c r="AP4">
-        <v>0.005816179375863577</v>
+        <v>0.004816773137437131</v>
       </c>
       <c r="AQ4">
-        <v>0.006030934262819212</v>
+        <v>0.005002516958881677</v>
       </c>
       <c r="AR4">
-        <v>0.006399685884762603</v>
+        <v>0.005343101035106436</v>
       </c>
       <c r="AS4">
-        <v>0.007055952606018239</v>
+        <v>0.005972775079597119</v>
       </c>
       <c r="AT4">
-        <v>0.007554315522159573</v>
+        <v>0.006443680398136519</v>
       </c>
       <c r="AU4">
-        <v>0.007923067144102965</v>
+        <v>0.006784264474361278</v>
       </c>
       <c r="AV4">
-        <v>0.008168249492044106</v>
+        <v>0.007000602423737727</v>
       </c>
       <c r="AW4">
-        <v>0.008381627538955147</v>
+        <v>0.007184961863472404</v>
       </c>
       <c r="AX4">
-        <v>0.00850505766295289</v>
+        <v>0.007278880688982674</v>
       </c>
       <c r="AY4">
-        <v>0.008515839330302095</v>
+        <v>0.007278880688982674</v>
       </c>
       <c r="AZ4">
-        <v>0.00853104756179467</v>
+        <v>0.007278880688982674</v>
       </c>
       <c r="BA4">
-        <v>0.008596200613904894</v>
+        <v>0.007314203228931266</v>
       </c>
       <c r="BB4">
-        <v>0.008674350906436082</v>
+        <v>0.007362594201911129</v>
       </c>
       <c r="BC4">
-        <v>0.008869044972741972</v>
+        <v>0.007528167319212152</v>
       </c>
       <c r="BD4">
-        <v>0.009161116562201796</v>
+        <v>0.007791651346742667</v>
       </c>
       <c r="BE4">
-        <v>0.009569610695432397</v>
+        <v>0.008172195624550961</v>
       </c>
       <c r="BF4">
-        <v>0.0104157480228377</v>
+        <v>0.008992780294736567</v>
       </c>
       <c r="BG4">
-        <v>0.01082044707594538</v>
+        <v>0.009369508704804609</v>
       </c>
       <c r="BH4">
-        <v>0.01108992180467332</v>
+        <v>0.009610272096905834</v>
       </c>
       <c r="BI4">
-        <v>0.01153999887925074</v>
+        <v>0.01003262708734491</v>
       </c>
       <c r="BJ4">
-        <v>0.01200348391426242</v>
+        <v>0.01046846348055457</v>
       </c>
       <c r="BK4">
-        <v>0.01242733552799043</v>
+        <v>0.01086444935972662</v>
       </c>
       <c r="BL4">
-        <v>0.01248899204598741</v>
+        <v>0.01089625621323559</v>
       </c>
       <c r="BM4">
-        <v>0.01249205822738672</v>
+        <v>0.01089625621323559</v>
       </c>
       <c r="BN4">
-        <v>0.01257874900019452</v>
+        <v>0.01095323444712122</v>
       </c>
       <c r="BO4">
-        <v>0.01259991828888016</v>
+        <v>0.01095323444712122</v>
       </c>
       <c r="BP4">
-        <v>0.01270556900230206</v>
+        <v>0.01102927647502519</v>
       </c>
       <c r="BQ4">
-        <v>0.01282795583626601</v>
+        <v>0.01112214629586238</v>
       </c>
       <c r="BR4">
-        <v>0.01299269721160177</v>
+        <v>0.01125760265580789</v>
       </c>
       <c r="BS4">
-        <v>0.01299532495018688</v>
+        <v>0.01125760265580789</v>
       </c>
       <c r="BT4">
-        <v>0.01364838134133854</v>
+        <v>0.01188404878555565</v>
       </c>
       <c r="BU4">
-        <v>0.01479858097859203</v>
+        <v>0.01301036127217643</v>
       </c>
       <c r="BV4">
-        <v>0.01539443039789082</v>
+        <v>0.01357928707788872</v>
       </c>
       <c r="BW4">
-        <v>0.01560189327461028</v>
+        <v>0.01375769894698428</v>
       </c>
       <c r="BX4">
-        <v>0.01593367248535618</v>
+        <v>0.01406110809498661</v>
       </c>
       <c r="BY4">
-        <v>0.0162463096554821</v>
+        <v>0.01434527035150876</v>
       </c>
       <c r="BZ4">
-        <v>0.01643308067153137</v>
+        <v>0.01450287701990767</v>
       </c>
       <c r="CA4">
-        <v>0.01667630225940901</v>
+        <v>0.01471724346912329</v>
       </c>
       <c r="CB4">
-        <v>0.01679973238340675</v>
+        <v>0.01481116229463356</v>
       </c>
       <c r="CC4">
-        <v>0.01682236952513994</v>
+        <v>0.01481116229463356</v>
       </c>
       <c r="CD4">
-        <v>0.01684353881382558</v>
+        <v>0.01481116229463356</v>
       </c>
       <c r="CE4">
-        <v>0.01694918952724747</v>
+        <v>0.01488720432253753</v>
       </c>
       <c r="CF4">
-        <v>0.0169492212443485</v>
+        <v>0.01488720432253753</v>
       </c>
       <c r="CG4">
-        <v>0.01701437429645872</v>
+        <v>0.01492252686248612</v>
       </c>
       <c r="CH4">
-        <v>0.01701569796320159</v>
+        <v>0.01492252686248612</v>
       </c>
       <c r="CI4">
-        <v>0.01701844343609052</v>
+        <v>0.01492252686248612</v>
       </c>
       <c r="CJ4">
-        <v>0.01732516864602495</v>
+        <v>0.01520074477595209</v>
       </c>
       <c r="CK4">
-        <v>0.01767330870730076</v>
+        <v>0.01552060439132747</v>
       </c>
       <c r="CL4">
-        <v>0.01795475698641651</v>
+        <v>0.01577340691914686</v>
       </c>
       <c r="CM4">
-        <v>0.01802853339480603</v>
+        <v>0.01581740004995865</v>
       </c>
       <c r="CN4">
-        <v>0.09045297574054068</v>
+        <v>0.08860836114828825</v>
       </c>
       <c r="CO4">
-        <v>0.1036649156684584</v>
+        <v>0.1018624823176562</v>
       </c>
       <c r="CP4">
-        <v>0.1442858139841172</v>
+        <v>0.1426756949207192</v>
       </c>
       <c r="CQ4">
-        <v>0.1753104159889642</v>
+        <v>0.1738400473331382</v>
       </c>
       <c r="CR4">
-        <v>0.1826205976257315</v>
+        <v>0.1811600832277396</v>
       </c>
       <c r="CS4">
-        <v>0.1912464889051131</v>
+        <v>0.1898030355873905</v>
       </c>
       <c r="CT4">
-        <v>0.20185934924885</v>
+        <v>0.2004438406689816</v>
       </c>
       <c r="CU4">
-        <v>0.2080748434501619</v>
+        <v>0.2066631929586735</v>
       </c>
       <c r="CV4">
-        <v>0.2214422778831159</v>
+        <v>0.2200736603569316</v>
       </c>
       <c r="CW4">
-        <v>0.2703779694680801</v>
+        <v>0.2692472106539491</v>
       </c>
       <c r="CX4">
-        <v>0.3358207115876864</v>
+        <v>0.3350182291418153</v>
       </c>
       <c r="CY4">
-        <v>0.3917876834003847</v>
+        <v>0.3912615736262225</v>
       </c>
       <c r="CZ4">
-        <v>0.4262858025177345</v>
+        <v>0.4259184694015</v>
       </c>
       <c r="DA4">
-        <v>0.4266761178303763</v>
+        <v>0.4262807352839138</v>
       </c>
       <c r="DB4">
-        <v>0.4658701490998206</v>
+        <v>0.4656592651517169</v>
       </c>
       <c r="DC4">
-        <v>0.4752419069033598</v>
+        <v>0.4750521695323752</v>
       </c>
       <c r="DD4">
-        <v>0.5714889600206782</v>
+        <v>0.5717962301668421</v>
       </c>
       <c r="DE4">
-        <v>0.5714999788460351</v>
+        <v>0.5717962301668421</v>
       </c>
       <c r="DF4">
-        <v>0.5814835521693902</v>
+        <v>0.5818043012974599</v>
       </c>
       <c r="DG4">
-        <v>0.5896544534340352</v>
+        <v>0.5899897714266604</v>
       </c>
       <c r="DH4">
-        <v>0.5904535511599169</v>
+        <v>0.5907630588350875</v>
       </c>
       <c r="DI4">
-        <v>0.5922833466191817</v>
+        <v>0.5925726896416464</v>
       </c>
       <c r="DJ4">
-        <v>0.5978156673983664</v>
+        <v>0.5981051264149175</v>
       </c>
       <c r="DK4">
-        <v>0.5992368828443978</v>
+        <v>0.5995039392041192</v>
       </c>
       <c r="DL4">
-        <v>0.6024397413481343</v>
+        <v>0.6026941540318406</v>
       </c>
       <c r="DM4">
-        <v>0.6182949648616646</v>
+        <v>0.6186060374186032</v>
       </c>
       <c r="DN4">
-        <v>0.6190280922354097</v>
+        <v>0.6193129931211432</v>
       </c>
       <c r="DO4">
-        <v>0.6328933096844862</v>
+        <v>0.6332239701506465</v>
       </c>
       <c r="DP4">
-        <v>0.6366283983054609</v>
+        <v>0.6369493303953239</v>
       </c>
       <c r="DQ4">
-        <v>0.6388447460772456</v>
+        <v>0.639147630861413</v>
       </c>
       <c r="DR4">
-        <v>0.6516985894935651</v>
+        <v>0.6520416940393164</v>
       </c>
       <c r="DS4">
-        <v>0.6517015852273621</v>
+        <v>0.6520416940393164</v>
       </c>
       <c r="DT4">
-        <v>0.6518815601531912</v>
+        <v>0.6521924673917929</v>
       </c>
       <c r="DU4">
-        <v>0.6518899469164628</v>
+        <v>0.6521924673917929</v>
       </c>
       <c r="DV4">
-        <v>0.65286766774813</v>
+        <v>0.653145356317172</v>
       </c>
       <c r="DW4">
-        <v>0.6732142134071285</v>
+        <v>0.6735731631445167</v>
       </c>
       <c r="DX4">
-        <v>0.6819189436890636</v>
+        <v>0.6822953863487278</v>
       </c>
       <c r="DY4">
-        <v>0.6844184782700203</v>
+        <v>0.6847784247846582</v>
       </c>
       <c r="DZ4">
-        <v>0.686549581839044</v>
+        <v>0.6868910141213842</v>
       </c>
       <c r="EA4">
-        <v>0.6966327901656262</v>
+        <v>0.6969992660076909</v>
       </c>
       <c r="EB4">
-        <v>0.6974204019911359</v>
+        <v>0.6977610046015271</v>
       </c>
       <c r="EC4">
-        <v>0.6975932940867356</v>
+        <v>0.6979046563274486</v>
       </c>
       <c r="ED4">
-        <v>0.7002569696730087</v>
+        <v>0.7005527348539048</v>
       </c>
       <c r="EE4">
-        <v>0.7023020740392469</v>
+        <v>0.7025788539257174</v>
       </c>
       <c r="EF4">
-        <v>0.7050501225282527</v>
+        <v>0.7053117675089475</v>
       </c>
       <c r="EG4">
-        <v>0.7057962937524203</v>
+        <v>0.7060318385098274</v>
       </c>
       <c r="EH4">
-        <v>0.7062629649675352</v>
+        <v>0.7064708785354972</v>
       </c>
       <c r="EI4">
-        <v>0.7118890056497554</v>
+        <v>0.7120975485642015</v>
       </c>
       <c r="EJ4">
-        <v>0.7171836212212412</v>
+        <v>0.7173909780953669</v>
       </c>
       <c r="EK4">
-        <v>0.721368002956768</v>
+        <v>0.7215680924654403</v>
       </c>
       <c r="EL4">
-        <v>0.7229392762076595</v>
+        <v>0.7231177850037364</v>
       </c>
       <c r="EM4">
-        <v>0.7240296361429749</v>
+        <v>0.7241839300154116</v>
       </c>
       <c r="EN4">
-        <v>0.7247723839070316</v>
+        <v>0.7249005588041183</v>
       </c>
       <c r="EO4">
-        <v>0.7279793090108998</v>
+        <v>0.7280948625068444</v>
       </c>
       <c r="EP4">
-        <v>0.7281381811560454</v>
+        <v>0.7282244174877894</v>
       </c>
       <c r="EQ4">
-        <v>0.7291875027900316</v>
+        <v>0.7292492994101267</v>
       </c>
       <c r="ER4">
-        <v>0.7295807424027682</v>
+        <v>0.7296145056105398</v>
       </c>
       <c r="ES4">
-        <v>0.7297396145479138</v>
+        <v>0.7297440605914848</v>
       </c>
       <c r="ET4">
-        <v>0.7297405493398441</v>
+        <v>0.7297440605914848</v>
       </c>
       <c r="EU4">
-        <v>0.7308801350767539</v>
+        <v>0.7308597010399381</v>
       </c>
       <c r="EV4">
-        <v>0.7311966667870059</v>
+        <v>0.7311477791689976</v>
       </c>
       <c r="EW4">
-        <v>0.7324206632266496</v>
+        <v>0.7323482926812763</v>
       </c>
       <c r="EX4">
-        <v>0.7385229189242938</v>
+        <v>0.7384537862014285</v>
       </c>
       <c r="EY4">
-        <v>0.7524250973745675</v>
+        <v>0.7524019266866554</v>
       </c>
       <c r="EZ4">
-        <v>0.7614815796678953</v>
+        <v>0.7614778286300155</v>
       </c>
       <c r="FA4">
-        <v>0.761606860241953</v>
+        <v>0.761573608041458</v>
       </c>
       <c r="FB4">
-        <v>0.7634383872012738</v>
+        <v>0.7633849798323946</v>
       </c>
       <c r="FC4">
-        <v>0.7815121067866583</v>
+        <v>0.781527511141804</v>
       </c>
       <c r="FD4">
-        <v>0.7885073780132261</v>
+        <v>0.7885309116989606</v>
       </c>
       <c r="FE4">
-        <v>0.7885104441946255</v>
+        <v>0.7885309116989606</v>
       </c>
       <c r="FF4">
-        <v>0.7949045434017221</v>
+        <v>0.7949298473064608</v>
       </c>
       <c r="FG4">
-        <v>0.8038470846913596</v>
+        <v>0.8038911841323023</v>
       </c>
       <c r="FH4">
-        <v>0.8258675224045733</v>
+        <v>0.8260020517866825</v>
       </c>
       <c r="FI4">
-        <v>0.8487148291445682</v>
+        <v>0.8489443176573096</v>
       </c>
       <c r="FJ4">
-        <v>0.8580380624465358</v>
+        <v>0.8582884317425955</v>
       </c>
       <c r="FK4">
-        <v>0.8674706517520453</v>
+        <v>0.8677425008308334</v>
       </c>
       <c r="FL4">
-        <v>0.8702137693408913</v>
+        <v>0.8704704565048125</v>
       </c>
       <c r="FM4">
-        <v>0.8702153576864428</v>
+        <v>0.8704704565048125</v>
       </c>
       <c r="FN4">
-        <v>0.8716013178313322</v>
+        <v>0.8718338208813475</v>
       </c>
       <c r="FO4">
-        <v>0.8768692394019534</v>
+        <v>0.8771004101947947</v>
       </c>
       <c r="FP4">
-        <v>0.8812264025430763</v>
+        <v>0.8814512523836164</v>
       </c>
       <c r="FQ4">
-        <v>0.8900279798281481</v>
+        <v>0.8902708530721073</v>
       </c>
       <c r="FR4">
-        <v>0.8943789336690698</v>
+        <v>0.8946154519491781</v>
       </c>
       <c r="FS4">
-        <v>0.8949635729480055</v>
+        <v>0.8951731062107886</v>
       </c>
       <c r="FT4">
-        <v>0.9013784831557763</v>
+        <v>0.9015929668115806</v>
       </c>
       <c r="FU4">
-        <v>0.9093389204136046</v>
+        <v>0.9095668201137093</v>
       </c>
       <c r="FV4">
-        <v>0.9120907356027323</v>
+        <v>0.9123035210292268</v>
       </c>
       <c r="FW4">
-        <v>0.9131938626384613</v>
+        <v>0.91338250307333</v>
       </c>
       <c r="FX4">
-        <v>0.913338442513144</v>
+        <v>0.9134976874976523</v>
       </c>
       <c r="FY4">
-        <v>0.9170691423339766</v>
+        <v>0.9172186349024585</v>
       </c>
       <c r="FZ4">
-        <v>0.9391035460476427</v>
+        <v>0.9393435450563011</v>
       </c>
       <c r="GA4">
-        <v>0.9519492484636984</v>
+        <v>0.9522294226414705</v>
       </c>
       <c r="GB4">
-        <v>0.9568937840238456</v>
+        <v>0.9571708545919506</v>
       </c>
       <c r="GC4">
-        <v>0.9694004504289204</v>
+        <v>0.9697158390904962</v>
       </c>
       <c r="GD4">
-        <v>0.971997699113042</v>
+        <v>0.9722971268602899</v>
       </c>
       <c r="GE4">
-        <v>0.9724462535275701</v>
+        <v>0.9727179508502828</v>
       </c>
       <c r="GF4">
-        <v>0.9725263569901645</v>
+        <v>0.9727683056918489</v>
       </c>
       <c r="GG4">
-        <v>0.9776743036568999</v>
+        <v>0.977914262936789</v>
       </c>
       <c r="GH4">
-        <v>0.9799351754301266</v>
+        <v>0.980157331285312</v>
       </c>
       <c r="GI4">
-        <v>0.9814931599805877</v>
+        <v>0.9816936623340901</v>
       </c>
       <c r="GJ4">
-        <v>0.9824116893603377</v>
+        <v>0.9825870355853453</v>
       </c>
       <c r="GK4">
-        <v>0.9829953506292418</v>
+        <v>0.9831437064798573</v>
       </c>
       <c r="GL4">
-        <v>0.9839574411104027</v>
+        <v>0.9840808794392135</v>
       </c>
       <c r="GM4">
-        <v>0.9870238308097191</v>
+        <v>0.9871338779522668</v>
       </c>
       <c r="GN4">
-        <v>0.9956002660874989</v>
+        <v>0.9957271034142076</v>
       </c>
       <c r="GO4">
-        <v>0.9976386944535209</v>
+        <v>0.9977465099178967</v>
       </c>
       <c r="GP4">
-        <v>0.9981157841889733</v>
+        <v>0.9981960255315301</v>
       </c>
       <c r="GQ4">
-        <v>0.9994784870331095</v>
+        <v>0.9995360052150427</v>
       </c>
       <c r="GR4">
-        <v>0.9998997593767539</v>
+        <v>0.9999293976961345</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001402783439089867</v>
+        <v>0.0001222195750693221</v>
       </c>
       <c r="C5">
-        <v>0.0003151111763175859</v>
+        <v>0.0002791142601409054</v>
       </c>
       <c r="D5">
-        <v>0.0003418294371574547</v>
+        <v>0.0002873773408945408</v>
       </c>
       <c r="E5">
-        <v>0.0003872701051843796</v>
+        <v>0.0003144281843067255</v>
       </c>
       <c r="F5">
-        <v>0.0006082974455871714</v>
+        <v>0.0005176786314153277</v>
       </c>
       <c r="G5">
-        <v>0.0007863426978562845</v>
+        <v>0.0006777969501412773</v>
       </c>
       <c r="H5">
-        <v>0.0009991776886147956</v>
+        <v>0.0008728264500610475</v>
       </c>
       <c r="I5">
-        <v>0.001117739849466719</v>
+        <v>0.00097325403604214</v>
       </c>
       <c r="J5">
-        <v>0.001189483576351541</v>
+        <v>0.001026699756036097</v>
       </c>
       <c r="K5">
-        <v>0.001231722181517502</v>
+        <v>0.001050537358947288</v>
       </c>
       <c r="L5">
-        <v>0.001330153217243537</v>
+        <v>0.001130763546831653</v>
       </c>
       <c r="M5">
-        <v>0.001371454015450219</v>
+        <v>0.001153660069122471</v>
       </c>
       <c r="N5">
-        <v>0.001375955682954752</v>
+        <v>0.001153660069122471</v>
       </c>
       <c r="O5">
-        <v>0.001422723150924066</v>
+        <v>0.001182042344020144</v>
       </c>
       <c r="P5">
-        <v>0.001442691406057026</v>
+        <v>0.001183531856402031</v>
       </c>
       <c r="Q5">
-        <v>0.001461175330254438</v>
+        <v>0.001183531856402031</v>
       </c>
       <c r="R5">
-        <v>0.001472036528282834</v>
+        <v>0.001183531856402031</v>
       </c>
       <c r="S5">
-        <v>0.001536805281470516</v>
+        <v>0.001229978254724248</v>
       </c>
       <c r="T5">
-        <v>0.001751082272166414</v>
+        <v>0.001426454788260294</v>
       </c>
       <c r="U5">
-        <v>0.001999547711377819</v>
+        <v>0.00165723911405595</v>
       </c>
       <c r="V5">
-        <v>0.00248898954012581</v>
+        <v>0.002129841020662346</v>
       </c>
       <c r="W5">
-        <v>0.002926389221133517</v>
+        <v>0.002550219112765788</v>
       </c>
       <c r="X5">
-        <v>0.003199451649276899</v>
+        <v>0.002805686289732871</v>
       </c>
       <c r="Y5">
-        <v>0.003257771836744583</v>
+        <v>0.002845661611925565</v>
       </c>
       <c r="Z5">
-        <v>0.00327089162717491</v>
+        <v>0.002845661611925565</v>
       </c>
       <c r="AA5">
-        <v>0.003370304052858332</v>
+        <v>0.002926872615566294</v>
       </c>
       <c r="AB5">
-        <v>0.003396410807724753</v>
+        <v>0.002934522055724538</v>
       </c>
       <c r="AC5">
-        <v>0.003423631444542808</v>
+        <v>0.00294328926613144</v>
       </c>
       <c r="AD5">
-        <v>0.003434169885585219</v>
+        <v>0.00294328926613144</v>
       </c>
       <c r="AE5">
-        <v>0.003440407601314372</v>
+        <v>0.00294328926613144</v>
       </c>
       <c r="AF5">
-        <v>0.003446827839635599</v>
+        <v>0.00294328926613144</v>
       </c>
       <c r="AG5">
-        <v>0.003457366280678011</v>
+        <v>0.00294328926613144</v>
       </c>
       <c r="AH5">
-        <v>0.003492111512169341</v>
+        <v>0.00295960733778235</v>
       </c>
       <c r="AI5">
-        <v>0.003543091321955752</v>
+        <v>0.002992216658780752</v>
       </c>
       <c r="AJ5">
-        <v>0.003651353967254889</v>
+        <v>0.003082308776049383</v>
       </c>
       <c r="AK5">
-        <v>0.003717083874400837</v>
+        <v>0.003129719683489782</v>
       </c>
       <c r="AL5">
-        <v>0.003763672898377899</v>
+        <v>0.003157922891489658</v>
       </c>
       <c r="AM5">
-        <v>0.004131232482418127</v>
+        <v>0.003508217091454368</v>
       </c>
       <c r="AN5">
-        <v>0.004393579841026766</v>
+        <v>0.003752931795126896</v>
       </c>
       <c r="AO5">
-        <v>0.004482647197159381</v>
+        <v>0.003823761617038967</v>
       </c>
       <c r="AP5">
-        <v>0.004542065894579367</v>
+        <v>0.003864839283820992</v>
       </c>
       <c r="AQ5">
-        <v>0.004575961051107609</v>
+        <v>0.003880304313099256</v>
       </c>
       <c r="AR5">
-        <v>0.004641690958253556</v>
+        <v>0.003927715220539654</v>
       </c>
       <c r="AS5">
-        <v>0.004642523585917402</v>
+        <v>0.003927715220539654</v>
       </c>
       <c r="AT5">
-        <v>0.004648171904272147</v>
+        <v>0.003927715220539654</v>
       </c>
       <c r="AU5">
-        <v>0.004675392541090203</v>
+        <v>0.003936482430946556</v>
       </c>
       <c r="AV5">
-        <v>0.004684718159185276</v>
+        <v>0.003936482430946556</v>
       </c>
       <c r="AW5">
-        <v>0.004785097464826716</v>
+        <v>0.004018663689693322</v>
       </c>
       <c r="AX5">
-        <v>0.004878339250778073</v>
+        <v>0.004093682513365996</v>
       </c>
       <c r="AY5">
-        <v>0.004927281504652955</v>
+        <v>0.004124247165829692</v>
       </c>
       <c r="AZ5">
-        <v>0.00503835024383025</v>
+        <v>0.004217155172382948</v>
       </c>
       <c r="BA5">
-        <v>0.005347288180415883</v>
+        <v>0.004508623090661427</v>
       </c>
       <c r="BB5">
-        <v>0.005536501022200089</v>
+        <v>0.004679947982301928</v>
       </c>
       <c r="BC5">
-        <v>0.005680260885957905</v>
+        <v>0.004805661230378002</v>
       </c>
       <c r="BD5">
-        <v>0.005833749109293306</v>
+        <v>0.004941136797421643</v>
       </c>
       <c r="BE5">
-        <v>0.005966144013544599</v>
+        <v>0.005055445413620028</v>
       </c>
       <c r="BF5">
-        <v>0.006050945339862448</v>
+        <v>0.005121994314021668</v>
       </c>
       <c r="BG5">
-        <v>0.00628698986961318</v>
+        <v>0.005340314371915291</v>
       </c>
       <c r="BH5">
-        <v>0.006435426743167915</v>
+        <v>0.005470720956117341</v>
       </c>
       <c r="BI5">
-        <v>0.006476108181401491</v>
+        <v>0.005492995956396663</v>
       </c>
       <c r="BJ5">
-        <v>0.006542624718513282</v>
+        <v>0.005541196239741064</v>
       </c>
       <c r="BK5">
-        <v>0.006544284468241214</v>
+        <v>0.005541196239741064</v>
       </c>
       <c r="BL5">
-        <v>0.006544513075791287</v>
+        <v>0.005541196239741064</v>
       </c>
       <c r="BM5">
-        <v>0.006674669080139795</v>
+        <v>0.00565325814056949</v>
       </c>
       <c r="BN5">
-        <v>0.006931561008985314</v>
+        <v>0.005892498370870841</v>
       </c>
       <c r="BO5">
-        <v>0.007090770452072294</v>
+        <v>0.006033715129083767</v>
       </c>
       <c r="BP5">
-        <v>0.007392070638989566</v>
+        <v>0.006317518636125969</v>
       </c>
       <c r="BQ5">
-        <v>0.007717774264847218</v>
+        <v>0.006625810768711006</v>
       </c>
       <c r="BR5">
-        <v>0.007892607097255817</v>
+        <v>0.006782705453782589</v>
       </c>
       <c r="BS5">
-        <v>0.00805673647012917</v>
+        <v>0.006928859316086861</v>
       </c>
       <c r="BT5">
-        <v>0.008211702353400411</v>
+        <v>0.007065817701225804</v>
       </c>
       <c r="BU5">
-        <v>0.008279407620460586</v>
+        <v>0.007115210864092171</v>
       </c>
       <c r="BV5">
-        <v>0.008365532526720964</v>
+        <v>0.007183087964739187</v>
       </c>
       <c r="BW5">
-        <v>0.008411463589726595</v>
+        <v>0.007210630914982338</v>
       </c>
       <c r="BX5">
-        <v>0.008412090159199389</v>
+        <v>0.007210630914982338</v>
       </c>
       <c r="BY5">
-        <v>0.008454498680357973</v>
+        <v>0.007234639027022477</v>
       </c>
       <c r="BZ5">
-        <v>0.008484444152057713</v>
+        <v>0.007246140584061698</v>
       </c>
       <c r="CA5">
-        <v>0.008497302459499393</v>
+        <v>0.007246140584061698</v>
       </c>
       <c r="CB5">
-        <v>0.00866176664235821</v>
+        <v>0.007392630425093479</v>
       </c>
       <c r="CC5">
-        <v>0.009019233056836693</v>
+        <v>0.007732796222641555</v>
       </c>
       <c r="CD5">
-        <v>0.009243175167112924</v>
+        <v>0.00793897161439212</v>
       </c>
       <c r="CE5">
-        <v>0.009426774879140856</v>
+        <v>0.008104663782175114</v>
       </c>
       <c r="CF5">
-        <v>0.009513817925361368</v>
+        <v>0.008173462227790539</v>
       </c>
       <c r="CG5">
-        <v>0.009857698350429767</v>
+        <v>0.008499994610470111</v>
       </c>
       <c r="CH5">
-        <v>0.01017519643664371</v>
+        <v>0.008800052559823735</v>
       </c>
       <c r="CI5">
-        <v>0.01041012757644279</v>
+        <v>0.009017255341186133</v>
       </c>
       <c r="CJ5">
-        <v>0.01056753563960799</v>
+        <v>0.009156664431288319</v>
       </c>
       <c r="CK5">
-        <v>0.01062960815691274</v>
+        <v>0.009200405181809279</v>
       </c>
       <c r="CL5">
-        <v>0.01078399658020905</v>
+        <v>0.009336784091197838</v>
       </c>
       <c r="CM5">
-        <v>0.01230909751398778</v>
+        <v>0.0108486603425015</v>
       </c>
       <c r="CN5">
-        <v>0.1285627024661505</v>
+        <v>0.1274895305384533</v>
       </c>
       <c r="CO5">
-        <v>0.1451214017471567</v>
+        <v>0.1440874838539788</v>
       </c>
       <c r="CP5">
-        <v>0.18864989285711</v>
+        <v>0.1877493741285858</v>
       </c>
       <c r="CQ5">
-        <v>0.2085282309939744</v>
+        <v>0.2076785543698392</v>
       </c>
       <c r="CR5">
-        <v>0.2087017870564384</v>
+        <v>0.2078341678280659</v>
       </c>
       <c r="CS5">
-        <v>0.2088631643494313</v>
+        <v>0.2079775600036333</v>
       </c>
       <c r="CT5">
-        <v>0.2093785811770514</v>
+        <v>0.2084762275816563</v>
       </c>
       <c r="CU5">
-        <v>0.2569840591099782</v>
+        <v>0.2562293364707701</v>
       </c>
       <c r="CV5">
-        <v>0.2964493323963602</v>
+        <v>0.2958138251945752</v>
       </c>
       <c r="CW5">
-        <v>0.2965190422633333</v>
+        <v>0.2958652299549361</v>
       </c>
       <c r="CX5">
-        <v>0.4532232654590933</v>
+        <v>0.4530979218840306</v>
       </c>
       <c r="CY5">
-        <v>0.4533407766079909</v>
+        <v>0.4531972947892245</v>
       </c>
       <c r="CZ5">
-        <v>0.4668575890210786</v>
+        <v>0.4667427427331052</v>
       </c>
       <c r="DA5">
-        <v>0.5441322356657431</v>
+        <v>0.5442685883469046</v>
       </c>
       <c r="DB5">
-        <v>0.5702099705334241</v>
+        <v>0.5704188059388088</v>
       </c>
       <c r="DC5">
-        <v>0.6849437155515805</v>
+        <v>0.6855345107311318</v>
       </c>
       <c r="DD5">
-        <v>0.7055098616585798</v>
+        <v>0.7061538999165901</v>
       </c>
       <c r="DE5">
-        <v>0.7339916824218732</v>
+        <v>0.7347165954963012</v>
       </c>
       <c r="DF5">
-        <v>0.7370851530875518</v>
+        <v>0.7378023162852966</v>
       </c>
       <c r="DG5">
-        <v>0.7439754841883675</v>
+        <v>0.7446981514463533</v>
       </c>
       <c r="DH5">
-        <v>0.7462149220911291</v>
+        <v>0.7469268582471366</v>
       </c>
       <c r="DI5">
-        <v>0.7490323657687931</v>
+        <v>0.7497355885035385</v>
       </c>
       <c r="DJ5">
-        <v>0.7621224032004117</v>
+        <v>0.7628527716959725</v>
       </c>
       <c r="DK5">
-        <v>0.7621231709399283</v>
+        <v>0.7628527716959725</v>
       </c>
       <c r="DL5">
-        <v>0.7629153284555321</v>
+        <v>0.7636291459979149</v>
       </c>
       <c r="DM5">
-        <v>0.7781479377941184</v>
+        <v>0.778896380306362</v>
       </c>
       <c r="DN5">
-        <v>0.7799448509160948</v>
+        <v>0.7806810175775781</v>
       </c>
       <c r="DO5">
-        <v>0.7822604614155488</v>
+        <v>0.7829861628754758</v>
       </c>
       <c r="DP5">
-        <v>0.7824109680290137</v>
+        <v>0.7831186464245579</v>
       </c>
       <c r="DQ5">
-        <v>0.7843202220461121</v>
+        <v>0.7850160167462474</v>
       </c>
       <c r="DR5">
-        <v>0.789627275515675</v>
+        <v>0.7903230474303281</v>
       </c>
       <c r="DS5">
-        <v>0.7900656468166405</v>
+        <v>0.7907444005340836</v>
       </c>
       <c r="DT5">
-        <v>0.7903918220024777</v>
+        <v>0.7910531658727519</v>
       </c>
       <c r="DU5">
-        <v>0.7904116737116157</v>
+        <v>0.7910545384323044</v>
       </c>
       <c r="DV5">
-        <v>0.7967435107366816</v>
+        <v>0.7973899299475973</v>
       </c>
       <c r="DW5">
-        <v>0.8042093324125088</v>
+        <v>0.8048632645844174</v>
       </c>
       <c r="DX5">
-        <v>0.8074414169721688</v>
+        <v>0.8080880831355369</v>
       </c>
       <c r="DY5">
-        <v>0.8078188156357817</v>
+        <v>0.8084482507609616</v>
       </c>
       <c r="DZ5">
-        <v>0.8141200526621762</v>
+        <v>0.8147529354602642</v>
       </c>
       <c r="EA5">
-        <v>0.8185554501695872</v>
+        <v>0.8191852674385</v>
       </c>
       <c r="EB5">
-        <v>0.8190030243101531</v>
+        <v>0.8196158555067805</v>
       </c>
       <c r="EC5">
-        <v>0.8244412540740202</v>
+        <v>0.8250545203904164</v>
       </c>
       <c r="ED5">
-        <v>0.827948441721735</v>
+        <v>0.8285554023490544</v>
       </c>
       <c r="EE5">
-        <v>0.8311682735819269</v>
+        <v>0.8317679254294458</v>
       </c>
       <c r="EF5">
-        <v>0.8311719954111653</v>
+        <v>0.8317679254294458</v>
       </c>
       <c r="EG5">
-        <v>0.8314620676985701</v>
+        <v>0.8320404618430481</v>
       </c>
       <c r="EH5">
-        <v>0.833737217399781</v>
+        <v>0.8343050051036772</v>
       </c>
       <c r="EI5">
-        <v>0.8375681932334366</v>
+        <v>0.8381308055158198</v>
       </c>
       <c r="EJ5">
-        <v>0.8377090680073197</v>
+        <v>0.8382536236028584</v>
       </c>
       <c r="EK5">
-        <v>0.8377556570312967</v>
+        <v>0.8382818268108583</v>
       </c>
       <c r="EL5">
-        <v>0.8377748759554622</v>
+        <v>0.8382825643765365</v>
       </c>
       <c r="EM5">
-        <v>0.8399158508624991</v>
+        <v>0.8404124644706904</v>
       </c>
       <c r="EN5">
-        <v>0.8417768040816949</v>
+        <v>0.8422613653878772</v>
       </c>
       <c r="EO5">
-        <v>0.8422582106407918</v>
+        <v>0.8427259039756169</v>
       </c>
       <c r="EP5">
-        <v>0.8424028417345117</v>
+        <v>0.8428524914949117</v>
       </c>
       <c r="EQ5">
-        <v>0.8443664559492499</v>
+        <v>0.8448044117727646</v>
       </c>
       <c r="ER5">
-        <v>0.8454226096033907</v>
+        <v>0.845845703760988</v>
       </c>
       <c r="ES5">
-        <v>0.8456185343448834</v>
+        <v>0.846023763981983</v>
       </c>
       <c r="ET5">
-        <v>0.8459561647302232</v>
+        <v>0.8463440245075314</v>
       </c>
       <c r="EU5">
-        <v>0.847169455977541</v>
+        <v>0.8475430026189039</v>
       </c>
       <c r="EV5">
-        <v>0.8471859188588262</v>
+        <v>0.8475430026189039</v>
       </c>
       <c r="EW5">
-        <v>0.8478433910702782</v>
+        <v>0.8481842214623244</v>
       </c>
       <c r="EX5">
-        <v>0.8486464220354099</v>
+        <v>0.8489715071704214</v>
       </c>
       <c r="EY5">
-        <v>0.8527793925559525</v>
+        <v>0.8531003564610916</v>
       </c>
       <c r="EZ5">
-        <v>0.853676160057014</v>
+        <v>0.8539817059170758</v>
       </c>
       <c r="FA5">
-        <v>0.8541444340666811</v>
+        <v>0.8544330661127784</v>
       </c>
       <c r="FB5">
-        <v>0.8585620032748662</v>
+        <v>0.858847507557435</v>
       </c>
       <c r="FC5">
-        <v>0.8671741789009177</v>
+        <v>0.8674711977935283</v>
       </c>
       <c r="FD5">
-        <v>0.8719507866935131</v>
+        <v>0.8722459311409176</v>
       </c>
       <c r="FE5">
-        <v>0.872420632073112</v>
+        <v>0.8726988681918307</v>
       </c>
       <c r="FF5">
-        <v>0.8750253053600148</v>
+        <v>0.8752940853266319</v>
       </c>
       <c r="FG5">
-        <v>0.8816630408717983</v>
+        <v>0.88193644314752</v>
       </c>
       <c r="FH5">
-        <v>0.8977919841714649</v>
+        <v>0.8981031403057665</v>
       </c>
       <c r="FI5">
-        <v>0.9075870147461558</v>
+        <v>0.9079138145558542</v>
       </c>
       <c r="FJ5">
-        <v>0.9160318628794728</v>
+        <v>0.9163695931987247</v>
       </c>
       <c r="FK5">
-        <v>0.9192654324390682</v>
+        <v>0.9195959019335614</v>
       </c>
       <c r="FL5">
-        <v>0.9199935921074509</v>
+        <v>0.920308054987016</v>
       </c>
       <c r="FM5">
-        <v>0.920170348889776</v>
+        <v>0.9204668803380557</v>
       </c>
       <c r="FN5">
-        <v>0.9232704412551672</v>
+        <v>0.9235592459415427</v>
       </c>
       <c r="FO5">
-        <v>0.930084538459293</v>
+        <v>0.930378581091504</v>
       </c>
       <c r="FP5">
-        <v>0.9371464021526604</v>
+        <v>0.9374465476246046</v>
       </c>
       <c r="FQ5">
-        <v>0.9479245546846632</v>
+        <v>0.9482437756769807</v>
       </c>
       <c r="FR5">
-        <v>0.9483316056669887</v>
+        <v>0.9486336991303114</v>
       </c>
       <c r="FS5">
-        <v>0.9497746521043303</v>
+        <v>0.9500632344524426</v>
       </c>
       <c r="FT5">
-        <v>0.9550588268748866</v>
+        <v>0.9553473065734187</v>
       </c>
       <c r="FU5">
-        <v>0.9576993178602341</v>
+        <v>0.9579784664377328</v>
       </c>
       <c r="FV5">
-        <v>0.9597451370714027</v>
+        <v>0.9600128786701113</v>
       </c>
       <c r="FW5">
-        <v>0.9602196701207981</v>
+        <v>0.9604705197543615</v>
       </c>
       <c r="FX5">
-        <v>0.9602198653542896</v>
+        <v>0.9604705197543615</v>
       </c>
       <c r="FY5">
-        <v>0.9648984981511392</v>
+        <v>0.9651469360985923</v>
       </c>
       <c r="FZ5">
-        <v>0.9729697528006779</v>
+        <v>0.9732278171316693</v>
       </c>
       <c r="GA5">
-        <v>0.9762350303588966</v>
+        <v>0.9764859445502126</v>
       </c>
       <c r="GB5">
-        <v>0.9810419061501776</v>
+        <v>0.9812910515546738</v>
       </c>
       <c r="GC5">
-        <v>0.9868501982979763</v>
+        <v>0.9871010706220265</v>
       </c>
       <c r="GD5">
-        <v>0.9896895075746909</v>
+        <v>0.9899317428050859</v>
       </c>
       <c r="GE5">
-        <v>0.9910315635164176</v>
+        <v>0.9912599350977965</v>
       </c>
       <c r="GF5">
-        <v>0.991744093085479</v>
+        <v>0.9919564034909697</v>
       </c>
       <c r="GG5">
-        <v>0.9931542554242484</v>
+        <v>0.9933529399239601</v>
       </c>
       <c r="GH5">
-        <v>0.9942380331771897</v>
+        <v>0.9944219524401443</v>
       </c>
       <c r="GI5">
-        <v>0.9943673627715741</v>
+        <v>0.9945331850462079</v>
       </c>
       <c r="GJ5">
-        <v>0.9966034600744808</v>
+        <v>0.9967585395858964</v>
       </c>
       <c r="GK5">
-        <v>0.9969442083196851</v>
+        <v>0.9970819288550169</v>
       </c>
       <c r="GL5">
-        <v>0.9970743643240336</v>
+        <v>0.9971939907558454</v>
       </c>
       <c r="GM5">
-        <v>0.9980247800227657</v>
+        <v>0.9981291756826011</v>
       </c>
       <c r="GN5">
-        <v>0.9986637801450198</v>
+        <v>0.9987518579551528</v>
       </c>
       <c r="GO5">
-        <v>0.9987108657059752</v>
+        <v>0.9987805594334236</v>
       </c>
       <c r="GP5">
-        <v>0.9990278985222094</v>
+        <v>0.9990801504886505</v>
       </c>
       <c r="GQ5">
-        <v>0.9997638579402534</v>
+        <v>0.9998001305188378</v>
       </c>
       <c r="GR5">
-        <v>0.9999683093413759</v>
+        <v>0.9999867471640037</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000231751394449965</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003792084272813553</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0006175671318581903</v>
+        <v>6.851652538126143E-06</v>
       </c>
       <c r="E6">
-        <v>0.0008504777763304146</v>
+        <v>8.053772342528056E-06</v>
       </c>
       <c r="F6">
-        <v>0.0008806008489088216</v>
+        <v>8.053772342528056E-06</v>
       </c>
       <c r="G6">
-        <v>0.0008934680981558916</v>
+        <v>8.053772342528056E-06</v>
       </c>
       <c r="H6">
-        <v>0.0009005531138919343</v>
+        <v>8.053772342528056E-06</v>
       </c>
       <c r="I6">
-        <v>0.0009175252712178245</v>
+        <v>8.053772342528056E-06</v>
       </c>
       <c r="J6">
-        <v>0.001160216685877854</v>
+        <v>1.939836125997716E-05</v>
       </c>
       <c r="K6">
-        <v>0.001311397258780742</v>
+        <v>1.939836125997716E-05</v>
       </c>
       <c r="L6">
-        <v>0.001330081602139508</v>
+        <v>1.939836125997716E-05</v>
       </c>
       <c r="M6">
-        <v>0.001501537565431713</v>
+        <v>1.939836125997716E-05</v>
       </c>
       <c r="N6">
-        <v>0.002226401829350165</v>
+        <v>0.0005307468493438773</v>
       </c>
       <c r="O6">
-        <v>0.002839877171129787</v>
+        <v>0.0009265871841192255</v>
       </c>
       <c r="P6">
-        <v>0.003047229015111245</v>
+        <v>0.0009265871841192255</v>
       </c>
       <c r="Q6">
-        <v>0.003373500721376138</v>
+        <v>0.001024602915470709</v>
       </c>
       <c r="R6">
-        <v>0.003720232068033886</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="S6">
-        <v>0.003818741589925412</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="T6">
-        <v>0.003844194156414139</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="U6">
-        <v>0.003868383797878616</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="V6">
-        <v>0.003894221508374737</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="W6">
-        <v>0.003895522672699722</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="X6">
-        <v>0.003899137338969128</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="Y6">
-        <v>0.003941915892790539</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="Z6">
-        <v>0.00396159724016845</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="AA6">
-        <v>0.004144861563687392</v>
+        <v>0.00114383489735912</v>
       </c>
       <c r="AB6">
-        <v>0.004379322378189382</v>
+        <v>0.001146644513438863</v>
       </c>
       <c r="AC6">
-        <v>0.004825810156762599</v>
+        <v>0.0013693219817361</v>
       </c>
       <c r="AD6">
-        <v>0.005304462445953422</v>
+        <v>0.001625353424128556</v>
       </c>
       <c r="AE6">
-        <v>0.005607789211777739</v>
+        <v>0.001699575696963918</v>
       </c>
       <c r="AF6">
-        <v>0.005924506357859171</v>
+        <v>0.001787683534592438</v>
       </c>
       <c r="AG6">
-        <v>0.006079128870828149</v>
+        <v>0.001787683534592438</v>
       </c>
       <c r="AH6">
-        <v>0.006339909675835521</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AI6">
-        <v>0.006471502168362289</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AJ6">
-        <v>0.006472718024785635</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AK6">
-        <v>0.006472974973470569</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AL6">
-        <v>0.006474276137795554</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AM6">
-        <v>0.006490833103113471</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AN6">
-        <v>0.006575056490730684</v>
+        <v>0.001817786470690003</v>
       </c>
       <c r="AO6">
-        <v>0.006874431296479117</v>
+        <v>0.001887910637523895</v>
       </c>
       <c r="AP6">
-        <v>0.007133177301447417</v>
+        <v>0.001915903525419608</v>
       </c>
       <c r="AQ6">
-        <v>0.007481326258132385</v>
+        <v>0.00203660554143001</v>
       </c>
       <c r="AR6">
-        <v>0.007835651694935952</v>
+        <v>0.002163712447610343</v>
       </c>
       <c r="AS6">
-        <v>0.00818380065162092</v>
+        <v>0.002284414463620745</v>
       </c>
       <c r="AT6">
-        <v>0.009056087108370093</v>
+        <v>0.002948636908320819</v>
       </c>
       <c r="AU6">
-        <v>0.009384193074670207</v>
+        <v>0.003048554731777044</v>
       </c>
       <c r="AV6">
-        <v>0.009519009867258886</v>
+        <v>0.003048554731777044</v>
       </c>
       <c r="AW6">
-        <v>0.01026172888152018</v>
+        <v>0.003578418249904201</v>
       </c>
       <c r="AX6">
-        <v>0.01073210869055215</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="AY6">
-        <v>0.0107801853314753</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="AZ6">
-        <v>0.01079155307169357</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="BA6">
-        <v>0.0108042408959372</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="BB6">
-        <v>0.01081201677508651</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="BC6">
-        <v>0.01085429934089839</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="BD6">
-        <v>0.01096207005296775</v>
+        <v>0.003825871290709839</v>
       </c>
       <c r="BE6">
-        <v>0.0112522956085405</v>
+        <v>0.003886507862443085</v>
       </c>
       <c r="BF6">
-        <v>0.01152970916386725</v>
+        <v>0.003933858638244481</v>
       </c>
       <c r="BG6">
-        <v>0.0118388029098023</v>
+        <v>0.004014061157678583</v>
       </c>
       <c r="BH6">
-        <v>0.01194214600778664</v>
+        <v>0.004014061157678583</v>
       </c>
       <c r="BI6">
-        <v>0.01249382914837976</v>
+        <v>0.004345824177485147</v>
       </c>
       <c r="BJ6">
-        <v>0.01285872110538622</v>
+        <v>0.0044838883603147</v>
       </c>
       <c r="BK6">
-        <v>0.01304095728888542</v>
+        <v>0.0044838883603147</v>
       </c>
       <c r="BL6">
-        <v>0.01328443131356047</v>
+        <v>0.00449604450064912</v>
       </c>
       <c r="BM6">
-        <v>0.01374495537240321</v>
+        <v>0.004733277319533487</v>
       </c>
       <c r="BN6">
-        <v>0.01407812277880051</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BO6">
-        <v>0.01419203161498772</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BP6">
-        <v>0.01434165145786064</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BQ6">
-        <v>0.01445021315994519</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BR6">
-        <v>0.0144527240809934</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BS6">
-        <v>0.01446541190523703</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BT6">
-        <v>0.0144916376507406</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BU6">
-        <v>0.01452728307742504</v>
+        <v>0.004838443758269239</v>
       </c>
       <c r="BV6">
-        <v>0.01489266918444099</v>
+        <v>0.004977020365080975</v>
       </c>
       <c r="BW6">
-        <v>0.01531019089245802</v>
+        <v>0.005169660579634247</v>
       </c>
       <c r="BX6">
-        <v>0.01565221769902543</v>
+        <v>0.005284014044632772</v>
       </c>
       <c r="BY6">
-        <v>0.01626569304080505</v>
+        <v>0.00567985437940812</v>
       </c>
       <c r="BZ6">
-        <v>0.01686233185226139</v>
+        <v>0.006058235558565261</v>
       </c>
       <c r="CA6">
-        <v>0.0177271470088671</v>
+        <v>0.006714710409825932</v>
       </c>
       <c r="CB6">
-        <v>0.01844045442256364</v>
+        <v>0.007214074668225552</v>
       </c>
       <c r="CC6">
-        <v>0.01892412263185078</v>
+        <v>0.007475307522538902</v>
       </c>
       <c r="CD6">
-        <v>0.01936421601030121</v>
+        <v>0.007691354121845613</v>
       </c>
       <c r="CE6">
-        <v>0.01943720818170277</v>
+        <v>0.007691354121845613</v>
       </c>
       <c r="CF6">
-        <v>0.0194391519747401</v>
+        <v>0.007691354121845613</v>
       </c>
       <c r="CG6">
-        <v>0.0194391680099504</v>
+        <v>0.007691354121845613</v>
       </c>
       <c r="CH6">
-        <v>0.01945391828623363</v>
+        <v>0.007691354121845613</v>
       </c>
       <c r="CI6">
-        <v>0.01962272232947491</v>
+        <v>0.007691354121845613</v>
       </c>
       <c r="CJ6">
-        <v>0.02006386932794558</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="CK6">
-        <v>0.02028156113212558</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="CL6">
-        <v>0.02040825620455831</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="CM6">
-        <v>0.02040840071412109</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="CN6">
-        <v>0.1089061724134075</v>
+        <v>0.09943864558141192</v>
       </c>
       <c r="CO6">
-        <v>0.1106590762470658</v>
+        <v>0.101016051177767</v>
       </c>
       <c r="CP6">
-        <v>0.1607181352082728</v>
+        <v>0.1526860033674471</v>
       </c>
       <c r="CQ6">
-        <v>0.2136242462241473</v>
+        <v>0.2073082933560162</v>
       </c>
       <c r="CR6">
-        <v>0.2197945699426266</v>
+        <v>0.2134664777541286</v>
       </c>
       <c r="CS6">
-        <v>0.2334205462042652</v>
+        <v>0.2273560293334154</v>
       </c>
       <c r="CT6">
-        <v>0.2442321474118637</v>
+        <v>0.2383271285301156</v>
       </c>
       <c r="CU6">
-        <v>0.2528178765767223</v>
+        <v>0.2469900415605328</v>
       </c>
       <c r="CV6">
-        <v>0.2567056010513722</v>
+        <v>0.2507812147843239</v>
       </c>
       <c r="CW6">
-        <v>0.2827800355520395</v>
+        <v>0.2775795762804236</v>
       </c>
       <c r="CX6">
-        <v>0.3765192573519693</v>
+        <v>0.3745450107212862</v>
       </c>
       <c r="CY6">
-        <v>0.417052198130261</v>
+        <v>0.4163365629913032</v>
       </c>
       <c r="CZ6">
-        <v>0.4423425486158726</v>
+        <v>0.4423218445609723</v>
       </c>
       <c r="DA6">
-        <v>0.4463738376932792</v>
+        <v>0.4462618914952409</v>
       </c>
       <c r="DB6">
-        <v>0.4974876226747385</v>
+        <v>0.4990255741251346</v>
       </c>
       <c r="DC6">
-        <v>0.5100862049166497</v>
+        <v>0.511849738019001</v>
       </c>
       <c r="DD6">
-        <v>0.5910155004706102</v>
+        <v>0.5955315272258564</v>
       </c>
       <c r="DE6">
-        <v>0.5940195909282932</v>
+        <v>0.5984063891007212</v>
       </c>
       <c r="DF6">
-        <v>0.6004697817521463</v>
+        <v>0.6048547902626986</v>
       </c>
       <c r="DG6">
-        <v>0.61233938898006</v>
+        <v>0.6169230211961045</v>
       </c>
       <c r="DH6">
-        <v>0.6123424042163179</v>
+        <v>0.6169230211961045</v>
       </c>
       <c r="DI6">
-        <v>0.6148063499636293</v>
+        <v>0.619237763475444</v>
       </c>
       <c r="DJ6">
-        <v>0.6298805182530753</v>
+        <v>0.634629062118588</v>
       </c>
       <c r="DK6">
-        <v>0.6304280411135885</v>
+        <v>0.6349565110085866</v>
       </c>
       <c r="DL6">
-        <v>0.6332475033677263</v>
+        <v>0.6376399170148543</v>
       </c>
       <c r="DM6">
-        <v>0.65407372076762</v>
+        <v>0.6589959790988352</v>
       </c>
       <c r="DN6">
-        <v>0.6572769526291268</v>
+        <v>0.6620773467496899</v>
       </c>
       <c r="DO6">
-        <v>0.6704161148814178</v>
+        <v>0.6754620816367533</v>
       </c>
       <c r="DP6">
-        <v>0.6726815997249185</v>
+        <v>0.6775710238054268</v>
       </c>
       <c r="DQ6">
-        <v>0.6733760615382531</v>
+        <v>0.6780508455415182</v>
       </c>
       <c r="DR6">
-        <v>0.6832166747272073</v>
+        <v>0.6880150489826552</v>
       </c>
       <c r="DS6">
-        <v>0.6832206346576833</v>
+        <v>0.6880150489826552</v>
       </c>
       <c r="DT6">
-        <v>0.683445498902001</v>
+        <v>0.6880150489826552</v>
       </c>
       <c r="DU6">
-        <v>0.6834620558673189</v>
+        <v>0.6880150489826552</v>
       </c>
       <c r="DV6">
-        <v>0.6848669489942949</v>
+        <v>0.6892315742213534</v>
       </c>
       <c r="DW6">
-        <v>0.705459605389704</v>
+        <v>0.7103454380705826</v>
       </c>
       <c r="DX6">
-        <v>0.7130163945348054</v>
+        <v>0.7179413602435132</v>
       </c>
       <c r="DY6">
-        <v>0.71563623008511</v>
+        <v>0.7204177572270875</v>
       </c>
       <c r="DZ6">
-        <v>0.7188008391458751</v>
+        <v>0.7234590737821635</v>
       </c>
       <c r="EA6">
-        <v>0.7270816453048787</v>
+        <v>0.7318057875655521</v>
       </c>
       <c r="EB6">
-        <v>0.7276185543551882</v>
+        <v>0.7321222301400871</v>
       </c>
       <c r="EC6">
-        <v>0.7277340923974067</v>
+        <v>0.7321222301400871</v>
       </c>
       <c r="ED6">
-        <v>0.7330648268997646</v>
+        <v>0.7374097767940702</v>
       </c>
       <c r="EE6">
-        <v>0.7353678966439869</v>
+        <v>0.7395576937763184</v>
       </c>
       <c r="EF6">
-        <v>0.7371613873784246</v>
+        <v>0.741177187202123</v>
       </c>
       <c r="EG6">
-        <v>0.7378605335918492</v>
+        <v>0.7416618665703142</v>
       </c>
       <c r="EH6">
-        <v>0.7379983100244947</v>
+        <v>0.7416618665703142</v>
       </c>
       <c r="EI6">
-        <v>0.740944351581063</v>
+        <v>0.7444765328598317</v>
       </c>
       <c r="EJ6">
-        <v>0.7460716456795146</v>
+        <v>0.7495531157580628</v>
       </c>
       <c r="EK6">
-        <v>0.7498060350512203</v>
+        <v>0.7531852834520545</v>
       </c>
       <c r="EL6">
-        <v>0.7500688750562673</v>
+        <v>0.7532175217386815</v>
       </c>
       <c r="EM6">
-        <v>0.7501585345739888</v>
+        <v>0.7532175217386815</v>
       </c>
       <c r="EN6">
-        <v>0.7512564057950696</v>
+        <v>0.7541156712116907</v>
       </c>
       <c r="EO6">
-        <v>0.7543388118542563</v>
+        <v>0.7570717448473953</v>
       </c>
       <c r="EP6">
-        <v>0.7543506127294829</v>
+        <v>0.7570717448473953</v>
       </c>
       <c r="EQ6">
-        <v>0.75603522496183</v>
+        <v>0.7585783333768241</v>
       </c>
       <c r="ER6">
-        <v>0.7563647099881565</v>
+        <v>0.7586796812587987</v>
       </c>
       <c r="ES6">
-        <v>0.7567378809053219</v>
+        <v>0.7588263305628496</v>
       </c>
       <c r="ET6">
-        <v>0.7567599973257466</v>
+        <v>0.7588263305628496</v>
       </c>
       <c r="EU6">
-        <v>0.7582694077547295</v>
+        <v>0.7601512382179659</v>
       </c>
       <c r="EV6">
-        <v>0.7587020869630375</v>
+        <v>0.7603595964665371</v>
       </c>
       <c r="EW6">
-        <v>0.7596137270805423</v>
+        <v>0.7610646278946848</v>
       </c>
       <c r="EX6">
-        <v>0.7636611283582583</v>
+        <v>0.7650213828683862</v>
       </c>
       <c r="EY6">
-        <v>0.7726100215300901</v>
+        <v>0.7740608899351594</v>
       </c>
       <c r="EZ6">
-        <v>0.7762949706008465</v>
+        <v>0.7776417889953228</v>
       </c>
       <c r="FA6">
-        <v>0.7766720795080876</v>
+        <v>0.7777925219187556</v>
       </c>
       <c r="FB6">
-        <v>0.7771217871367226</v>
+        <v>0.7780185383091596</v>
       </c>
       <c r="FC6">
-        <v>0.7899346318827479</v>
+        <v>0.7910648882669385</v>
       </c>
       <c r="FD6">
-        <v>0.7974254520265827</v>
+        <v>0.7985924018641722</v>
       </c>
       <c r="FE6">
-        <v>0.7974682305804041</v>
+        <v>0.7985924018641722</v>
       </c>
       <c r="FF6">
-        <v>0.8050052417251257</v>
+        <v>0.8061678146340479</v>
       </c>
       <c r="FG6">
-        <v>0.8133693068857279</v>
+        <v>0.8146008663883615</v>
       </c>
       <c r="FH6">
-        <v>0.8317992212396093</v>
+        <v>0.8334720086589736</v>
       </c>
       <c r="FI6">
-        <v>0.8514285156165203</v>
+        <v>0.8535868847669837</v>
       </c>
       <c r="FJ6">
-        <v>0.8617553778148112</v>
+        <v>0.864055319006284</v>
       </c>
       <c r="FK6">
-        <v>0.8690673999552126</v>
+        <v>0.8713974225394353</v>
       </c>
       <c r="FL6">
-        <v>0.8712315035967666</v>
+        <v>0.8734012343666691</v>
       </c>
       <c r="FM6">
-        <v>0.87123688379557</v>
+        <v>0.8734012343666691</v>
       </c>
       <c r="FN6">
-        <v>0.8741403968513216</v>
+        <v>0.8761717994251307</v>
       </c>
       <c r="FO6">
-        <v>0.8812286639874267</v>
+        <v>0.8832818733556649</v>
       </c>
       <c r="FP6">
-        <v>0.8866598187917129</v>
+        <v>0.8886735539163928</v>
       </c>
       <c r="FQ6">
-        <v>0.896700108984501</v>
+        <v>0.8988448185403494</v>
       </c>
       <c r="FR6">
-        <v>0.9013006814728387</v>
+        <v>0.9033752013378548</v>
       </c>
       <c r="FS6">
-        <v>0.9022069713902408</v>
+        <v>0.904074684712194</v>
       </c>
       <c r="FT6">
-        <v>0.9087511605158988</v>
+        <v>0.9106205602912602</v>
       </c>
       <c r="FU6">
-        <v>0.9176832746874084</v>
+        <v>0.9196426678599112</v>
       </c>
       <c r="FV6">
-        <v>0.9216552277636757</v>
+        <v>0.9235211845110537</v>
       </c>
       <c r="FW6">
-        <v>0.9233035978953268</v>
+        <v>0.9249901906845083</v>
       </c>
       <c r="FX6">
-        <v>0.9234000997771797</v>
+        <v>0.9249901906845083</v>
       </c>
       <c r="FY6">
-        <v>0.9261300931295996</v>
+        <v>0.9275808191737883</v>
       </c>
       <c r="FZ6">
-        <v>0.9423004434400939</v>
+        <v>0.9441088373264677</v>
       </c>
       <c r="GA6">
-        <v>0.9521260226287593</v>
+        <v>0.9540574508006956</v>
       </c>
       <c r="GB6">
-        <v>0.9590403917615253</v>
+        <v>0.9609871958722728</v>
       </c>
       <c r="GC6">
-        <v>0.973207318033551</v>
+        <v>0.9754377021275926</v>
       </c>
       <c r="GD6">
-        <v>0.9765997910986914</v>
+        <v>0.9787153092387266</v>
       </c>
       <c r="GE6">
-        <v>0.9782533322304419</v>
+        <v>0.9801896776390595</v>
       </c>
       <c r="GF6">
-        <v>0.9782533636774324</v>
+        <v>0.9801896776390595</v>
       </c>
       <c r="GG6">
-        <v>0.9824850672586873</v>
+        <v>0.984337550529368</v>
       </c>
       <c r="GH6">
-        <v>0.983953374586881</v>
+        <v>0.9856198350656296</v>
       </c>
       <c r="GI6">
-        <v>0.9846836958009043</v>
+        <v>0.986136842305205</v>
       </c>
       <c r="GJ6">
-        <v>0.9861568838291916</v>
+        <v>0.9874241880328657</v>
       </c>
       <c r="GK6">
-        <v>0.9865290857363385</v>
+        <v>0.9875698324923088</v>
       </c>
       <c r="GL6">
-        <v>0.9872082668493797</v>
+        <v>0.9880338084383677</v>
       </c>
       <c r="GM6">
-        <v>0.9895467291942815</v>
+        <v>0.9902184268615384</v>
       </c>
       <c r="GN6">
-        <v>0.9968413767343495</v>
+        <v>0.9975425132708997</v>
       </c>
       <c r="GO6">
-        <v>0.9978845080543791</v>
+        <v>0.9983838985274922</v>
       </c>
       <c r="GP6">
-        <v>0.9979698940560187</v>
+        <v>0.9983838985274922</v>
       </c>
       <c r="GQ6">
-        <v>0.9988481656728827</v>
+        <v>0.9990543274672266</v>
       </c>
       <c r="GR6">
-        <v>0.9999918651948434</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.01966537075964093</v>
+        <v>0.02029854532676039</v>
       </c>
       <c r="F2">
-        <v>0.500561179338383</v>
+        <v>0.5005422679001429</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>105</v>
       </c>
       <c r="E3">
-        <v>0.0135147816039975</v>
+        <v>0.05311894025337154</v>
       </c>
       <c r="F3">
-        <v>0.5589988124738096</v>
+        <v>0.5591147224866397</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01732516864602495</v>
+        <v>0.01577340691914686</v>
       </c>
       <c r="F4">
-        <v>0.5714889600206782</v>
+        <v>0.5717962301668421</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>104</v>
       </c>
       <c r="E5">
-        <v>0.01056753563960799</v>
+        <v>0.009336784091197838</v>
       </c>
       <c r="F5">
-        <v>0.5441322356657431</v>
+        <v>0.5442685883469046</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02006386932794558</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="F6">
-        <v>0.5100862049166497</v>
+        <v>0.511849738019001</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.01966537075964093</v>
+        <v>0.02029854532676039</v>
       </c>
       <c r="F2">
-        <v>0.7085455071836502</v>
+        <v>0.7086417321627659</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>113</v>
       </c>
       <c r="E3">
-        <v>0.0135147816039975</v>
+        <v>0.05311894025337154</v>
       </c>
       <c r="F3">
-        <v>0.7030917592398239</v>
+        <v>0.7034444783160195</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>133</v>
       </c>
       <c r="E4">
-        <v>0.01732516864602495</v>
+        <v>0.01577340691914686</v>
       </c>
       <c r="F4">
-        <v>0.7002569696730087</v>
+        <v>0.7005527348539048</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.01056753563960799</v>
+        <v>0.009336784091197838</v>
       </c>
       <c r="F5">
-        <v>0.7055098616585798</v>
+        <v>0.7061538999165901</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.02006386932794558</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="F6">
-        <v>0.705459605389704</v>
+        <v>0.7103454380705826</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.01966537075964093</v>
+        <v>0.02029854532676039</v>
       </c>
       <c r="F2">
-        <v>0.8056522921059514</v>
+        <v>0.8057014939846793</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>0.0135147816039975</v>
+        <v>0.05311894025337154</v>
       </c>
       <c r="F3">
-        <v>0.8007946157279308</v>
+        <v>0.800002957683303</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.01732516864602495</v>
+        <v>0.01577340691914686</v>
       </c>
       <c r="F4">
-        <v>0.8038470846913596</v>
+        <v>0.8038911841323023</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.01056753563960799</v>
+        <v>0.009336784091197838</v>
       </c>
       <c r="F5">
-        <v>0.8042093324125088</v>
+        <v>0.8048632645844174</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>161</v>
       </c>
       <c r="E6">
-        <v>0.02006386932794558</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="F6">
-        <v>0.8050052417251257</v>
+        <v>0.8061678146340479</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.01966537075964093</v>
+        <v>0.02029854532676039</v>
       </c>
       <c r="F2">
-        <v>0.9028085730029747</v>
+        <v>0.902904145140907</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="E3">
-        <v>0.0135147816039975</v>
+        <v>0.05311894025337154</v>
       </c>
       <c r="F3">
-        <v>0.9011107706381978</v>
+        <v>0.9012530898151544</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>175</v>
       </c>
       <c r="E4">
-        <v>0.01732516864602495</v>
+        <v>0.01577340691914686</v>
       </c>
       <c r="F4">
-        <v>0.9013784831557763</v>
+        <v>0.9015929668115806</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.01056753563960799</v>
+        <v>0.009336784091197838</v>
       </c>
       <c r="F5">
-        <v>0.9075870147461558</v>
+        <v>0.9079138145558542</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>173</v>
       </c>
       <c r="E6">
-        <v>0.02006386932794558</v>
+        <v>0.007908493304691951</v>
       </c>
       <c r="F6">
-        <v>0.9013006814728387</v>
+        <v>0.9033752013378548</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>40</v>

--- a/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
@@ -1994,52 +1994,52 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.328325349088436E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.734512638316343E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.11964092504267E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001088207896513287</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001253940360648763</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001088207896513287</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.000203362690866685</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0003973389548107255</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004015386773475193</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0005239533811896321</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0004877807555130393</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0003260976047811205</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0002018565372152655</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.346836139865E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.405729525714418E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2051,49 +2051,49 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.973529898120134E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>7.284265267490817E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.000120398498643947</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001016155324274197</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001858114947606304</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0003416955044291207</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0004354372558858281</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003906232430747497</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.000275798634201899</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004067059478802392</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0004116641232880402</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002512654969881856</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001562389808292331</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.087299806613265E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.521493400780652E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -2102,46 +2102,46 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.528880207154366E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>7.999032013983525E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.685954437683705E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0002308680402968015</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0004521424807074867</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0003585269111407762</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0004015386773475193</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0005457805756036553</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005899077360576316</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0002951790172063212</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.000215090508654814</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001388707905109558</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001073358999109179</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>5.614178775590699E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2150,91 +2150,91 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.850886787437311E-06</v>
+        <v>0</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>5.27221934638138E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0001652145137065329</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001593529324298458</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0003547800978949588</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0003634147074080917</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005218268699536716</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0007681691988994118</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0005194335987493787</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0002512654969881856</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001838906948445413</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0001535934559687791</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>2.570273741488096E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>8.762804667020714E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>2.184952152058238E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001334832122448755</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0002738530464121481</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0003834971298472998</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003651939881876372</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0003739516360559005</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0005057072135966127</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0005564470699465087</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0006383767989279429</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0006896575635225658</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0005002174904698819</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.000380757769469951</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0002738530464121481</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>5.000109462133835E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -2243,355 +2243,355 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>4.016325809409654E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>8.767686356420932E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0002278496962056677</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0003307636617052478</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0003927028715916642</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0006936425445851897</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.004033997032484572</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.09105602824569825</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CO2">
-        <v>0.02473617437852996</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.02517556947295697</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.01088306472560851</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.001776187252912401</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.003843312610176319</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0003200064253240786</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.04275574716845561</v>
+        <v>0.04124869998968547</v>
       </c>
       <c r="CV2">
-        <v>0.04481189027631396</v>
+        <v>0.0479122550081715</v>
       </c>
       <c r="CW2">
-        <v>0.001830901378279357</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.1593339459317601</v>
+        <v>0.4190556913641386</v>
       </c>
       <c r="CY2">
-        <v>0.006791887947196718</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.01361912439134733</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.04639574830535882</v>
+        <v>0.05304522706525962</v>
       </c>
       <c r="DB2">
-        <v>0.002880137030979586</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.1043790598322963</v>
+        <v>0.2409577245159875</v>
       </c>
       <c r="DD2">
-        <v>0.01116418484175198</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01718775427214311</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.004945768708618976</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.005143406549962163</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.001246903980324869</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.005093634281653224</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>2.822727022124514E-05</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.001165816798777753</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01391696030420041</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.005722627877283449</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.003583298627622769</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003673414561892251</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0003307636617052478</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.01086254064653179</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.001886442833969174</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>6.847967155582887E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0006780983152888458</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0006272535910162493</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.01639482763580712</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01298290146642445</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.005302628993659021</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.000177554750151976</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.004569146801876242</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.001742098720773585</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0002135426481044951</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.001705001205069431</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>7.47050328987656E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.007890681827519744</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>2.850015207356137E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>8.320801640005294E-06</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.006508282336144526</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.006763255750640745</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003186022095005038</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.002243094184064419</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.002935796319170614</v>
+        <v>0</v>
       </c>
       <c r="EM2">
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.001633857805183569</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001562389808292331</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0005215553346154941</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0006741578342659739</v>
+        <v>0</v>
       </c>
       <c r="ER2">
         <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0003857919703674884</v>
+        <v>0</v>
       </c>
       <c r="ET2">
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0001696362859354985</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.001085534622449192</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.005837231447601139</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01446929439715443</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01579493005829456</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.003075706446403043</v>
+        <v>0</v>
       </c>
       <c r="FA2">
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.01353946181174773</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.007129439419712472</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0002840272772106469</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.00334307089446545</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.00680048992001028</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.01534226504200218</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.02468152092138368</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01028919993188777</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01271746949140442</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.007974312869607026</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.001150397560031759</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>4.016325809409654E-05</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.001811583255285558</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003108601035967991</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.003438987651689627</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.007348400038258678</v>
+        <v>0</v>
       </c>
       <c r="FR2">
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001910717030006692</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.009272713905743355</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.002805915870189107</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.001131959126237741</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001186542504581262</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0005319861038883799</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.01173340892729676</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.007267117937527314</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001899562286633756</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.008424586196473806</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.003337038310898772</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>5.532269169236912E-05</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>6.08389126155489E-07</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.004643137002955341</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.00412956950256205</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.002626376179996255</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>9.107089010567862E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0007239958765369321</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0004903642606330511</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.001412420501635271</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.004462409777393442</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.002421828869038719</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001606965332926362</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0003501730172889823</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0002070706604332588</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0004228634568020455</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0005239533811896321</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.149412038875242E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2776,40 +2776,40 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.078285464745807E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.970272853219675E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>8.744880868907251E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001383741332229476</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002134519904148613</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001019585703601819</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0005254641340479485</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000766274806571579</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0003172537205332957</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001488859397406067</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.273199733302027E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.663859877128992E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2818,49 +2818,49 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2.284584606613125E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.369107337283833E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001751285049950449</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001586053010665094</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001648989757540143</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0004002904999060461</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003543446359400806</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001491996401854131</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002547663800915576</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002474800039197831</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002720019226855084</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0003040836843845398</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0004351922879764392</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.084744941624184E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2872,43 +2872,43 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.386287218980571E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0001019585703601819</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.986799249413334E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.138034604176797E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002164128847943807</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0002275792955440561</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001721133542808054</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001645703806272581</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001876714209076838</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002575801118059445</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001282164412534743</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>3.149412038875242E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.924609068653586E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2920,46 +2920,46 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.172217082517797E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.14635309489732E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>7.415223389778167E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>6.006616278110699E-07</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0001177334518358191</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0002796218956302658</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0002748475987817083</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001445965419692259</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001362732313175935</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001242131596976094</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002279618463053585</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001155027476887087</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.090196098402676E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.269698165143123E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>9.986799249413334E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>4.057074812317248E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2980,391 +2980,391 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002050984994891032</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0003152194838565068</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002696979078359884</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0004055043402222092</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0003071454336024027</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0003679641988022174</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0002407941259953918</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>3.924609068653586E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.590410436839162E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
         <v>0</v>
       </c>
       <c r="CE3">
-        <v>4.057074812317248E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.821870544186874E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0001735949140612087</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>5.090615189078393E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0001101655501378512</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0003192328689382165</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0005411125711004388</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0002912408200483832</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0005678271053245738</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.03999456599736058</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="CO3">
-        <v>0.005135689545758199</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.06524036229650965</v>
+        <v>0.115426683970385</v>
       </c>
       <c r="CQ3">
-        <v>0.04639778976757208</v>
+        <v>0.05360849832708195</v>
       </c>
       <c r="CR3">
-        <v>0.01182614643216499</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002606384111909452</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01402914306291349</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0188216884026943</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.003344017174790688</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0448042151630358</v>
+        <v>0.04838034327615212</v>
       </c>
       <c r="CX3">
-        <v>0.08118891816928278</v>
+        <v>0.1677502606036479</v>
       </c>
       <c r="CY3">
-        <v>0.08015307222405453</v>
+        <v>0.1643518861597316</v>
       </c>
       <c r="CZ3">
-        <v>0.03059068927062972</v>
+        <v>0.001749004539721313</v>
       </c>
       <c r="DA3">
-        <v>0.001997713334965155</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.09985995327698739</v>
+        <v>0.2290056710667431</v>
       </c>
       <c r="DC3">
-        <v>0.007838927277258661</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.0870949702858846</v>
+        <v>0.1871266714202924</v>
       </c>
       <c r="DE3">
-        <v>0.01555822549880824</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01527945338387424</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.008410724695372027</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0003485228600588985</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>5.452869089572583E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.009744403137227207</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0004424145147777703</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001170766607116709</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.01800263525487888</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.003707450621833904</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004406714843685751</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0004424145147777703</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.004401122421850582</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001184314152287184</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0014200420396538</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.000616092259708896</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>2.609254593765335E-06</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01626616993234819</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.005755084293239556</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001072653753425909</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002831942620093167</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.006993060694931903</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.000902386690194501</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>5.216030415763389E-06</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.007678488699446283</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0005746040553083161</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002607647353340227</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.002405125184782842</v>
+        <v>0</v>
       </c>
       <c r="EH3">
         <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.002320203847256558</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.002646559760050729</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0005678271053245738</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0001648989757540143</v>
+        <v>0</v>
       </c>
       <c r="EM3">
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.002977563896133859</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.002751905254792219</v>
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0007206832576205819</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0006861608128429692</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>8.158051850031564E-06</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>1.090196098402676E-05</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0008146606519823868</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0009254385359264679</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0004287583967978202</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002185530463149129</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.005330725382551469</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.003767780097734002</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0004158210324203295</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.000145342649264176</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.009168830929596822</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.004266126586923286</v>
+        <v>0</v>
       </c>
       <c r="FE3">
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.006449911182857778</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.007405136905614552</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.0179386853488844</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01643439163299638</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.008213651815367012</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.006946180535478789</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.002759107023958382</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.501515146047311E-05</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.002640950098072253</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.005812748362797738</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.006085637178594974</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.009730886163241081</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.007101764810149661</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0004112588494744781</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005862094764844221</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.009184965498597203</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.003301895796057156</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.00131187477447994</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0003101614062304511</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.002998891958071965</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.01399592271002912</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.005799652268821758</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0037762017072725</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.01228528953710878</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002613394034364633</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.001040443853359418</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>1.545785829390865E-05</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.003877218823476724</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001011625751021719</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0008220346321381728</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001141996215873278</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0007591519311077219</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0001744069448576284</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0008705294713386992</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.003481920479699932</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0001510307939880536</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>2.505559341578497E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>8.744880868907251E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0001369993119809584</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0003816982582672562</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3549,43 +3549,43 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001274588820062105</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002278276318326701</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001158336410667055</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.940533130344788E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002484330039210352</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0003714854278220487</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0004527658801422785</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0004638889956481157</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.977077554701097E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>5.369429996649417E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0003285697959116289</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>8.700962217524684E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3.652710205342927E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3597,40 +3597,40 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>8.205420047567288E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2.229629373888604E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.161287064818718E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>9.01943416026217E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001228681932659695</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>9.01943416026217E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000302427560598972</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002269644293560408</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0001900590495552032</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003335257545362145</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.81568446149046E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3639,52 +3639,52 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>6.508743043550417E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001376047939908053</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0001478236131525468</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.398272100373798E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>8.029828475632335E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001984036082899664</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001857438214445456</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0003405840762247594</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0006296740444906833</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0004709053185393992</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0003405840762247594</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0002163379493764489</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001843594397346769</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>9.391882551026925E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -3693,88 +3693,88 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>3.532253994859303E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>4.839097297986314E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001655731173010226</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0002634840275305148</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0003805442778082941</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0008205846701856058</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0003767284100680422</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0002407633921012247</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0004223549904390775</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0004358363932096618</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0003959858791720506</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.180685350896747E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>5.69782338856325E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>7.604202790397019E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>9.286982083718527E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0001354563599455076</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0006264461297477627</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001126312486620784</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0005689258057122845</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0001784118690955583</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0003034091480023321</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.000284162256522149</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001576066683989169</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0002143664492156153</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>9.391882551026925E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -3783,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>7.604202790397019E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>3.532253994859303E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -3798,346 +3798,346 @@
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0002782179134659657</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0003198596153753786</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0002528025278193898</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>4.399313081179178E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.07279096109832961</v>
+        <v>0.1979171518016547</v>
       </c>
       <c r="CO4">
-        <v>0.01325412116936794</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.04081321260306298</v>
+        <v>0.04954827519191905</v>
       </c>
       <c r="CQ4">
-        <v>0.03116435241241902</v>
+        <v>0.004779940508751815</v>
       </c>
       <c r="CR4">
-        <v>0.007320035894601454</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.008642952359650895</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01064080508159107</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.006219352289691858</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01341046739825813</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.04917355029701749</v>
+        <v>0.08833818286517708</v>
       </c>
       <c r="CX4">
-        <v>0.06577101848786628</v>
+        <v>0.1653463471643791</v>
       </c>
       <c r="CY4">
-        <v>0.0562433444844072</v>
+        <v>0.1211402865404972</v>
       </c>
       <c r="CZ4">
-        <v>0.03465689577527747</v>
+        <v>0.02098448146743744</v>
       </c>
       <c r="DA4">
-        <v>0.0003622658824137709</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.03937852986780308</v>
+        <v>0.04289170067562993</v>
       </c>
       <c r="DC4">
-        <v>0.009392904380658264</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.09674406063446694</v>
+        <v>0.3090536337845536</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01000807113061772</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.008185470129200616</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0007732874084271299</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001809630806558897</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005532436773271057</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001398812789201647</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.003190214827721453</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01591188338676265</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0007069557025399992</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01391097702950328</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.003725360244677376</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002198300466089184</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.01289406317790343</v>
+        <v>0</v>
       </c>
       <c r="DS4">
         <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0001507733524764991</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0009528889253790261</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.02042780682734466</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.008722223204211149</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.002483038435930449</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.002112589336726012</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01010825188630667</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0007617385938361962</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0001436517259214097</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002648078526456261</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.00202611907181263</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.002732913583230165</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0007200710008798723</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0004390400256697512</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.005626670028704314</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.005293429531165451</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.004177114370073363</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.001549692538296049</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001066145011675235</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0007166287887067315</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.003194303702726066</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0001295549809450335</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.001024881922337254</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0003652062004130803</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0001295549809450335</v>
+        <v>0</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001115640448453404</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0002880781290595187</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.001200513512278696</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.006105493520152211</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01394814048522687</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.009075901943360023</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>9.577941144256821E-05</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.00181137179093663</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.01814253130940935</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.007003400557156698</v>
+        <v>0</v>
       </c>
       <c r="FE4">
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.006398935607500101</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.00896133682584154</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.02211086765438015</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.02294226587062708</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.009344114085285873</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.00945406908823785</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.002727955673979132</v>
+        <v>0</v>
       </c>
       <c r="FM4">
         <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001363364376535009</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.005266589313447172</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.004350842188821734</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.008819600688490843</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004344598877070851</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0005576542616105244</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.006419860600792043</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.00797385330212862</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002736700915517549</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.00107898204410316</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0001151844243222559</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.00372094740480617</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.02212491015384271</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.01288587758516931</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.004941431950480087</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.01254498449854556</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002581287769793703</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0004208239899928756</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>5.035484156609266E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.005145957244940064</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.002243068348523014</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.001536331048778072</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0008933732512552294</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.000556670894511901</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0009371729593562157</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.003052998513053278</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.008593225461940728</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.002019406503689185</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0004495156136334226</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001339979683512632</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0003933924810917995</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>7.06023038657787E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,49 +4313,49 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001222195750693221</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001568946850715832</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>8.263080753635458E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.705084341218471E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002032504471086022</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001601183187259496</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001950294999197702</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001004275859810924</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.34457199939567E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.383760291119134E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.022618788436523E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.289652229081783E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.838227489767328E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.4895123818863E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -4364,37 +4364,37 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>4.644639832221704E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001964765335360458</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002307843257956568</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0004726019066063959</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0004203780921034421</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002554671769670825</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3.997532219269404E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>8.121100364072914E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>7.649440158244157E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>8.767210406901816E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4409,37 +4409,37 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.631807165090987E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.260932099840129E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>9.009211726863139E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.74109074403986E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.820320799987669E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0003502941999647094</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0002447147036725286</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.082982191207128E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>4.107766678202481E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.546502927826388E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>4.74109074403986E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -4448,52 +4448,52 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>8.767210406901816E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>8.218125874676562E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>7.501882367267426E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.056465246369661E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>9.290800655325646E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0002914679182784784</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0001713248916405014</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0001257132480760739</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001354755670436407</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001143086161983845</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>6.654890040164104E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0002183200578936219</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001304065842020498</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.227500027932235E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>4.82002833444006E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -4502,415 +4502,415 @@
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001120619008284264</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002392402303013507</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0001412167582129253</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0002838035070422029</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0003082921325850363</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001568946850715832</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001461538623042728</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001369583851389429</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>4.939316286636686E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>6.78771006470156E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.754295024315107E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.40081120401394E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.150155703922112E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0001464898410317799</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0003401657975480764</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.000206175391750566</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001656921677829942</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>6.879844561542566E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.000326532382679571</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0003000579493536255</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0002172027813623978</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0001394090901021857</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>4.374075052096004E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001363789093885583</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001511876251303662</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1166408701959518</v>
+        <v>0.2237067720574061</v>
       </c>
       <c r="CO5">
-        <v>0.01659795331552549</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.04366189027460698</v>
+        <v>0.03508740392582381</v>
       </c>
       <c r="CQ5">
-        <v>0.01992918024125341</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0001556134582267481</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0001433921755673242</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.0004986675780230115</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.04775310888911377</v>
+        <v>0.04566144964129065</v>
       </c>
       <c r="CV5">
-        <v>0.03958448872380512</v>
+        <v>0.02454906939497841</v>
       </c>
       <c r="CW5">
-        <v>5.140476036094811E-05</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.1572326919290945</v>
+        <v>0.3286192245864373</v>
       </c>
       <c r="CY5">
-        <v>9.937290519391553E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01354544794388065</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.07752584561379948</v>
+        <v>0.1226112068811243</v>
       </c>
       <c r="DB5">
-        <v>0.02615021759190415</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.115115704792323</v>
+        <v>0.2197648735129394</v>
       </c>
       <c r="DD5">
-        <v>0.02061938918545821</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.02856269557971112</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.003085720788995414</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.006895835161056791</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0022287068007832</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.002808730256401991</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.01311718319243402</v>
+        <v>0</v>
       </c>
       <c r="DK5">
         <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0007763743019423269</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01526723430844716</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001784637271216171</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.002305145297897707</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0001324835490820431</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001897370321689584</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.005307030684080659</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0004213531037554849</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0003087653386683171</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>1.372559552591944E-06</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.006335391515292846</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.007473334636820064</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.003224818551119597</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0003601676254246438</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.00630468469930253</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.004432331978235749</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0004305880682805932</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005438664883635902</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.003500881958638071</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.003212523080391344</v>
+        <v>0</v>
       </c>
       <c r="EF5">
         <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0002725364136024101</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.002264543260629048</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.003825800412142495</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0001228180870386393</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>2.820320799987669E-05</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>7.375656781987545E-07</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.002129900094153971</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.001848900917186805</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0004645385877396475</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0001265875192948726</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.001951920277852876</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.001041291988223427</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0001780602209949261</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0003202605255484563</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.00119897811137244</v>
+        <v>0</v>
       </c>
       <c r="EV5">
         <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.000641218843420478</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0007872857080968986</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.004128849290670289</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0008813494559841153</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0004513601957026013</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.004414441444656659</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.008623690236093329</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.004774733347389353</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0004529370509131471</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.002595217134801148</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.006642357820888057</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01616669715824661</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.009810674250087591</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.008455778642870469</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.003226308734836774</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0007121530534545555</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0001588253510397064</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.003092365603487018</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.006819335149961232</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.007067966533100595</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.01079722805237618</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0003899234533307204</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001429535322131201</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005284072120976163</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0026311598643141</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.002034412232378493</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0004576410842501837</v>
+        <v>0</v>
       </c>
       <c r="FX5">
         <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004676416344230818</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.008080881033077077</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.003258127418543339</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.004805107004461081</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.005810019067352714</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002830672183059437</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001328192292710614</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0006964683931731757</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001396536432990445</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001069012516184149</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.000111232606063637</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.002225354539688519</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0003233892691204682</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0001120619008284264</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0009351849267557372</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0006226822725516368</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>2.870147827083692E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0002995910552269649</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0007199800301872504</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0001866166451659059</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>1.325283599600839E-05</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.851652538126143E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.202119804401913E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.134458891744911E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0005113484880839001</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003958403347753483</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9.80157313514832E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001192319818884108</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5164,25 +5164,25 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.809616079743441E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0002226774682972369</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002560314423924563</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>7.422227283536213E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.810783762851902E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.010293609756527E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -5203,34 +5203,34 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>7.012416683389209E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.799288789571325E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0001207020160104019</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0001271069061803326</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0001207020160104019</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0006642224447000742</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>9.991782345622523E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0005298635181271563</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0002474530408056383</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -5251,34 +5251,34 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>6.063657173324597E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>4.735077580139593E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>8.020251943410244E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0003317630198065641</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.000138064182829553</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.215614033441952E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0002372328188843668</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001051664387357525</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -5302,31 +5302,31 @@
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0001385766068117357</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0001926402145532717</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001143534649985243</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0003958403347753483</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.000378381179157141</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.000656474851260671</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0004993642583996197</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0002612328543133496</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0002160465993067107</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0002171391828463389</v>
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
@@ -5356,97 +5356,97 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.09153015227671997</v>
+        <v>0.2360892737545193</v>
       </c>
       <c r="CO6">
-        <v>0.001577405596355124</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.05166995218968011</v>
+        <v>0.08095571035927533</v>
       </c>
       <c r="CQ6">
-        <v>0.05462228998856908</v>
+        <v>0.09244603609993898</v>
       </c>
       <c r="CR6">
-        <v>0.006158184398112362</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01388955157928688</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01097109919670021</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.008662913030417121</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.003791173223791093</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.02679836149609969</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.09696543444086259</v>
+        <v>0.2572430734931266</v>
       </c>
       <c r="CY6">
-        <v>0.04179155227001705</v>
+        <v>0.04250955663113862</v>
       </c>
       <c r="CZ6">
-        <v>0.02598528156966911</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.003940046934268589</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0527636826298937</v>
+        <v>0.08521244515272036</v>
       </c>
       <c r="DC6">
-        <v>0.0128241638938664</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.08368178920685543</v>
+        <v>0.2055439045092808</v>
       </c>
       <c r="DE6">
-        <v>0.002874861874864745</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.006448401161977384</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01206823093340587</v>
+        <v>0</v>
       </c>
       <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002314742279339429</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01539129864314402</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0003274488899986218</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.002683406006267743</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.02135606208398089</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.003081367650854669</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01338473488706336</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.002108942168673546</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0004798217360913717</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.009964203441137047</v>
+        <v>0</v>
       </c>
       <c r="DS6">
         <v>0</v>
@@ -5458,229 +5458,229 @@
         <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001216525238698219</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.02111386384922919</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.007595922172930565</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.00247639698357428</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003041316555075974</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.008346713783388748</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0003164425745350384</v>
+        <v>0</v>
       </c>
       <c r="EC6">
         <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.005287546653983013</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.00214791698224824</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001619493425804579</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0004846793681912123</v>
+        <v>0</v>
       </c>
       <c r="EH6">
         <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.002814666289517542</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.005076582898231066</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0036321676939917</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>3.223828662698035E-05</v>
+        <v>0</v>
       </c>
       <c r="EM6">
         <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0008981494730091096</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.002956073635704614</v>
+        <v>0</v>
       </c>
       <c r="EP6">
         <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001506588529428842</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0001013478819746281</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.000146649304050904</v>
+        <v>0</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.00132490765511626</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0002083582485711469</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0007050314281477333</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003956754973701397</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.009039507066773225</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.003580899060163301</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0001507329234328636</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0002260163904039469</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.01304634995777898</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.007527513597233701</v>
+        <v>0</v>
       </c>
       <c r="FE6">
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.007575412769875606</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.008433051754313657</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.01887114227061217</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0201148761080101</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01046843423930018</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.007342103533151362</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.002003811827233796</v>
+        <v>0</v>
       </c>
       <c r="FM6">
         <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.002770565058461681</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.007110073930534198</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.005391680560727874</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.01017126462395659</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.004530382797505376</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0006994833743392269</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.006545875579066114</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.00902210756865111</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.003878516651142437</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001469006173454622</v>
+        <v>0</v>
       </c>
       <c r="FX6">
         <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.00259062848927999</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0165280181526794</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.009948613474227944</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.006929745071577217</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.01445050625531983</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.003277607111133972</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.00147436840033283</v>
+        <v>0</v>
       </c>
       <c r="GF6">
         <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.00414787289030853</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.00128228453626156</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0005170072395754945</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001287345727660606</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0001456444594430425</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0004639759460589162</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002184618423170625</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.007324086409361359</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0008413852565924785</v>
+        <v>0</v>
       </c>
       <c r="GP6">
         <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0006704289397343756</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0009456725327736744</v>
+        <v>0</v>
       </c>
       <c r="GS6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.328325349088436E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.062837987404779E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.062837987404779E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.974802079909046E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001785688104504192</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0003039628465152954</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004127836361666241</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0006161463270333091</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001013485281844035</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001415023959191554</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001938977340381186</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.002426758095894225</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.002752855700675346</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002954712237890612</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.003018180599289262</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.003032237894546406</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003032237894546406</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003032237894546406</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003032237894546406</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.003061973193527607</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003134815846202515</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.003255214344846462</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.003356829877273882</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003542641372034513</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.003884336876463633</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004319774132349461</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.004710397375424211</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.00498619600962611</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.005392901957506349</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.005804566080794389</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.006055831577782575</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.006212070558611808</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.006262943556677941</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006278158490685747</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.006278158490685747</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.006278158490685747</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.006279687370892901</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.006359677691032736</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.006456537235409574</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.006687405275706376</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.007139547756413863</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.007498074667554639</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.007899613344902159</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.008445393920505815</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.009035301656563447</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.009330480673769768</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.009545571182424582</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.009684441972935538</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.009791777872846456</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.009847919660602363</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.009847919660602363</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.009847919660602363</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0098507705473898</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0098507705473898</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.009903492740853614</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01006870725456015</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01022806018698999</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01058284028488495</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01094625499229304</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01146808186224671</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01223625106114613</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0127556846598955</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01300695015688369</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01319084085172823</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01334443430769701</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01337013704511189</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01337889984977891</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0134007493712995</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01353423258354437</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01380808562995652</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01419158275980382</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01455677674799146</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01493072838404736</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01543643559764397</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01599288266759048</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01663125946651842</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01732091703004099</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01782113452051087</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01820189228998082</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01847574533639297</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01852574643101431</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01852574643101431</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01852574643101431</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01856590968910841</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01865358655267262</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01888143624887828</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01921219991058353</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0196049027821752</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.02029854532676039</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.02433254235924496</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1153885706049432</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CO2">
-        <v>0.1401247449834732</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CP2">
-        <v>0.1653003144564301</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CQ2">
-        <v>0.1761833791820386</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CR2">
-        <v>0.177959566434951</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CS2">
-        <v>0.1818028790451273</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CT2">
-        <v>0.1821228854704514</v>
+        <v>0.1977804020567573</v>
       </c>
       <c r="CU2">
-        <v>0.224878632638907</v>
+        <v>0.2390291020464428</v>
       </c>
       <c r="CV2">
-        <v>0.269690522915221</v>
+        <v>0.2869413570546143</v>
       </c>
       <c r="CW2">
-        <v>0.2715214242935003</v>
+        <v>0.2869413570546143</v>
       </c>
       <c r="CX2">
-        <v>0.4308553702252605</v>
+        <v>0.705997048418753</v>
       </c>
       <c r="CY2">
-        <v>0.4376472581724572</v>
+        <v>0.705997048418753</v>
       </c>
       <c r="CZ2">
-        <v>0.4512663825638045</v>
+        <v>0.705997048418753</v>
       </c>
       <c r="DA2">
-        <v>0.4976621308691633</v>
+        <v>0.7590422754840126</v>
       </c>
       <c r="DB2">
-        <v>0.5005422679001429</v>
+        <v>0.7590422754840126</v>
       </c>
       <c r="DC2">
-        <v>0.6049213277324392</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0.6160855125741912</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.6332732668463343</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.6382190355549533</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.6433624421049154</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.6446093460852403</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.6497029803668936</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6497312076371148</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6508970244358926</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.664813984740093</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6705366126173765</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.6741199112449993</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.6777933258068916</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.6781240894685968</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.6889866301151286</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.6908730729490978</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.6909415526206537</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.6916196509359426</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.6922469045269588</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7086417321627659</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7216246336291904</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7269272626228495</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7271048173730015</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7316739641748777</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.7334160628956513</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.7336296055437558</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.7353346067488252</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.735409311781724</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.7432999936092437</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.7433284937613173</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.7433368145629573</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.7498450968991018</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.7566083526497426</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.7597943747447476</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7620374689288121</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7649732652479827</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7649732652479827</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7666071230531663</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7667633620339955</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.767284917368611</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.767959075202877</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.767959075202877</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7683448671732445</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7683448671732445</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7685145034591799</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7696000380816291</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7754372695292303</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7899065639263847</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8057014939846793</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8087772004310824</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8087772004310824</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8223166622428301</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8294461016625425</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8297301289397532</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8330731998342187</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8398736897542289</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8552159547962311</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8798974757176148</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8901866756495026</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.902904145140907</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.910878458010514</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9120288555705458</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9120690188286399</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9138806020839254</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9169892031198934</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.920428190771583</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9277765908098417</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9277765908098417</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9296873078398483</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9389600217455917</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9417659376157808</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9428978967420185</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9440844392465998</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9446164253504882</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.956349834277785</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9636169522153123</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9655165145019461</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9739411006984199</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9772781390093187</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9773334617010111</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9773340700901373</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9819772070930927</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9861067765956547</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.988733152775651</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9888242236657566</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9895482195422936</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9900385838029266</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9914510043045619</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9959134140819553</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9983352429509941</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9984959394842867</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9988461125015757</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.999053183162009</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9994760466188111</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.149412038875242E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.149412038875242E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.149412038875242E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.22769750362105E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001019797035684072</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001894285122574798</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003278026454804274</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005412546358952888</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0006432132062554707</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001168677340303419</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001934952146874998</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.002252205867408294</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0024010918071489</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002453823804481921</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002510462403253211</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002510462403253211</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002510462403253211</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002512746987859824</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002512746987859824</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002526438061232662</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002701566566227707</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002860171867294216</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003025070843048231</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003425361342954277</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003779705978894357</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.00392890561907977</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004183671999171327</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004431152003091111</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004703153925776619</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.005007237610161159</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.005442429898137598</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.00548327734755384</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00548327734755384</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00548327734755384</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.00548327734755384</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005507140219743646</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005609098790103828</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005708966782597961</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.00576034712863973</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.005976760013434111</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.006204339308978167</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.006376452663258972</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.00654102304388623</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.006728694464793914</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.006986274576599858</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.007114491017853332</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.007145985138242085</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.007185231228928621</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.007185231228928621</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.007185231228928621</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.007185231228928621</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.007196953399753799</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.007238416930702773</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.007312569164600554</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.007313169826228366</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.007430903278064185</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007710525173694451</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.007985372772476159</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.008129969314445384</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008266242545762977</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008390455705460586</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008618417551765943</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.008733920299454653</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.00874482226043868</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008757519242090112</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.008757519242090112</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.008757519242090112</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008857387234584246</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.008861444309396563</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.008861444309396563</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.008861444309396563</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.009066542808885667</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.009381762292742174</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.009651460200578162</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01005696454080037</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01036410997440277</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01073207417320499</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01097286829920038</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01101211438988692</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01102801849425531</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01102801849425531</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01103207556906763</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0110702942745095</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01124388918857071</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01129479534046149</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01140496089059934</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01172419375953756</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.012265306330638</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01255654715068638</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01312437425601095</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05311894025337154</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="CO3">
-        <v>0.05825462979912974</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="CP3">
-        <v>0.1234949920956394</v>
+        <v>0.1480276646066294</v>
       </c>
       <c r="CQ3">
-        <v>0.1698927818632115</v>
+        <v>0.2016361629337114</v>
       </c>
       <c r="CR3">
-        <v>0.1817189282953764</v>
+        <v>0.2016361629337114</v>
       </c>
       <c r="CS3">
-        <v>0.1843253124072859</v>
+        <v>0.2016361629337114</v>
       </c>
       <c r="CT3">
-        <v>0.1983544554701994</v>
+        <v>0.2016361629337114</v>
       </c>
       <c r="CU3">
-        <v>0.2171761438728937</v>
+        <v>0.2016361629337114</v>
       </c>
       <c r="CV3">
-        <v>0.2205201610476843</v>
+        <v>0.2016361629337114</v>
       </c>
       <c r="CW3">
-        <v>0.2653243762107201</v>
+        <v>0.2500165062098635</v>
       </c>
       <c r="CX3">
-        <v>0.3465132943800029</v>
+        <v>0.4177667668135114</v>
       </c>
       <c r="CY3">
-        <v>0.4266663666040574</v>
+        <v>0.5821186529732429</v>
       </c>
       <c r="CZ3">
-        <v>0.4572570558746872</v>
+        <v>0.5838676575129642</v>
       </c>
       <c r="DA3">
-        <v>0.4592547692096524</v>
+        <v>0.5838676575129642</v>
       </c>
       <c r="DB3">
-        <v>0.5591147224866397</v>
+        <v>0.8128733285797073</v>
       </c>
       <c r="DC3">
-        <v>0.5669536497638984</v>
+        <v>0.8128733285797073</v>
       </c>
       <c r="DD3">
-        <v>0.654048620049783</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE3">
-        <v>0.6696068455485913</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF3">
-        <v>0.6848862989324656</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG3">
-        <v>0.6932970236278376</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH3">
-        <v>0.6936455464878966</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI3">
-        <v>0.6937000751787923</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ3">
-        <v>0.7034444783160195</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK3">
-        <v>0.7038868928307973</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL3">
-        <v>0.705057659437914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM3">
-        <v>0.7230602946927929</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN3">
-        <v>0.7267677453146267</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO3">
-        <v>0.7311744601583124</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP3">
-        <v>0.7316168746730902</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ3">
-        <v>0.7316168746730902</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR3">
-        <v>0.7360179970949408</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS3">
-        <v>0.7372023112472279</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT3">
-        <v>0.7386223532868817</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU3">
-        <v>0.7392384455465907</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV3">
-        <v>0.7392410548011844</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW3">
-        <v>0.7555072247335326</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX3">
-        <v>0.7612623090267722</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY3">
-        <v>0.7623349627801981</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ3">
-        <v>0.7651669054002912</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA3">
-        <v>0.7721599660952231</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB3">
-        <v>0.7730623527854176</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC3">
-        <v>0.7730675688158334</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED3">
-        <v>0.7807460575152797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE3">
-        <v>0.781320661570588</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF3">
-        <v>0.7839283089239282</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG3">
-        <v>0.786333434108711</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH3">
-        <v>0.786333434108711</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI3">
-        <v>0.7886536379559675</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ3">
-        <v>0.7913001977160182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK3">
-        <v>0.7918680248213428</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL3">
-        <v>0.7920329237970968</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM3">
-        <v>0.7920329237970968</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN3">
-        <v>0.7950104876932307</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO3">
-        <v>0.7977623929480229</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP3">
-        <v>0.7977623929480229</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ3">
-        <v>0.7984830762056434</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER3">
-        <v>0.7991692370184864</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES3">
-        <v>0.7991773950703365</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET3">
-        <v>0.7991882970313205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU3">
-        <v>0.800002957683303</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV3">
-        <v>0.8009283962192294</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW3">
-        <v>0.8013571546160272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX3">
-        <v>0.8035426850791764</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY3">
-        <v>0.8088734104617278</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ3">
-        <v>0.8126411905594618</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA3">
-        <v>0.8130570115918822</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB3">
-        <v>0.8132023542411463</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC3">
-        <v>0.8223711851707431</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD3">
-        <v>0.8266373117576664</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE3">
-        <v>0.8266373117576664</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF3">
-        <v>0.8330872229405242</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG3">
-        <v>0.8404923598461387</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH3">
-        <v>0.8584310451950231</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI3">
-        <v>0.8748654368280195</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ3">
-        <v>0.8830790886433866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.8900252691788654</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.8927843762028238</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.8927993913542843</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.8954403414523566</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.9012530898151544</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.9073387269937494</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.9170696131569904</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.9241713779671401</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.9245826368166146</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.9304447315814588</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.9396296970800559</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.9429315928761131</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.944243467650593</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.9445536290568234</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.9475525210148954</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.9615484437249245</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.9673480959937463</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.9711242977010188</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.9834095872381277</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.9860229812724923</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.9870634251258518</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.9870788829841457</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.9909561018076224</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.9919677275586442</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.9927897621907823</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9939317584066556</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.9946909103377634</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.994865317282621</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.9957358467539597</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.9992177672336596</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9993687980276477</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9993938536210635</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9994813024297525</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9996183017417335</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8200,592 +8200,592 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001274588820062105</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003552865138388806</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000471120154905586</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0005605254862090339</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008089584901300692</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001180443917952118</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001633209798094396</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.002097098793742512</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.002126869569289523</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.002180563869256017</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.002509133665167646</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.002596143287342893</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.002632670389396323</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.002632670389396323</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002632670389396323</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.002632670389396323</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002714724589871995</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.002714724589871995</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002737020883610881</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0027391821706757</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002829376512278322</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002952244705544291</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.003042439047146913</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003344866607745885</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003571831037101925</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.003761890086657128</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.004095415841193343</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.004153572685808247</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.004153572685808247</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.004153572685808247</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004218660116243752</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004356264910234556</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004356264910234556</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004504088523387103</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.004538071244390841</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004538071244390841</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004618369529147164</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004816773137437131</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.005002516958881677</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.005343101035106436</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.005972775079597119</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.006443680398136519</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.006784264474361278</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.007000602423737727</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.007184961863472404</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.007278880688982674</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.007278880688982674</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.007278880688982674</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.007314203228931266</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.007362594201911129</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.007528167319212152</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.007791651346742667</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.008172195624550961</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.008992780294736567</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.009369508704804609</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.009610272096905834</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01003262708734491</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01046846348055457</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01086444935972662</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01089625621323559</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.01089625621323559</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01095323444712122</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01095323444712122</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01102927647502519</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01112214629586238</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01125760265580789</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01125760265580789</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01188404878555565</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01301036127217643</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01357928707788872</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01375769894698428</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01406110809498661</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01434527035150876</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01450287701990767</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01471724346912329</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01481116229463356</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01481116229463356</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01481116229463356</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01488720432253753</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01488720432253753</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01492252686248612</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01492252686248612</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01492252686248612</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01520074477595209</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01552060439132747</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01577340691914686</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01581740004995865</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.08860836114828825</v>
+        <v>0.1979171518016547</v>
       </c>
       <c r="CO4">
-        <v>0.1018624823176562</v>
+        <v>0.1979171518016547</v>
       </c>
       <c r="CP4">
-        <v>0.1426756949207192</v>
+        <v>0.2474654269935737</v>
       </c>
       <c r="CQ4">
-        <v>0.1738400473331382</v>
+        <v>0.2522453675023255</v>
       </c>
       <c r="CR4">
-        <v>0.1811600832277396</v>
+        <v>0.2522453675023255</v>
       </c>
       <c r="CS4">
-        <v>0.1898030355873905</v>
+        <v>0.2522453675023255</v>
       </c>
       <c r="CT4">
-        <v>0.2004438406689816</v>
+        <v>0.2522453675023255</v>
       </c>
       <c r="CU4">
-        <v>0.2066631929586735</v>
+        <v>0.2522453675023255</v>
       </c>
       <c r="CV4">
-        <v>0.2200736603569316</v>
+        <v>0.2522453675023255</v>
       </c>
       <c r="CW4">
-        <v>0.2692472106539491</v>
+        <v>0.3405835503675026</v>
       </c>
       <c r="CX4">
-        <v>0.3350182291418153</v>
+        <v>0.5059298975318818</v>
       </c>
       <c r="CY4">
-        <v>0.3912615736262225</v>
+        <v>0.627070184072379</v>
       </c>
       <c r="CZ4">
-        <v>0.4259184694015</v>
+        <v>0.6480546655398165</v>
       </c>
       <c r="DA4">
-        <v>0.4262807352839138</v>
+        <v>0.6480546655398165</v>
       </c>
       <c r="DB4">
-        <v>0.4656592651517169</v>
+        <v>0.6909463662154465</v>
       </c>
       <c r="DC4">
-        <v>0.4750521695323752</v>
+        <v>0.6909463662154465</v>
       </c>
       <c r="DD4">
-        <v>0.5717962301668421</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.5717962301668421</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.5818043012974599</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.5899897714266604</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.5907630588350875</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.5925726896416464</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.5981051264149175</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.5995039392041192</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.6026941540318406</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.6186060374186032</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.6193129931211432</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.6332239701506465</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.6369493303953239</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.639147630861413</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.6520416940393164</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.6520416940393164</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.6521924673917929</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.6521924673917929</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.653145356317172</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.6735731631445167</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.6822953863487278</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.6847784247846582</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.6868910141213842</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.6969992660076909</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.6977610046015271</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.6979046563274486</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7005527348539048</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7025788539257174</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7053117675089475</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7060318385098274</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7064708785354972</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7120975485642015</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7173909780953669</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7215680924654403</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7231177850037364</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7241839300154116</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7249005588041183</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7280948625068444</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7282244174877894</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7292492994101267</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7296145056105398</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7297440605914848</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7297440605914848</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7308597010399381</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7311477791689976</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.7323482926812763</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.7384537862014285</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.7524019266866554</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.7614778286300155</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.761573608041458</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.7633849798323946</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.781527511141804</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.7885309116989606</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.7885309116989606</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.7949298473064608</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8038911841323023</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8260020517866825</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8489443176573096</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8582884317425955</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8677425008308334</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8704704565048125</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8704704565048125</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8718338208813475</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.8771004101947947</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.8814512523836164</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.8902708530721073</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.8946154519491781</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.8951731062107886</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9015929668115806</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9095668201137093</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9123035210292268</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.91338250307333</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9134976874976523</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9172186349024585</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9393435450563011</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9522294226414705</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9571708545919506</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9697158390904962</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9722971268602899</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9727179508502828</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9727683056918489</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.977914262936789</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.980157331285312</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9816936623340901</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9825870355853453</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9831437064798573</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9840808794392135</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9871338779522668</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9957271034142076</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9977465099178967</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9981960255315301</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9995360052150427</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9999293976961345</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001222195750693221</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002791142601409054</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002873773408945408</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003144281843067255</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005176786314153277</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0006777969501412773</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0008728264500610475</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00097325403604214</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001026699756036097</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001050537358947288</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001130763546831653</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001153660069122471</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001153660069122471</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001182042344020144</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001183531856402031</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001183531856402031</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001183531856402031</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001229978254724248</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001426454788260294</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.00165723911405595</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002129841020662346</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002550219112765788</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002805686289732871</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002845661611925565</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002845661611925565</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002926872615566294</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002934522055724538</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00294328926613144</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00294328926613144</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.00294328926613144</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00294328926613144</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00294328926613144</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00295960733778235</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002992216658780752</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003082308776049383</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003129719683489782</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003157922891489658</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003508217091454368</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003752931795126896</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003823761617038967</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003864839283820992</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003880304313099256</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003927715220539654</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.003927715220539654</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.003927715220539654</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.003936482430946556</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.003936482430946556</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.004018663689693322</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004093682513365996</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004124247165829692</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004217155172382948</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004508623090661427</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.004679947982301928</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.004805661230378002</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.004941136797421643</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005055445413620028</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005121994314021668</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005340314371915291</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005470720956117341</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005492995956396663</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005541196239741064</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005541196239741064</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.005541196239741064</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.00565325814056949</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005892498370870841</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.006033715129083767</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.006317518636125969</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.006625810768711006</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.006782705453782589</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.006928859316086861</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007065817701225804</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007115210864092171</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007183087964739187</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007210630914982338</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007210630914982338</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007234639027022477</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007246140584061698</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007246140584061698</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.007392630425093479</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.007732796222641555</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.00793897161439212</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008104663782175114</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008173462227790539</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.008499994610470111</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.008800052559823735</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.009017255341186133</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.009156664431288319</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.009200405181809279</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.009336784091197838</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0108486603425015</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1274895305384533</v>
+        <v>0.2237067720574061</v>
       </c>
       <c r="CO5">
-        <v>0.1440874838539788</v>
+        <v>0.2237067720574061</v>
       </c>
       <c r="CP5">
-        <v>0.1877493741285858</v>
+        <v>0.2587941759832298</v>
       </c>
       <c r="CQ5">
-        <v>0.2076785543698392</v>
+        <v>0.2587941759832298</v>
       </c>
       <c r="CR5">
-        <v>0.2078341678280659</v>
+        <v>0.2587941759832298</v>
       </c>
       <c r="CS5">
-        <v>0.2079775600036333</v>
+        <v>0.2587941759832298</v>
       </c>
       <c r="CT5">
-        <v>0.2084762275816563</v>
+        <v>0.2587941759832298</v>
       </c>
       <c r="CU5">
-        <v>0.2562293364707701</v>
+        <v>0.3044556256245205</v>
       </c>
       <c r="CV5">
-        <v>0.2958138251945752</v>
+        <v>0.3290046950194989</v>
       </c>
       <c r="CW5">
-        <v>0.2958652299549361</v>
+        <v>0.3290046950194989</v>
       </c>
       <c r="CX5">
-        <v>0.4530979218840306</v>
+        <v>0.6576239196059362</v>
       </c>
       <c r="CY5">
-        <v>0.4531972947892245</v>
+        <v>0.6576239196059362</v>
       </c>
       <c r="CZ5">
-        <v>0.4667427427331052</v>
+        <v>0.6576239196059362</v>
       </c>
       <c r="DA5">
-        <v>0.5442685883469046</v>
+        <v>0.7802351264870605</v>
       </c>
       <c r="DB5">
-        <v>0.5704188059388088</v>
+        <v>0.7802351264870605</v>
       </c>
       <c r="DC5">
-        <v>0.6855345107311318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD5">
-        <v>0.7061538999165901</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE5">
-        <v>0.7347165954963012</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF5">
-        <v>0.7378023162852966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG5">
-        <v>0.7446981514463533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH5">
-        <v>0.7469268582471366</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI5">
-        <v>0.7497355885035385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ5">
-        <v>0.7628527716959725</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK5">
-        <v>0.7628527716959725</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL5">
-        <v>0.7636291459979149</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM5">
-        <v>0.778896380306362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN5">
-        <v>0.7806810175775781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO5">
-        <v>0.7829861628754758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP5">
-        <v>0.7831186464245579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ5">
-        <v>0.7850160167462474</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR5">
-        <v>0.7903230474303281</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS5">
-        <v>0.7907444005340836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT5">
-        <v>0.7910531658727519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU5">
-        <v>0.7910545384323044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV5">
-        <v>0.7973899299475973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW5">
-        <v>0.8048632645844174</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX5">
-        <v>0.8080880831355369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY5">
-        <v>0.8084482507609616</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ5">
-        <v>0.8147529354602642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA5">
-        <v>0.8191852674385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB5">
-        <v>0.8196158555067805</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC5">
-        <v>0.8250545203904164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED5">
-        <v>0.8285554023490544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE5">
-        <v>0.8317679254294458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF5">
-        <v>0.8317679254294458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG5">
-        <v>0.8320404618430481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH5">
-        <v>0.8343050051036772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI5">
-        <v>0.8381308055158198</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ5">
-        <v>0.8382536236028584</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK5">
-        <v>0.8382818268108583</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.8382825643765365</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.8404124644706904</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.8422613653878772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.8427259039756169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.8428524914949117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.8448044117727646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.845845703760988</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.846023763981983</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.8463440245075314</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.8475430026189039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.8475430026189039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8481842214623244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8489715071704214</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8531003564610916</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8539817059170758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8544330661127784</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.858847507557435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8674711977935283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8722459311409176</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8726988681918307</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8752940853266319</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.88193644314752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8981031403057665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.9079138145558542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.9163695931987247</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9195959019335614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.920308054987016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9204668803380557</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9235592459415427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.930378581091504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9374465476246046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9482437756769807</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9486336991303114</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9500632344524426</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9553473065734187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9579784664377328</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9600128786701113</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9604705197543615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9604705197543615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9651469360985923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9732278171316693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9764859445502126</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9812910515546738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9871010706220265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9899317428050859</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9912599350977965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9919564034909697</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9933529399239601</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9944219524401443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9945331850462079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9967585395858964</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9970819288550169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9971939907558454</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9981291756826011</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9987518579551528</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9987805594334236</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9990801504886505</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9998001305188378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9999867471640037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,592 +9743,592 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.851652538126143E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8.053772342528056E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8.053772342528056E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.053772342528056E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.053772342528056E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.053772342528056E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.939836125997716E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.939836125997716E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.939836125997716E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.939836125997716E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0005307468493438773</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0009265871841192255</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0009265871841192255</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001024602915470709</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.00114383489735912</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001146644513438863</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0013693219817361</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001625353424128556</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001699575696963918</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001787683534592438</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001787683534592438</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001817786470690003</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001887910637523895</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001915903525419608</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00203660554143001</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002163712447610343</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002284414463620745</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002948636908320819</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.003048554731777044</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.003048554731777044</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.003578418249904201</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003825871290709839</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.003886507862443085</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.003933858638244481</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.004014061157678583</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.004014061157678583</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.004345824177485147</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0044838883603147</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0044838883603147</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.00449604450064912</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.004733277319533487</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.004838443758269239</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.004977020365080975</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.005169660579634247</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.005284014044632772</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00567985437940812</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.006058235558565261</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.006714710409825932</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.007214074668225552</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.007475307522538902</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.007691354121845613</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.007691354121845613</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.007691354121845613</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.007691354121845613</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.007691354121845613</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.007691354121845613</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.09943864558141192</v>
+        <v>0.2360892737545193</v>
       </c>
       <c r="CO6">
-        <v>0.101016051177767</v>
+        <v>0.2360892737545193</v>
       </c>
       <c r="CP6">
-        <v>0.1526860033674471</v>
+        <v>0.3170449841137947</v>
       </c>
       <c r="CQ6">
-        <v>0.2073082933560162</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CR6">
-        <v>0.2134664777541286</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CS6">
-        <v>0.2273560293334154</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CT6">
-        <v>0.2383271285301156</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CU6">
-        <v>0.2469900415605328</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CV6">
-        <v>0.2507812147843239</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CW6">
-        <v>0.2775795762804236</v>
+        <v>0.4094910202137336</v>
       </c>
       <c r="CX6">
-        <v>0.3745450107212862</v>
+        <v>0.6667340937068602</v>
       </c>
       <c r="CY6">
-        <v>0.4163365629913032</v>
+        <v>0.7092436503379989</v>
       </c>
       <c r="CZ6">
-        <v>0.4423218445609723</v>
+        <v>0.7092436503379989</v>
       </c>
       <c r="DA6">
-        <v>0.4462618914952409</v>
+        <v>0.7092436503379989</v>
       </c>
       <c r="DB6">
-        <v>0.4990255741251346</v>
+        <v>0.7944560954907192</v>
       </c>
       <c r="DC6">
-        <v>0.511849738019001</v>
+        <v>0.7944560954907192</v>
       </c>
       <c r="DD6">
-        <v>0.5955315272258564</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.5984063891007212</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.6048547902626986</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6169230211961045</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6169230211961045</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.619237763475444</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.634629062118588</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6349565110085866</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6376399170148543</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6589959790988352</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6620773467496899</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6754620816367533</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.6775710238054268</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.6780508455415182</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.6880150489826552</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.6880150489826552</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.6880150489826552</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.6880150489826552</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.6892315742213534</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7103454380705826</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7179413602435132</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7204177572270875</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7234590737821635</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7318057875655521</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7321222301400871</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7321222301400871</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7374097767940702</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7395576937763184</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.741177187202123</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7416618665703142</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.7416618665703142</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.7444765328598317</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.7495531157580628</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.7531852834520545</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7532175217386815</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7532175217386815</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7541156712116907</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7570717448473953</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7570717448473953</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7585783333768241</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7586796812587987</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7588263305628496</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7588263305628496</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7601512382179659</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7603595964665371</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7610646278946848</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7650213828683862</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7740608899351594</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7776417889953228</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.7777925219187556</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.7780185383091596</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.7910648882669385</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.7985924018641722</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.7985924018641722</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8061678146340479</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8146008663883615</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8334720086589736</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8535868847669837</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.864055319006284</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8713974225394353</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8734012343666691</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8734012343666691</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8761717994251307</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8832818733556649</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8886735539163928</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.8988448185403494</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9033752013378548</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.904074684712194</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9106205602912602</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9196426678599112</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9235211845110537</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9249901906845083</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9249901906845083</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9275808191737883</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9441088373264677</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9540574508006956</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9609871958722728</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9754377021275926</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9787153092387266</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9801896776390595</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9801896776390595</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.984337550529368</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9856198350656296</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.986136842305205</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9874241880328657</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9875698324923088</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9880338084383677</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9902184268615384</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9975425132708997</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9983838985274922</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9983838985274922</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9990543274672266</v>
+        <v>1</v>
       </c>
       <c r="GR6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.02029854532676039</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5005422679001429</v>
+        <v>0.705997048418753</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -10611,16 +10611,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.05311894025337154</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="F3">
-        <v>0.5591147224866397</v>
+        <v>0.5821186529732429</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.01577340691914686</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5717962301668421</v>
+        <v>0.5059298975318818</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.009336784091197838</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5442685883469046</v>
+        <v>0.6576239196059362</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.511849738019001</v>
+        <v>0.6667340937068602</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.02029854532676039</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7086417321627659</v>
+        <v>0.705997048418753</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -10870,16 +10870,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.05311894025337154</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="F3">
-        <v>0.7034444783160195</v>
+        <v>0.8128733285797073</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01577340691914686</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7005527348539048</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.009336784091197838</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7061538999165901</v>
+        <v>0.7802351264870605</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7103454380705826</v>
+        <v>0.7092436503379989</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.02029854532676039</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8057014939846793</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -11129,16 +11129,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.05311894025337154</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="F3">
-        <v>0.800002957683303</v>
+        <v>0.8128733285797073</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01577340691914686</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8038911841323023</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.009336784091197838</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8048632645844174</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8061678146340479</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.02029854532676039</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.902904145140907</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -11388,16 +11388,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.05311894025337154</v>
+        <v>0.03260098063624442</v>
       </c>
       <c r="F3">
-        <v>0.9012530898151544</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01577340691914686</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9015929668115806</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.009336784091197838</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9079138145558542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.007908493304691951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9033752013378548</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>40</v>

--- a/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1876565091125819</v>
+        <v>0.1613222894898886</v>
       </c>
       <c r="E2">
-        <v>0.01251292254725333</v>
+        <v>0.03454938278284612</v>
       </c>
       <c r="F2">
-        <v>0.0136733176366529</v>
+        <v>0.03538930310934287</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.008068640211402529</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,37 +689,37 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.06010067225978656</v>
+        <v>0.0689944770795466</v>
       </c>
       <c r="L2">
-        <v>0.06553072461067345</v>
+        <v>0.07292487232605809</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.367971131196953</v>
+        <v>0.2918381091764473</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0002482012054538961</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01329872165042877</v>
       </c>
       <c r="Q2">
-        <v>0.06971352296805244</v>
+        <v>0.07595247679809845</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2228411996680464</v>
+        <v>0.1867897678074022</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.008606011936145908</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.02012029251601316</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01386804625222533</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.008029407658700421</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -775,64 +775,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04810801494630937</v>
+        <v>0.05802179344130491</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1145742877765236</v>
+        <v>0.1027319545916575</v>
       </c>
       <c r="G3">
-        <v>0.06496620444687723</v>
+        <v>0.06936186619066691</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00813568316824179</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01203717762725273</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.02052474806959182</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.06077069549222491</v>
+        <v>0.06653965466167951</v>
       </c>
       <c r="N3">
-        <v>0.1565631026004545</v>
+        <v>0.1309767560127608</v>
       </c>
       <c r="O3">
-        <v>0.1538359626683332</v>
+        <v>0.1291422787560598</v>
       </c>
       <c r="P3">
-        <v>0.02334980851961561</v>
+        <v>0.04136758143277507</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.205719568048646</v>
+        <v>0.164043052619832</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.001074340802754849</v>
       </c>
       <c r="T3">
-        <v>0.1721123555010158</v>
+        <v>0.1414363406012869</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.01474517389367799</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01425147006927756</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.002086990766585298</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.004448927674873909</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.01907420961972067</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -882,64 +882,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1705093808421249</v>
+        <v>0.1374397035822815</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01429807020385547</v>
       </c>
       <c r="F4">
-        <v>0.06898586378678902</v>
+        <v>0.07129927378839013</v>
       </c>
       <c r="G4">
-        <v>0.03835249313924664</v>
+        <v>0.05134227900106719</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002024443417255639</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004760666813119077</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.008892878864057508</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01462144527752529</v>
       </c>
       <c r="M4">
-        <v>0.0955284106013715</v>
+        <v>0.08859118314161028</v>
       </c>
       <c r="N4">
-        <v>0.1482223438593196</v>
+        <v>0.1229201691174575</v>
       </c>
       <c r="O4">
-        <v>0.1179737172453779</v>
+        <v>0.1032138269521188</v>
       </c>
       <c r="P4">
-        <v>0.04944068109338431</v>
+        <v>0.05856599955561008</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06443100786365503</v>
+        <v>0.06833188123597166</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.006311812573164285</v>
       </c>
       <c r="T4">
-        <v>0.2465561015687312</v>
+        <v>0.186982537983224</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.007584178363496657</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.003814444118624861</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.0197951906585514</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01565666269226719</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01355335266035133</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2111211465848363</v>
+        <v>0.1715567336402594</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01388751504788677</v>
       </c>
       <c r="F5">
-        <v>0.0458858978966725</v>
+        <v>0.05654070755197792</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.019137581346545</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1010,37 +1010,37 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05514902442891872</v>
+        <v>0.06298853276693887</v>
       </c>
       <c r="L5">
-        <v>0.03665405524863353</v>
+        <v>0.05011465824785134</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3030270593012148</v>
+        <v>0.2355300864120008</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.009076718324801347</v>
       </c>
       <c r="Q5">
-        <v>0.1225589219382126</v>
+        <v>0.109910836525318</v>
       </c>
       <c r="R5">
-        <v>0.006236870275421426</v>
+        <v>0.02894203456019351</v>
       </c>
       <c r="S5">
-        <v>0.2076679456079139</v>
+        <v>0.1691530488526429</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.02022536155419635</v>
       </c>
       <c r="U5">
-        <v>0.01169907871817627</v>
+        <v>0.03274413800809134</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.008401766306039705</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01179028085525688</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1096,55 +1096,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2072126766431189</v>
+        <v>0.1617311078452908</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0911276552073385</v>
+        <v>0.0857965503641495</v>
       </c>
       <c r="G6">
-        <v>0.09972576048331082</v>
+        <v>0.09142081877735227</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01382405660982873</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.008264340659643229</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.003867195268047824</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01869402134444706</v>
+        <v>0.03841562329792623</v>
       </c>
       <c r="N6">
-        <v>0.2230418708056228</v>
+        <v>0.1720854398611379</v>
       </c>
       <c r="O6">
-        <v>0.06235875129011639</v>
+        <v>0.06697798134333698</v>
       </c>
       <c r="P6">
-        <v>0.01632608539624327</v>
+        <v>0.03686668816274159</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.09431293077845739</v>
+        <v>0.08788013089811365</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.01179446964685298</v>
       </c>
       <c r="T6">
-        <v>0.1843558572289775</v>
+        <v>0.1467798036531358</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.01035440073820133</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01668491778196502</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002844390822367484</v>
+        <v>0.02804792327041222</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01286236971288941</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.006346182108974349</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1323,91 +1323,91 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1876565091125819</v>
+        <v>0.1613222894898886</v>
       </c>
       <c r="E2">
-        <v>0.2001694316598353</v>
+        <v>0.1958716722727348</v>
       </c>
       <c r="F2">
-        <v>0.2138427492964881</v>
+        <v>0.2312609753820776</v>
       </c>
       <c r="G2">
-        <v>0.2138427492964881</v>
+        <v>0.2393296155934801</v>
       </c>
       <c r="H2">
-        <v>0.2138427492964881</v>
+        <v>0.2393296155934801</v>
       </c>
       <c r="I2">
-        <v>0.2138427492964881</v>
+        <v>0.2393296155934801</v>
       </c>
       <c r="J2">
-        <v>0.2138427492964881</v>
+        <v>0.2393296155934801</v>
       </c>
       <c r="K2">
-        <v>0.2739434215562747</v>
+        <v>0.3083240926730267</v>
       </c>
       <c r="L2">
-        <v>0.3394741461669482</v>
+        <v>0.3812489649990848</v>
       </c>
       <c r="M2">
-        <v>0.3394741461669482</v>
+        <v>0.3812489649990848</v>
       </c>
       <c r="N2">
-        <v>0.7074452773639011</v>
+        <v>0.6730870741755322</v>
       </c>
       <c r="O2">
-        <v>0.7074452773639011</v>
+        <v>0.673335275380986</v>
       </c>
       <c r="P2">
-        <v>0.7074452773639011</v>
+        <v>0.6866339970314148</v>
       </c>
       <c r="Q2">
-        <v>0.7771588003319535</v>
+        <v>0.7625864738295133</v>
       </c>
       <c r="R2">
-        <v>0.7771588003319535</v>
+        <v>0.7625864738295133</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9493762416369155</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9579822535730613</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9781025460890744</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9919705923412998</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9919705923412998</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9919705923412998</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9919705923412998</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9919705923412998</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04810801494630937</v>
+        <v>0.05802179344130491</v>
       </c>
       <c r="E3">
-        <v>0.04810801494630937</v>
+        <v>0.05802179344130491</v>
       </c>
       <c r="F3">
-        <v>0.1626823027228329</v>
+        <v>0.1607537480329624</v>
       </c>
       <c r="G3">
-        <v>0.2276485071697102</v>
+        <v>0.2301156142236294</v>
       </c>
       <c r="H3">
-        <v>0.2276485071697102</v>
+        <v>0.2382512973918711</v>
       </c>
       <c r="I3">
-        <v>0.2276485071697102</v>
+        <v>0.2382512973918711</v>
       </c>
       <c r="J3">
-        <v>0.2276485071697102</v>
+        <v>0.2502884750191239</v>
       </c>
       <c r="K3">
-        <v>0.2276485071697102</v>
+        <v>0.2708132230887157</v>
       </c>
       <c r="L3">
-        <v>0.2276485071697102</v>
+        <v>0.2708132230887157</v>
       </c>
       <c r="M3">
-        <v>0.288419202661935</v>
+        <v>0.3373528777503952</v>
       </c>
       <c r="N3">
-        <v>0.4449823052623896</v>
+        <v>0.468329633763156</v>
       </c>
       <c r="O3">
-        <v>0.5988182679307228</v>
+        <v>0.5974719125192158</v>
       </c>
       <c r="P3">
-        <v>0.6221680764503384</v>
+        <v>0.6388394939519909</v>
       </c>
       <c r="Q3">
-        <v>0.6221680764503384</v>
+        <v>0.6388394939519909</v>
       </c>
       <c r="R3">
-        <v>0.8278876444989844</v>
+        <v>0.8028825465718229</v>
       </c>
       <c r="S3">
-        <v>0.8278876444989844</v>
+        <v>0.8039568873745777</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.9453932279758646</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9601384018695426</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9743898719388201</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9764768627054053</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9764768627054053</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9764768627054053</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9809257903802793</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9809257903802793</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9809257903802793</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1705093808421249</v>
+        <v>0.1374397035822815</v>
       </c>
       <c r="E4">
-        <v>0.1705093808421249</v>
+        <v>0.151737773786137</v>
       </c>
       <c r="F4">
-        <v>0.2394952446289139</v>
+        <v>0.2230370475745271</v>
       </c>
       <c r="G4">
-        <v>0.2778477377681606</v>
+        <v>0.2743793265755943</v>
       </c>
       <c r="H4">
-        <v>0.2778477377681606</v>
+        <v>0.2764037699928499</v>
       </c>
       <c r="I4">
-        <v>0.2778477377681606</v>
+        <v>0.281164436805969</v>
       </c>
       <c r="J4">
-        <v>0.2778477377681606</v>
+        <v>0.2900573156700265</v>
       </c>
       <c r="K4">
-        <v>0.2778477377681606</v>
+        <v>0.2900573156700265</v>
       </c>
       <c r="L4">
-        <v>0.2778477377681606</v>
+        <v>0.3046787609475518</v>
       </c>
       <c r="M4">
-        <v>0.3733761483695321</v>
+        <v>0.3932699440891621</v>
       </c>
       <c r="N4">
-        <v>0.5215984922288517</v>
+        <v>0.5161901132066196</v>
       </c>
       <c r="O4">
-        <v>0.6395722094742295</v>
+        <v>0.6194039401587383</v>
       </c>
       <c r="P4">
-        <v>0.6890128905676138</v>
+        <v>0.6779699397143484</v>
       </c>
       <c r="Q4">
-        <v>0.6890128905676138</v>
+        <v>0.6779699397143484</v>
       </c>
       <c r="R4">
-        <v>0.7534438984312689</v>
+        <v>0.74630182095032</v>
       </c>
       <c r="S4">
-        <v>0.7534438984312689</v>
+        <v>0.7526136335234843</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9395961715067083</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9395961715067083</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9471803498702049</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9509947939888298</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9509947939888298</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9509947939888298</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9509947939888298</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9509947939888298</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9509947939888298</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9707899846473812</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9707899846473812</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9864466473396484</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9864466473396484</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9864466473396484</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,79 +1644,79 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2111211465848363</v>
+        <v>0.1715567336402594</v>
       </c>
       <c r="E5">
-        <v>0.2111211465848363</v>
+        <v>0.1854442486881462</v>
       </c>
       <c r="F5">
-        <v>0.2570070444815088</v>
+        <v>0.2419849562401241</v>
       </c>
       <c r="G5">
-        <v>0.2570070444815088</v>
+        <v>0.2611225375866691</v>
       </c>
       <c r="H5">
-        <v>0.2570070444815088</v>
+        <v>0.2611225375866691</v>
       </c>
       <c r="I5">
-        <v>0.2570070444815088</v>
+        <v>0.2611225375866691</v>
       </c>
       <c r="J5">
-        <v>0.2570070444815088</v>
+        <v>0.2611225375866691</v>
       </c>
       <c r="K5">
-        <v>0.3121560689104275</v>
+        <v>0.324111070353608</v>
       </c>
       <c r="L5">
-        <v>0.348810124159061</v>
+        <v>0.3742257286014593</v>
       </c>
       <c r="M5">
-        <v>0.348810124159061</v>
+        <v>0.3742257286014593</v>
       </c>
       <c r="N5">
-        <v>0.6518371834602759</v>
+        <v>0.6097558150134601</v>
       </c>
       <c r="O5">
-        <v>0.6518371834602759</v>
+        <v>0.6097558150134601</v>
       </c>
       <c r="P5">
-        <v>0.6518371834602759</v>
+        <v>0.6188325333382615</v>
       </c>
       <c r="Q5">
-        <v>0.7743961053984885</v>
+        <v>0.7287433698635795</v>
       </c>
       <c r="R5">
-        <v>0.7806329756739099</v>
+        <v>0.757685404423773</v>
       </c>
       <c r="S5">
-        <v>0.9883009212818238</v>
+        <v>0.9268384532764158</v>
       </c>
       <c r="T5">
-        <v>0.9883009212818238</v>
+        <v>0.9470638148306121</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9798079528387034</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9798079528387034</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9798079528387034</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9798079528387034</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9798079528387034</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9882097191447431</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9882097191447431</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9882097191447431</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2072126766431189</v>
+        <v>0.1617311078452908</v>
       </c>
       <c r="E6">
-        <v>0.2072126766431189</v>
+        <v>0.1617311078452908</v>
       </c>
       <c r="F6">
-        <v>0.2983403318504574</v>
+        <v>0.2475276582094403</v>
       </c>
       <c r="G6">
-        <v>0.3980660923337682</v>
+        <v>0.3389484769867926</v>
       </c>
       <c r="H6">
-        <v>0.3980660923337682</v>
+        <v>0.3389484769867926</v>
       </c>
       <c r="I6">
-        <v>0.3980660923337682</v>
+        <v>0.3527725335966213</v>
       </c>
       <c r="J6">
-        <v>0.3980660923337682</v>
+        <v>0.3610368742562645</v>
       </c>
       <c r="K6">
-        <v>0.3980660923337682</v>
+        <v>0.3649040695243123</v>
       </c>
       <c r="L6">
-        <v>0.3980660923337682</v>
+        <v>0.3649040695243123</v>
       </c>
       <c r="M6">
-        <v>0.4167601136782153</v>
+        <v>0.4033196928222386</v>
       </c>
       <c r="N6">
-        <v>0.6398019844838381</v>
+        <v>0.5754051326833765</v>
       </c>
       <c r="O6">
-        <v>0.7021607357739544</v>
+        <v>0.6423831140267134</v>
       </c>
       <c r="P6">
-        <v>0.7184868211701977</v>
+        <v>0.6792498021894551</v>
       </c>
       <c r="Q6">
-        <v>0.7184868211701977</v>
+        <v>0.6792498021894551</v>
       </c>
       <c r="R6">
-        <v>0.8127997519486551</v>
+        <v>0.7671299330875687</v>
       </c>
       <c r="S6">
-        <v>0.8127997519486551</v>
+        <v>0.7789244027344217</v>
       </c>
       <c r="T6">
-        <v>0.9971556091776326</v>
+        <v>0.9257042063875575</v>
       </c>
       <c r="U6">
-        <v>0.9971556091776326</v>
+        <v>0.9257042063875575</v>
       </c>
       <c r="V6">
-        <v>0.9971556091776326</v>
+        <v>0.9257042063875575</v>
       </c>
       <c r="W6">
-        <v>0.9971556091776326</v>
+        <v>0.9360586071257588</v>
       </c>
       <c r="X6">
-        <v>0.9971556091776326</v>
+        <v>0.9360586071257588</v>
       </c>
       <c r="Y6">
-        <v>0.9971556091776326</v>
+        <v>0.9360586071257588</v>
       </c>
       <c r="Z6">
-        <v>0.9971556091776326</v>
+        <v>0.9527435249077238</v>
       </c>
       <c r="AA6">
-        <v>0.9971556091776326</v>
+        <v>0.9527435249077238</v>
       </c>
       <c r="AB6">
-        <v>0.9971556091776326</v>
+        <v>0.9527435249077238</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9807914481781361</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9807914481781361</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9936538178910256</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9936538178910256</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9936538178910256</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7074452773639011</v>
+        <v>0.6730870741755322</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1950,19 +1950,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3">
-        <v>0.04810801494630937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5988182679307228</v>
+        <v>0.5974719125192158</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5215984922288517</v>
+        <v>0.5161901132066196</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6518371834602759</v>
+        <v>0.6097558150134601</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6398019844838381</v>
+        <v>0.5754051326833765</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7074452773639011</v>
+        <v>0.7625864738295133</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -2209,19 +2209,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0.04810801494630937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8278876444989844</v>
+        <v>0.8028825465718229</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7534438984312689</v>
+        <v>0.74630182095032</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7743961053984885</v>
+        <v>0.7287433698635795</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7021607357739544</v>
+        <v>0.7671299330875687</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9493762416369155</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2468,19 +2468,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0.04810801494630937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8278876444989844</v>
+        <v>0.8028825465718229</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9395961715067083</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9883009212818238</v>
+        <v>0.9268384532764158</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8127997519486551</v>
+        <v>0.9257042063875575</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9493762416369155</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2727,19 +2727,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0.04810801494630937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9453932279758646</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9395961715067083</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9883009212818238</v>
+        <v>0.9268384532764158</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9971556091776326</v>
+        <v>0.9257042063875575</v>
       </c>
       <c r="G6">
         <v>18</v>
